--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Creature Traits" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
     <sheet name="Environment" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="c_avgs_1" localSheetId="1">'Creature Averages'!$A$1:$L$2</definedName>
-    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$36</definedName>
+    <definedName name="c_avgs" localSheetId="1">'Creature Averages'!$A$1:$L$3</definedName>
+    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$43</definedName>
     <definedName name="env_1" localSheetId="8">Environment!$A$1:$L$2</definedName>
     <definedName name="lifetime_1" localSheetId="5">'Lifetime ticks'!$A$1:$F$2</definedName>
-    <definedName name="metabolism" localSheetId="4">Metabolism!$A$1:$L$2</definedName>
+    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$43</definedName>
     <definedName name="p_impact_1" localSheetId="6">'Player Impact'!$A$1:$F$2</definedName>
     <definedName name="p_stats" localSheetId="7">'Player Stats'!$A$1:$P$2</definedName>
-    <definedName name="reproduction_1" localSheetId="2">'Reproductive Traits'!$A$1:$G$2</definedName>
-    <definedName name="sensing_1" localSheetId="3">Sensing!$A$1:$D$2</definedName>
+    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$43</definedName>
+    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -276,9 +276,6 @@
     <t xml:space="preserve">   Gamete Cost   </t>
   </si>
   <si>
-    <t xml:space="preserve">   Spawn Time   </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Creature Scent   </t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Overall Lightning Accuracy   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Gamete Time   </t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -536,11 +536,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +624,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,19 +651,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="c_avgs_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="c_avgs" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reproduction_1" refreshOnLoad="1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="reproduction" refreshOnLoad="1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sensing_1" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sensing" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="metabolism" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="metabolism_1" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>118.44893</v>
+        <v>154.11483999999999</v>
       </c>
       <c r="D2" s="18">
-        <v>47.772624999999998</v>
+        <v>43.642200000000003</v>
       </c>
       <c r="E2" s="18">
-        <v>77.720849999999999</v>
+        <v>77.350173999999996</v>
       </c>
       <c r="F2" s="18">
-        <v>8.0260960000000008</v>
+        <v>7.9939245999999997</v>
       </c>
       <c r="K2" s="18">
-        <v>704.45479999999998</v>
+        <v>712.71559999999999</v>
       </c>
       <c r="M2" s="18">
         <v>100</v>
@@ -996,19 +1043,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="18">
-        <v>132.59293</v>
+        <v>135.26382000000001</v>
       </c>
       <c r="D3" s="18">
-        <v>41.17015</v>
+        <v>43.943947000000001</v>
       </c>
       <c r="E3" s="18">
-        <v>77.811676000000006</v>
+        <v>78.896910000000005</v>
       </c>
       <c r="F3" s="18">
-        <v>7.9754149999999999</v>
+        <v>7.9605655999999998</v>
       </c>
       <c r="K3" s="18">
-        <v>717.65967000000001</v>
+        <v>712.11210000000005</v>
       </c>
       <c r="M3" s="18">
         <v>100</v>
@@ -1022,19 +1069,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="18">
-        <v>126.65949999999999</v>
+        <v>137.17693</v>
       </c>
       <c r="D4" s="18">
-        <v>36.895350000000001</v>
+        <v>41.257137</v>
       </c>
       <c r="E4" s="18">
-        <v>87.052480000000003</v>
+        <v>82.116669999999999</v>
       </c>
       <c r="F4" s="18">
-        <v>9.0067830000000004</v>
+        <v>9.0071060000000003</v>
       </c>
       <c r="K4" s="18">
-        <v>743.79534999999998</v>
+        <v>732.78549999999996</v>
       </c>
       <c r="M4" s="18">
         <v>100</v>
@@ -1048,19 +1095,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="18">
-        <v>152.86093</v>
+        <v>151.01679999999999</v>
       </c>
       <c r="D5" s="18">
-        <v>49.037599999999998</v>
+        <v>45.442585000000001</v>
       </c>
       <c r="E5" s="18">
-        <v>80.05838</v>
+        <v>81.772620000000003</v>
       </c>
       <c r="F5" s="18">
-        <v>8.040832</v>
+        <v>8.0394570000000005</v>
       </c>
       <c r="K5" s="18">
-        <v>701.9248</v>
+        <v>709.11479999999995</v>
       </c>
       <c r="M5" s="18">
         <v>100</v>
@@ -1074,19 +1121,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="18">
-        <v>120.15527</v>
+        <v>144.70716999999999</v>
       </c>
       <c r="D6" s="18">
-        <v>41.633384999999997</v>
+        <v>41.703795999999997</v>
       </c>
       <c r="E6" s="18">
-        <v>81.704610000000002</v>
+        <v>72.932659999999998</v>
       </c>
       <c r="F6" s="18">
-        <v>8.9980650000000004</v>
+        <v>7.9775714999999998</v>
       </c>
       <c r="K6" s="18">
-        <v>735.88696000000004</v>
+        <v>716.5924</v>
       </c>
       <c r="M6" s="18">
         <v>100</v>
@@ -1100,19 +1147,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="18">
-        <v>138.74258</v>
+        <v>132.75253000000001</v>
       </c>
       <c r="D7" s="18">
-        <v>45.983739999999997</v>
+        <v>56.748710000000003</v>
       </c>
       <c r="E7" s="18">
-        <v>74.826096000000007</v>
+        <v>74.382739999999998</v>
       </c>
       <c r="F7" s="18">
-        <v>8.0412245000000002</v>
+        <v>8.0051640000000006</v>
       </c>
       <c r="K7" s="18">
-        <v>708.03252999999995</v>
+        <v>686.50256000000002</v>
       </c>
       <c r="M7" s="18">
         <v>100</v>
@@ -1126,19 +1173,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="18">
-        <v>130.17908</v>
+        <v>110.82988</v>
       </c>
       <c r="D8" s="18">
-        <v>47.343600000000002</v>
+        <v>40.969242000000001</v>
       </c>
       <c r="E8" s="18">
-        <v>78.907079999999993</v>
+        <v>79.494529999999997</v>
       </c>
       <c r="F8" s="18">
-        <v>7.991104</v>
+        <v>8.0053920000000005</v>
       </c>
       <c r="K8" s="18">
-        <v>705.31280000000004</v>
+        <v>718.06150000000002</v>
       </c>
       <c r="M8" s="18">
         <v>100</v>
@@ -1152,19 +1199,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>114.93615</v>
+        <v>128.91692</v>
       </c>
       <c r="D9" s="18">
-        <v>37.872272000000002</v>
+        <v>49.261710000000001</v>
       </c>
       <c r="E9" s="18">
-        <v>83.513959999999997</v>
+        <v>78.051349999999999</v>
       </c>
       <c r="F9" s="18">
-        <v>9.0284479999999991</v>
+        <v>7.973954</v>
       </c>
       <c r="K9" s="18">
-        <v>741.00019999999995</v>
+        <v>701.47655999999995</v>
       </c>
       <c r="M9" s="18">
         <v>100</v>
@@ -1178,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="18">
-        <v>155.03648000000001</v>
+        <v>158.06413000000001</v>
       </c>
       <c r="D10" s="18">
-        <v>45.076782000000001</v>
+        <v>45.962643</v>
       </c>
       <c r="E10" s="18">
-        <v>81.160610000000005</v>
+        <v>80.426699999999997</v>
       </c>
       <c r="F10" s="18">
-        <v>7.9671282999999997</v>
+        <v>7.9709085999999996</v>
       </c>
       <c r="K10" s="18">
-        <v>709.84644000000003</v>
+        <v>708.07470000000001</v>
       </c>
       <c r="M10" s="18">
         <v>100</v>
@@ -1204,19 +1251,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="18">
-        <v>99.267880000000005</v>
+        <v>132.39804000000001</v>
       </c>
       <c r="D11" s="18">
-        <v>41.224505999999998</v>
+        <v>37.272219999999997</v>
       </c>
       <c r="E11" s="18">
-        <v>84.812706000000006</v>
+        <v>72.816810000000004</v>
       </c>
       <c r="F11" s="18">
-        <v>8.9901704999999996</v>
+        <v>7.9794025</v>
       </c>
       <c r="K11" s="18">
-        <v>735.42240000000004</v>
+        <v>725.45556999999997</v>
       </c>
       <c r="M11" s="18">
         <v>100</v>
@@ -1230,19 +1277,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="18">
-        <v>127.237076</v>
+        <v>127.907104</v>
       </c>
       <c r="D12" s="18">
-        <v>36.209316000000001</v>
+        <v>54.351944000000003</v>
       </c>
       <c r="E12" s="18">
-        <v>76.456670000000003</v>
+        <v>77.109790000000004</v>
       </c>
       <c r="F12" s="18">
-        <v>8.0060490000000009</v>
+        <v>7.9946603999999999</v>
       </c>
       <c r="K12" s="18">
-        <v>727.58136000000002</v>
+        <v>691.29614000000004</v>
       </c>
       <c r="M12" s="18">
         <v>100</v>
@@ -1256,19 +1303,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>116.92</v>
+        <v>138.47273000000001</v>
       </c>
       <c r="D13" s="18">
-        <v>48.604709999999997</v>
+        <v>38.905678000000002</v>
       </c>
       <c r="E13" s="18">
-        <v>75.416759999999996</v>
+        <v>74.381140000000002</v>
       </c>
       <c r="F13" s="18">
-        <v>8.0238990000000001</v>
+        <v>8.0133840000000003</v>
       </c>
       <c r="K13" s="18">
-        <v>702.79060000000004</v>
+        <v>722.18866000000003</v>
       </c>
       <c r="M13" s="18">
         <v>100</v>
@@ -1282,19 +1329,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>126.52513</v>
+        <v>104.50162</v>
       </c>
       <c r="D14" s="18">
-        <v>46.915897000000001</v>
+        <v>36.205199999999998</v>
       </c>
       <c r="E14" s="18">
-        <v>74.839619999999996</v>
+        <v>87.193984999999998</v>
       </c>
       <c r="F14" s="18">
-        <v>8.0303970000000007</v>
+        <v>8.9990260000000006</v>
       </c>
       <c r="K14" s="18">
-        <v>706.16819999999996</v>
+        <v>743.09960000000001</v>
       </c>
       <c r="M14" s="18">
         <v>100</v>
@@ -1308,19 +1355,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="18">
-        <v>135.3777</v>
+        <v>137.46878000000001</v>
       </c>
       <c r="D15" s="18">
-        <v>45.41131</v>
+        <v>46.051822999999999</v>
       </c>
       <c r="E15" s="18">
-        <v>73.949370000000002</v>
+        <v>79.234430000000003</v>
       </c>
       <c r="F15" s="18">
-        <v>8.0001479999999994</v>
+        <v>8.0342040000000008</v>
       </c>
       <c r="K15" s="18">
-        <v>709.17737</v>
+        <v>707.89635999999996</v>
       </c>
       <c r="M15" s="18">
         <v>100</v>
@@ -1334,19 +1381,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="18">
-        <v>136.34392</v>
+        <v>109.3082</v>
       </c>
       <c r="D16" s="18">
-        <v>53.264279999999999</v>
+        <v>45.919727000000002</v>
       </c>
       <c r="E16" s="18">
-        <v>77.564170000000004</v>
+        <v>76.000786000000005</v>
       </c>
       <c r="F16" s="18">
-        <v>7.9981154999999999</v>
+        <v>8.0064270000000004</v>
       </c>
       <c r="K16" s="18">
-        <v>693.47144000000003</v>
+        <v>708.16049999999996</v>
       </c>
       <c r="M16" s="18">
         <v>100</v>
@@ -1360,19 +1407,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="18">
-        <v>142.10538</v>
+        <v>118.0057</v>
       </c>
       <c r="D17" s="18">
-        <v>50.192450000000001</v>
+        <v>51.396422999999999</v>
       </c>
       <c r="E17" s="18">
-        <v>76.920479999999998</v>
+        <v>78.807919999999996</v>
       </c>
       <c r="F17" s="18">
-        <v>8.0215460000000007</v>
+        <v>8.0014420000000008</v>
       </c>
       <c r="K17" s="18">
-        <v>699.61509999999998</v>
+        <v>697.20714999999996</v>
       </c>
       <c r="M17" s="18">
         <v>100</v>
@@ -1386,19 +1433,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="18">
-        <v>124.67924499999999</v>
+        <v>106.7206</v>
       </c>
       <c r="D18" s="18">
-        <v>42.147235999999999</v>
+        <v>46.489649999999997</v>
       </c>
       <c r="E18" s="18">
-        <v>78.430695</v>
+        <v>76.581630000000004</v>
       </c>
       <c r="F18" s="18">
-        <v>7.9957190000000002</v>
+        <v>8.0111950000000007</v>
       </c>
       <c r="K18" s="18">
-        <v>715.70550000000003</v>
+        <v>707.02070000000003</v>
       </c>
       <c r="M18" s="18">
         <v>100</v>
@@ -1412,19 +1459,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="18">
-        <v>124.45135500000001</v>
+        <v>123.3125</v>
       </c>
       <c r="D19" s="18">
-        <v>51.573784000000003</v>
+        <v>42.297170000000001</v>
       </c>
       <c r="E19" s="18">
-        <v>75.168304000000006</v>
+        <v>74.414444000000003</v>
       </c>
       <c r="F19" s="18">
-        <v>7.9948759999999996</v>
+        <v>7.9728760000000003</v>
       </c>
       <c r="K19" s="18">
-        <v>696.85239999999999</v>
+        <v>715.40563999999995</v>
       </c>
       <c r="M19" s="18">
         <v>100</v>
@@ -1438,19 +1485,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>136.01288</v>
+        <v>148.03322</v>
       </c>
       <c r="D20" s="18">
-        <v>40.407829999999997</v>
+        <v>46.769317999999998</v>
       </c>
       <c r="E20" s="18">
-        <v>78.355609999999999</v>
+        <v>78.34966</v>
       </c>
       <c r="F20" s="18">
-        <v>8.0193100000000008</v>
+        <v>7.9754069999999997</v>
       </c>
       <c r="K20" s="18">
-        <v>719.18430000000001</v>
+        <v>706.46136000000001</v>
       </c>
       <c r="M20" s="18">
         <v>100</v>
@@ -1464,19 +1511,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="18">
-        <v>150.62102999999999</v>
+        <v>157.95724000000001</v>
       </c>
       <c r="D21" s="18">
-        <v>53.514029999999998</v>
+        <v>44.241591999999997</v>
       </c>
       <c r="E21" s="18">
-        <v>77.490160000000003</v>
+        <v>88.046700000000001</v>
       </c>
       <c r="F21" s="18">
-        <v>7.9807433999999997</v>
+        <v>8.9932719999999993</v>
       </c>
       <c r="K21" s="18">
-        <v>692.97190000000001</v>
+        <v>729.90575999999999</v>
       </c>
       <c r="M21" s="18">
         <v>100</v>
@@ -1490,19 +1537,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>114.34936999999999</v>
+        <v>116.77434</v>
       </c>
       <c r="D22" s="18">
-        <v>36.828163000000004</v>
+        <v>40.190365</v>
       </c>
       <c r="E22" s="18">
-        <v>73.849770000000007</v>
+        <v>84.865660000000005</v>
       </c>
       <c r="F22" s="18">
-        <v>8.0200549999999993</v>
+        <v>8.9564409999999999</v>
       </c>
       <c r="K22" s="18">
-        <v>726.34370000000001</v>
+        <v>742.63214000000005</v>
       </c>
       <c r="M22" s="18">
         <v>100</v>
@@ -1516,19 +1563,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="18">
-        <v>155.82272</v>
+        <v>137.20638</v>
       </c>
       <c r="D23" s="18">
-        <v>47.975270000000002</v>
+        <v>38.30829</v>
       </c>
       <c r="E23" s="18">
-        <v>79.897329999999997</v>
+        <v>77.294240000000002</v>
       </c>
       <c r="F23" s="18">
-        <v>7.9940566999999998</v>
+        <v>7.9849953999999999</v>
       </c>
       <c r="K23" s="18">
-        <v>704.04944</v>
+        <v>723.38340000000005</v>
       </c>
       <c r="M23" s="18">
         <v>100</v>
@@ -1542,19 +1589,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="18">
-        <v>130.67496</v>
+        <v>126.05419999999999</v>
       </c>
       <c r="D24" s="18">
-        <v>48.043956999999999</v>
+        <v>33.582096</v>
       </c>
       <c r="E24" s="18">
-        <v>90.620636000000005</v>
+        <v>79.694046</v>
       </c>
       <c r="F24" s="18">
-        <v>8.9831889999999994</v>
+        <v>7.9771131999999998</v>
       </c>
       <c r="K24" s="18">
-        <v>718.95012999999994</v>
+        <v>732.83579999999995</v>
       </c>
       <c r="M24" s="18">
         <v>100</v>
@@ -1568,19 +1615,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="18">
-        <v>135.60120000000001</v>
+        <v>107.9663</v>
       </c>
       <c r="D25" s="18">
-        <v>56.176346000000002</v>
+        <v>40.060096999999999</v>
       </c>
       <c r="E25" s="18">
-        <v>87.862114000000005</v>
+        <v>78.356449999999995</v>
       </c>
       <c r="F25" s="18">
-        <v>8.9909350000000003</v>
+        <v>7.9946275</v>
       </c>
       <c r="K25" s="18">
-        <v>704.57910000000004</v>
+        <v>719.87980000000005</v>
       </c>
       <c r="M25" s="18">
         <v>100</v>
@@ -1594,19 +1641,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="18">
-        <v>154.05969999999999</v>
+        <v>129.80348000000001</v>
       </c>
       <c r="D26" s="18">
-        <v>58.840224999999997</v>
+        <v>50.977623000000001</v>
       </c>
       <c r="E26" s="18">
-        <v>74.785330000000002</v>
+        <v>77.684179999999998</v>
       </c>
       <c r="F26" s="18">
-        <v>8.0165740000000003</v>
+        <v>7.9597309999999997</v>
       </c>
       <c r="K26" s="18">
-        <v>682.31960000000004</v>
+        <v>698.04474000000005</v>
       </c>
       <c r="M26" s="18">
         <v>100</v>
@@ -1620,19 +1667,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="18">
-        <v>126.3612</v>
+        <v>118.34923000000001</v>
       </c>
       <c r="D27" s="18">
-        <v>54.745185999999997</v>
+        <v>37.083595000000003</v>
       </c>
       <c r="E27" s="18">
-        <v>89.269135000000006</v>
+        <v>78.876390000000001</v>
       </c>
       <c r="F27" s="18">
-        <v>8.9734079999999992</v>
+        <v>7.9929503999999998</v>
       </c>
       <c r="K27" s="18">
-        <v>708.1825</v>
+        <v>725.83280000000002</v>
       </c>
       <c r="M27" s="18">
         <v>100</v>
@@ -1646,19 +1693,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="18">
-        <v>122.05159</v>
+        <v>123.50893000000001</v>
       </c>
       <c r="D28" s="18">
-        <v>43.778056999999997</v>
+        <v>52.09854</v>
       </c>
       <c r="E28" s="18">
-        <v>71.666954000000004</v>
+        <v>79.297966000000002</v>
       </c>
       <c r="F28" s="18">
-        <v>7.9749699999999999</v>
+        <v>8.0076900000000002</v>
       </c>
       <c r="K28" s="18">
-        <v>712.44389999999999</v>
+        <v>695.80290000000002</v>
       </c>
       <c r="M28" s="18">
         <v>100</v>
@@ -1672,19 +1719,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="18">
-        <v>116.29452999999999</v>
+        <v>110.214905</v>
       </c>
       <c r="D29" s="18">
-        <v>44.946278</v>
+        <v>42.074719999999999</v>
       </c>
       <c r="E29" s="18">
-        <v>78.943380000000005</v>
+        <v>72.879279999999994</v>
       </c>
       <c r="F29" s="18">
-        <v>8.0225249999999999</v>
+        <v>8.0110089999999996</v>
       </c>
       <c r="K29" s="18">
-        <v>710.10739999999998</v>
+        <v>715.85059999999999</v>
       </c>
       <c r="M29" s="18">
         <v>100</v>
@@ -1698,19 +1745,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="18">
-        <v>137.18974</v>
+        <v>127.34936999999999</v>
       </c>
       <c r="D30" s="18">
-        <v>44.740887000000001</v>
+        <v>42.757840000000002</v>
       </c>
       <c r="E30" s="18">
-        <v>85.044899999999998</v>
+        <v>76.374309999999994</v>
       </c>
       <c r="F30" s="18">
-        <v>9.0316550000000007</v>
+        <v>7.9898442999999997</v>
       </c>
       <c r="K30" s="18">
-        <v>726.41125</v>
+        <v>714.48429999999996</v>
       </c>
       <c r="M30" s="18">
         <v>100</v>
@@ -1724,19 +1771,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="18">
-        <v>118.84717000000001</v>
+        <v>158.68983</v>
       </c>
       <c r="D31" s="18">
-        <v>36.653163999999997</v>
+        <v>56.674239999999998</v>
       </c>
       <c r="E31" s="18">
-        <v>77.294785000000005</v>
+        <v>77.96163</v>
       </c>
       <c r="F31" s="18">
-        <v>7.969061</v>
+        <v>7.9881487</v>
       </c>
       <c r="K31" s="18">
-        <v>726.69366000000002</v>
+        <v>686.65150000000006</v>
       </c>
       <c r="M31" s="18">
         <v>100</v>
@@ -1750,19 +1797,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="18">
-        <v>128.52634</v>
+        <v>120.88579</v>
       </c>
       <c r="D32" s="18">
-        <v>45.677093999999997</v>
+        <v>47.304366999999999</v>
       </c>
       <c r="E32" s="18">
-        <v>79.626784999999998</v>
+        <v>77.741560000000007</v>
       </c>
       <c r="F32" s="18">
-        <v>8.0070080000000008</v>
+        <v>8.004702</v>
       </c>
       <c r="K32" s="18">
-        <v>708.64580000000001</v>
+        <v>705.39124000000004</v>
       </c>
       <c r="M32" s="18">
         <v>100</v>
@@ -1776,19 +1823,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="18">
-        <v>107.35567</v>
+        <v>157.32159999999999</v>
       </c>
       <c r="D33" s="18">
-        <v>41.586799999999997</v>
+        <v>50.601570000000002</v>
       </c>
       <c r="E33" s="18">
-        <v>73.560609999999997</v>
+        <v>98.034019999999998</v>
       </c>
       <c r="F33" s="18">
-        <v>7.9412409999999998</v>
+        <v>9.9771190000000001</v>
       </c>
       <c r="K33" s="18">
-        <v>716.82640000000004</v>
+        <v>737.84230000000002</v>
       </c>
       <c r="M33" s="18">
         <v>100</v>
@@ -1802,19 +1849,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="18">
-        <v>114.585594</v>
+        <v>131.07782</v>
       </c>
       <c r="D34" s="18">
-        <v>46.633102000000001</v>
+        <v>52.459569999999999</v>
       </c>
       <c r="E34" s="18">
-        <v>72.391689999999997</v>
+        <v>78.465639999999993</v>
       </c>
       <c r="F34" s="18">
-        <v>7.9894604999999999</v>
+        <v>8.0131580000000007</v>
       </c>
       <c r="K34" s="18">
-        <v>706.73375999999996</v>
+        <v>695.08090000000004</v>
       </c>
       <c r="M34" s="18">
         <v>100</v>
@@ -1828,19 +1875,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="18">
-        <v>135.43933000000001</v>
+        <v>149.68243000000001</v>
       </c>
       <c r="D35" s="18">
-        <v>43.677950000000003</v>
+        <v>49.835616999999999</v>
       </c>
       <c r="E35" s="18">
-        <v>80.19162</v>
+        <v>81.245609999999999</v>
       </c>
       <c r="F35" s="18">
-        <v>8.0231290000000008</v>
+        <v>8.0227529999999998</v>
       </c>
       <c r="K35" s="18">
-        <v>712.64409999999998</v>
+        <v>700.32874000000004</v>
       </c>
       <c r="M35" s="18">
         <v>100</v>
@@ -1854,21 +1901,203 @@
         <v>34</v>
       </c>
       <c r="C36" s="18">
-        <v>111.054695</v>
+        <v>124.91701999999999</v>
       </c>
       <c r="D36" s="18">
-        <v>41.543182000000002</v>
+        <v>49.243766999999998</v>
       </c>
       <c r="E36" s="18">
-        <v>87.356920000000002</v>
+        <v>75.406525000000002</v>
       </c>
       <c r="F36" s="18">
-        <v>9.0094480000000008</v>
+        <v>7.9821463000000001</v>
       </c>
       <c r="K36" s="18">
-        <v>732.12463000000002</v>
+        <v>701.51244999999994</v>
       </c>
       <c r="M36" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="18">
+        <v>121.76888</v>
+      </c>
+      <c r="D37" s="18">
+        <v>49.243766999999998</v>
+      </c>
+      <c r="E37" s="18">
+        <v>75.722880000000004</v>
+      </c>
+      <c r="F37" s="18">
+        <v>7.9866609999999998</v>
+      </c>
+      <c r="K37" s="18">
+        <v>701.51244999999994</v>
+      </c>
+      <c r="M37" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="18">
+        <v>115.950165</v>
+      </c>
+      <c r="D38" s="18">
+        <v>49.598300000000002</v>
+      </c>
+      <c r="E38" s="18">
+        <v>89.644800000000004</v>
+      </c>
+      <c r="F38" s="18">
+        <v>8.9962160000000004</v>
+      </c>
+      <c r="K38" s="18">
+        <v>717.3279</v>
+      </c>
+      <c r="M38" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="18">
+        <v>117.660645</v>
+      </c>
+      <c r="D39" s="18">
+        <v>51.396422999999999</v>
+      </c>
+      <c r="E39" s="18">
+        <v>78.787019999999998</v>
+      </c>
+      <c r="F39" s="18">
+        <v>7.9948335000000004</v>
+      </c>
+      <c r="K39" s="18">
+        <v>697.20714999999996</v>
+      </c>
+      <c r="M39" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="18">
+        <v>124.22832</v>
+      </c>
+      <c r="D40" s="18">
+        <v>51.396422999999999</v>
+      </c>
+      <c r="E40" s="18">
+        <v>78.606589999999997</v>
+      </c>
+      <c r="F40" s="18">
+        <v>8.0082369999999994</v>
+      </c>
+      <c r="K40" s="18">
+        <v>697.20714999999996</v>
+      </c>
+      <c r="M40" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="18">
+        <v>128.18270000000001</v>
+      </c>
+      <c r="D41" s="18">
+        <v>51.592776999999998</v>
+      </c>
+      <c r="E41" s="18">
+        <v>90.281499999999994</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9.0038009999999993</v>
+      </c>
+      <c r="K41" s="18">
+        <v>712.33527000000004</v>
+      </c>
+      <c r="M41" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18">
+        <v>123.441574</v>
+      </c>
+      <c r="D42" s="18">
+        <v>56.568497000000001</v>
+      </c>
+      <c r="E42" s="18">
+        <v>90.408844000000002</v>
+      </c>
+      <c r="F42" s="18">
+        <v>9.9916689999999999</v>
+      </c>
+      <c r="K42" s="18">
+        <v>719.76733000000002</v>
+      </c>
+      <c r="M42" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="18">
+        <v>115.41699</v>
+      </c>
+      <c r="D43" s="18">
+        <v>50.897820000000003</v>
+      </c>
+      <c r="E43" s="18">
+        <v>78.195080000000004</v>
+      </c>
+      <c r="F43" s="18">
+        <v>8.0004829999999991</v>
+      </c>
+      <c r="K43" s="18">
+        <v>698.20434999999998</v>
+      </c>
+      <c r="M43" s="18">
         <v>100</v>
       </c>
     </row>
@@ -1879,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="F1:F1048576 H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,38 +2169,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>129.06763000000001</v>
-      </c>
-      <c r="C2" s="15">
-        <v>45.545623999999997</v>
-      </c>
-      <c r="D2" s="15">
-        <v>79.272049999999993</v>
-      </c>
-      <c r="E2" s="15">
-        <v>8.2595080000000003</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>713.25463999999999</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>131.33516</v>
+      </c>
+      <c r="C2" s="28">
+        <v>45.202427</v>
+      </c>
+      <c r="D2" s="28">
+        <v>78.929680000000005</v>
+      </c>
+      <c r="E2" s="28">
+        <v>8.1650790000000004</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28">
+        <v>712.77373999999998</v>
+      </c>
+      <c r="K2" s="28">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>120.9499</v>
+      </c>
+      <c r="C3" s="27">
+        <v>51.527718</v>
+      </c>
+      <c r="D3" s="27">
+        <v>83.092389999999995</v>
+      </c>
+      <c r="E3" s="27">
+        <v>8.5688420000000001</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>706.22310000000004</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
         <v>100</v>
       </c>
     </row>
@@ -1982,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2264,7 @@
     <col min="3" max="4" width="11" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2018,29 +2287,987 @@
         <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23">
+        <v>-17</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>10.007555</v>
+      </c>
+      <c r="G2" s="19">
+        <v>100.00436999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>-27</v>
+      </c>
+      <c r="D3" s="24">
+        <v>49</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>10.013244</v>
+      </c>
+      <c r="G3" s="18">
+        <v>99.992009999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>9.9980440000000002</v>
+      </c>
+      <c r="G4" s="18">
+        <v>100.00006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>48</v>
+      </c>
+      <c r="D5" s="24">
+        <v>29</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>9.9964510000000004</v>
+      </c>
+      <c r="G5" s="18">
+        <v>99.990110000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-55</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>10.001097</v>
+      </c>
+      <c r="G6" s="18">
+        <v>99.996409999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24">
+        <v>-36</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>9.9898740000000004</v>
+      </c>
+      <c r="G7" s="18">
+        <v>100.01863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24">
+        <v>55</v>
+      </c>
+      <c r="D8" s="24">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>10.006026</v>
+      </c>
+      <c r="G8" s="18">
+        <v>99.995804000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>49</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-27</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10.000956</v>
+      </c>
+      <c r="G9" s="18">
+        <v>100.00378000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <v>-19</v>
+      </c>
+      <c r="D10" s="24">
+        <v>52</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>9.9986300000000004</v>
+      </c>
+      <c r="G10" s="18">
+        <v>99.994669999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24">
+        <v>51</v>
+      </c>
+      <c r="D11" s="24">
+        <v>23</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>9.9918270000000007</v>
+      </c>
+      <c r="G11" s="18">
+        <v>100.01507599999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24">
+        <v>-22</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-51</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>10.004405999999999</v>
+      </c>
+      <c r="G12" s="18">
+        <v>100.00838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24">
+        <v>50</v>
+      </c>
+      <c r="D13" s="24">
+        <v>-24</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>10.00536</v>
+      </c>
+      <c r="G13" s="18">
+        <v>100.00604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>56</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10.010899</v>
+      </c>
+      <c r="G14" s="18">
+        <v>99.998474000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24">
+        <v>-44</v>
+      </c>
+      <c r="D15" s="24">
+        <v>-34</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>9.9993870000000005</v>
+      </c>
+      <c r="G15" s="18">
+        <v>100.00391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24">
+        <v>52</v>
+      </c>
+      <c r="D16" s="24">
+        <v>19</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10.004600999999999</v>
+      </c>
+      <c r="G16" s="18">
+        <v>99.998750000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24">
+        <v>41</v>
+      </c>
+      <c r="D17" s="24">
+        <v>37</v>
+      </c>
+      <c r="E17" s="24">
+        <v>8</v>
+      </c>
+      <c r="F17" s="18">
+        <v>10.006848</v>
+      </c>
+      <c r="G17" s="18">
+        <v>100.00333999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="24">
+        <v>55</v>
+      </c>
+      <c r="D18" s="24">
+        <v>9</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>9.9989329999999992</v>
+      </c>
+      <c r="G18" s="18">
+        <v>100.00233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24">
+        <v>-10</v>
+      </c>
+      <c r="D19" s="24">
+        <v>-55</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10.004882</v>
+      </c>
+      <c r="G19" s="18">
+        <v>99.992270000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="24">
+        <v>17</v>
+      </c>
+      <c r="D20" s="24">
+        <v>-53</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>9.9934519999999996</v>
+      </c>
+      <c r="G20" s="18">
+        <v>99.995949999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="24">
+        <v>-36</v>
+      </c>
+      <c r="D21" s="24">
+        <v>42</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>10.000246000000001</v>
+      </c>
+      <c r="G21" s="18">
+        <v>100.02552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="24">
+        <v>43</v>
+      </c>
+      <c r="D22" s="24">
+        <v>36</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>10.000299</v>
+      </c>
+      <c r="G22" s="18">
+        <v>100.007065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="24">
+        <v>54</v>
+      </c>
+      <c r="D23" s="24">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>9.9920770000000001</v>
+      </c>
+      <c r="G23" s="18">
+        <v>99.996970000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="24">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24">
+        <v>-46</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>9.9998319999999996</v>
+      </c>
+      <c r="G24" s="18">
+        <v>99.999274999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="24">
+        <v>-28</v>
+      </c>
+      <c r="D25" s="24">
+        <v>-48</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>10.002188</v>
+      </c>
+      <c r="G25" s="18">
+        <v>99.994254999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="24">
+        <v>-56</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>9.9955359999999995</v>
+      </c>
+      <c r="G26" s="18">
+        <v>100.01031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="24">
+        <v>12</v>
+      </c>
+      <c r="D27" s="24">
+        <v>-54</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>10.001887</v>
+      </c>
+      <c r="G27" s="18">
+        <v>100.00317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="24">
+        <v>55</v>
+      </c>
+      <c r="D28" s="24">
+        <v>8</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>10.0003805</v>
+      </c>
+      <c r="G28" s="18">
+        <v>99.996729999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="24">
+        <v>28</v>
+      </c>
+      <c r="D29" s="24">
+        <v>48</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>10.004334999999999</v>
+      </c>
+      <c r="G29" s="18">
+        <v>100.0031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="24">
+        <v>-43</v>
+      </c>
+      <c r="D30" s="24">
+        <v>-35</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>10.009658999999999</v>
+      </c>
+      <c r="G30" s="18">
+        <v>100.00282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="24">
+        <v>-30</v>
+      </c>
+      <c r="D31" s="24">
+        <v>-47</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>9.9977230000000006</v>
+      </c>
+      <c r="G31" s="18">
+        <v>100.00118000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="24">
+        <v>5</v>
+      </c>
+      <c r="D32" s="24">
+        <v>-55</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>9.9956999999999994</v>
+      </c>
+      <c r="G32" s="18">
+        <v>99.995316000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="24">
+        <v>-54</v>
+      </c>
+      <c r="D33" s="24">
+        <v>13</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>10.000954</v>
+      </c>
+      <c r="G33" s="18">
+        <v>100.00565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="24">
+        <v>10</v>
+      </c>
+      <c r="D34" s="24">
+        <v>55</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>9.9960249999999995</v>
+      </c>
+      <c r="G34" s="18">
+        <v>99.991110000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="24">
+        <v>-8</v>
+      </c>
+      <c r="D35" s="24">
+        <v>-55</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>9.9971069999999997</v>
+      </c>
+      <c r="G35" s="18">
+        <v>100.00614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="24">
+        <v>-34</v>
+      </c>
+      <c r="D36" s="24">
+        <v>-44</v>
+      </c>
+      <c r="E36" s="24">
+        <v>5</v>
+      </c>
+      <c r="F36" s="18">
+        <v>9.9992529999999995</v>
+      </c>
+      <c r="G36" s="18">
+        <v>100.00185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24">
+        <v>-22</v>
+      </c>
+      <c r="D37" s="24">
+        <v>-24</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>9.9980290000000007</v>
+      </c>
+      <c r="G37" s="18">
+        <v>99.979830000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
+        <v>-19</v>
+      </c>
+      <c r="D38" s="24">
+        <v>-19</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>9.995298</v>
+      </c>
+      <c r="G38" s="18">
+        <v>99.984380000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24">
+        <v>19</v>
+      </c>
+      <c r="D39" s="24">
+        <v>19</v>
+      </c>
+      <c r="E39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>10.012199000000001</v>
+      </c>
+      <c r="G39" s="18">
+        <v>100.00342999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24">
+        <v>22</v>
+      </c>
+      <c r="D40" s="24">
+        <v>23</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <v>10.011803</v>
+      </c>
+      <c r="G40" s="18">
+        <v>100.00424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24">
+        <v>21</v>
+      </c>
+      <c r="D41" s="24">
+        <v>15</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>10.013456</v>
+      </c>
+      <c r="G41" s="18">
+        <v>100.00694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24">
+        <v>17</v>
+      </c>
+      <c r="D42" s="24">
+        <v>-15</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>9.9902949999999997</v>
+      </c>
+      <c r="G42" s="18">
+        <v>100.023346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>23</v>
+      </c>
+      <c r="D43" s="24">
+        <v>19</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>10.013496</v>
+      </c>
+      <c r="G43" s="18">
+        <v>100.00082</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,17 +3286,349 @@
         <v>12</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,42 +3672,50 @@
         <v>12</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19">
+        <v>38019.54</v>
+      </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -2156,6 +3723,580 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>21367.921999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>19504.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>23538.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>25549.965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>18225.298999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>44801.733999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>32318.828000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>21845.942999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>23653.833999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>14510.630999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>57845.347999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>19121.928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>36272.332000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>20972.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>30607.166000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>16582.588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4983.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>29738.645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>30614.799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>8969.7860000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>11205.536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>39585.366999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>36292.703000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>12254.038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>21970.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>24825.482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>24612.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>4996.5736999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>40760.292999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>16408.063999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>22134.030999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>31009.998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2249.9083999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>35502.273000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>31754.195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>30035.896000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <v>10479.474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>13557.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>12892.931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>18479.219000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>13691.017</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,16 +4329,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,16 +4380,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,49 +4448,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2404,37 +4545,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Creature Traits" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
     <sheet name="Environment" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="c_avgs" localSheetId="1">'Creature Averages'!$A$1:$L$3</definedName>
-    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$43</definedName>
+    <definedName name="c_avgs_1" localSheetId="1">'Creature Averages'!$A$1:$L$4</definedName>
+    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$57</definedName>
     <definedName name="env_1" localSheetId="8">Environment!$A$1:$L$2</definedName>
-    <definedName name="lifetime_1" localSheetId="5">'Lifetime ticks'!$A$1:$F$2</definedName>
-    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$43</definedName>
-    <definedName name="p_impact_1" localSheetId="6">'Player Impact'!$A$1:$F$2</definedName>
+    <definedName name="lifetime" localSheetId="5">'Lifetime ticks'!$A$1:$F$57</definedName>
+    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$57</definedName>
+    <definedName name="p_impact" localSheetId="6">'Player Impact'!$A$1:$F$57</definedName>
     <definedName name="p_stats" localSheetId="7">'Player Stats'!$A$1:$P$2</definedName>
-    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$43</definedName>
-    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$43</definedName>
+    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$57</definedName>
+    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t xml:space="preserve">   Gen   </t>
   </si>
@@ -330,9 +330,6 @@
     <t xml:space="preserve">   Times Hit by Tower   </t>
   </si>
   <si>
-    <t xml:space="preserve">   HP removed by Tower   </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Final HP   </t>
   </si>
   <si>
@@ -416,6 +413,15 @@
   <si>
     <t xml:space="preserve">   Gamete Time   </t>
   </si>
+  <si>
+    <t xml:space="preserve">   HP Removed by Tower   </t>
+  </si>
+  <si>
+    <t>Survived</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -536,53 +542,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,17 +588,96 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0C9619"/>
+      <color rgb="FF02D816"/>
+      <color rgb="FF11EA00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -651,7 +694,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="c_avgs" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="c_avgs_1" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,11 +710,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lifetime_1" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lifetime" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p_impact_1" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p_impact" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,9 +988,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1017,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>154.11483999999999</v>
+        <v>117.03636</v>
       </c>
       <c r="D2" s="18">
-        <v>43.642200000000003</v>
+        <v>40.943683999999998</v>
       </c>
       <c r="E2" s="18">
-        <v>77.350173999999996</v>
+        <v>77.736590000000007</v>
       </c>
       <c r="F2" s="18">
-        <v>7.9939245999999997</v>
+        <v>7.9841413000000001</v>
       </c>
       <c r="K2" s="18">
-        <v>712.71559999999999</v>
+        <v>718.11260000000004</v>
       </c>
       <c r="M2" s="18">
         <v>100</v>
@@ -1043,19 +1086,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="18">
-        <v>135.26382000000001</v>
+        <v>120.75026</v>
       </c>
       <c r="D3" s="18">
-        <v>43.943947000000001</v>
+        <v>42.784992000000003</v>
       </c>
       <c r="E3" s="18">
-        <v>78.896910000000005</v>
+        <v>88.49109</v>
       </c>
       <c r="F3" s="18">
-        <v>7.9605655999999998</v>
+        <v>9.0335249999999991</v>
       </c>
       <c r="K3" s="18">
-        <v>712.11210000000005</v>
+        <v>730.75116000000003</v>
       </c>
       <c r="M3" s="18">
         <v>100</v>
@@ -1069,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="18">
-        <v>137.17693</v>
+        <v>133.28944000000001</v>
       </c>
       <c r="D4" s="18">
-        <v>41.257137</v>
+        <v>44.785910000000001</v>
       </c>
       <c r="E4" s="18">
-        <v>82.116669999999999</v>
+        <v>79.374039999999994</v>
       </c>
       <c r="F4" s="18">
-        <v>9.0071060000000003</v>
+        <v>8.0058399999999992</v>
       </c>
       <c r="K4" s="18">
-        <v>732.78549999999996</v>
+        <v>710.42816000000005</v>
       </c>
       <c r="M4" s="18">
         <v>100</v>
@@ -1095,19 +1138,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="18">
-        <v>151.01679999999999</v>
+        <v>143.40215000000001</v>
       </c>
       <c r="D5" s="18">
-        <v>45.442585000000001</v>
+        <v>45.261470000000003</v>
       </c>
       <c r="E5" s="18">
-        <v>81.772620000000003</v>
+        <v>75.736620000000002</v>
       </c>
       <c r="F5" s="18">
-        <v>8.0394570000000005</v>
+        <v>7.9954749999999999</v>
       </c>
       <c r="K5" s="18">
-        <v>709.11479999999995</v>
+        <v>709.47704999999996</v>
       </c>
       <c r="M5" s="18">
         <v>100</v>
@@ -1121,19 +1164,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="18">
-        <v>144.70716999999999</v>
+        <v>115.15985999999999</v>
       </c>
       <c r="D6" s="18">
-        <v>41.703795999999997</v>
+        <v>40.901867000000003</v>
       </c>
       <c r="E6" s="18">
-        <v>72.932659999999998</v>
+        <v>77.617670000000004</v>
       </c>
       <c r="F6" s="18">
-        <v>7.9775714999999998</v>
+        <v>8.009385</v>
       </c>
       <c r="K6" s="18">
-        <v>716.5924</v>
+        <v>718.19629999999995</v>
       </c>
       <c r="M6" s="18">
         <v>100</v>
@@ -1147,19 +1190,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="18">
-        <v>132.75253000000001</v>
+        <v>137.74715</v>
       </c>
       <c r="D7" s="18">
-        <v>56.748710000000003</v>
+        <v>47.31664</v>
       </c>
       <c r="E7" s="18">
-        <v>74.382739999999998</v>
+        <v>77.322845000000001</v>
       </c>
       <c r="F7" s="18">
-        <v>8.0051640000000006</v>
+        <v>7.9776049999999996</v>
       </c>
       <c r="K7" s="18">
-        <v>686.50256000000002</v>
+        <v>705.36670000000004</v>
       </c>
       <c r="M7" s="18">
         <v>100</v>
@@ -1173,19 +1216,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="18">
-        <v>110.82988</v>
+        <v>118.364136</v>
       </c>
       <c r="D8" s="18">
-        <v>40.969242000000001</v>
+        <v>52.475918</v>
       </c>
       <c r="E8" s="18">
-        <v>79.494529999999997</v>
+        <v>88.067850000000007</v>
       </c>
       <c r="F8" s="18">
-        <v>8.0053920000000005</v>
+        <v>9.0101580000000006</v>
       </c>
       <c r="K8" s="18">
-        <v>718.06150000000002</v>
+        <v>710.69353999999998</v>
       </c>
       <c r="M8" s="18">
         <v>100</v>
@@ -1199,19 +1242,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>128.91692</v>
+        <v>127.27128</v>
       </c>
       <c r="D9" s="18">
-        <v>49.261710000000001</v>
+        <v>46.444285999999998</v>
       </c>
       <c r="E9" s="18">
-        <v>78.051349999999999</v>
+        <v>73.649240000000006</v>
       </c>
       <c r="F9" s="18">
-        <v>7.973954</v>
+        <v>8.0190979999999996</v>
       </c>
       <c r="K9" s="18">
-        <v>701.47655999999995</v>
+        <v>707.11144999999999</v>
       </c>
       <c r="M9" s="18">
         <v>100</v>
@@ -1225,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="18">
-        <v>158.06413000000001</v>
+        <v>125.54488000000001</v>
       </c>
       <c r="D10" s="18">
-        <v>45.962643</v>
+        <v>41.448729999999998</v>
       </c>
       <c r="E10" s="18">
-        <v>80.426699999999997</v>
+        <v>76.26634</v>
       </c>
       <c r="F10" s="18">
-        <v>7.9709085999999996</v>
+        <v>8.0136669999999999</v>
       </c>
       <c r="K10" s="18">
-        <v>708.07470000000001</v>
+        <v>717.10253999999998</v>
       </c>
       <c r="M10" s="18">
         <v>100</v>
@@ -1251,19 +1294,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="18">
-        <v>132.39804000000001</v>
+        <v>109.45347</v>
       </c>
       <c r="D11" s="18">
-        <v>37.272219999999997</v>
+        <v>41.660933999999997</v>
       </c>
       <c r="E11" s="18">
-        <v>72.816810000000004</v>
+        <v>75.565449999999998</v>
       </c>
       <c r="F11" s="18">
-        <v>7.9794025</v>
+        <v>7.9995117000000002</v>
       </c>
       <c r="K11" s="18">
-        <v>725.45556999999997</v>
+        <v>716.67809999999997</v>
       </c>
       <c r="M11" s="18">
         <v>100</v>
@@ -1277,19 +1320,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="18">
-        <v>127.907104</v>
+        <v>126.89019999999999</v>
       </c>
       <c r="D12" s="18">
-        <v>54.351944000000003</v>
+        <v>43.829535999999997</v>
       </c>
       <c r="E12" s="18">
-        <v>77.109790000000004</v>
+        <v>77.245329999999996</v>
       </c>
       <c r="F12" s="18">
-        <v>7.9946603999999999</v>
+        <v>8.0047800000000002</v>
       </c>
       <c r="K12" s="18">
-        <v>691.29614000000004</v>
+        <v>712.34094000000005</v>
       </c>
       <c r="M12" s="18">
         <v>100</v>
@@ -1303,19 +1346,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>138.47273000000001</v>
+        <v>134.02562</v>
       </c>
       <c r="D13" s="18">
-        <v>38.905678000000002</v>
+        <v>49.248460000000001</v>
       </c>
       <c r="E13" s="18">
-        <v>74.381140000000002</v>
+        <v>74.838989999999995</v>
       </c>
       <c r="F13" s="18">
-        <v>8.0133840000000003</v>
+        <v>8.0004019999999993</v>
       </c>
       <c r="K13" s="18">
-        <v>722.18866000000003</v>
+        <v>701.50305000000003</v>
       </c>
       <c r="M13" s="18">
         <v>100</v>
@@ -1329,19 +1372,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>104.50162</v>
+        <v>133.78432000000001</v>
       </c>
       <c r="D14" s="18">
-        <v>36.205199999999998</v>
+        <v>48.374389999999998</v>
       </c>
       <c r="E14" s="18">
-        <v>87.193984999999998</v>
+        <v>77.741219999999998</v>
       </c>
       <c r="F14" s="18">
-        <v>8.9990260000000006</v>
+        <v>7.9843590000000004</v>
       </c>
       <c r="K14" s="18">
-        <v>743.09960000000001</v>
+        <v>703.25120000000004</v>
       </c>
       <c r="M14" s="18">
         <v>100</v>
@@ -1355,19 +1398,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="18">
-        <v>137.46878000000001</v>
+        <v>108.90177</v>
       </c>
       <c r="D15" s="18">
-        <v>46.051822999999999</v>
+        <v>45.582703000000002</v>
       </c>
       <c r="E15" s="18">
-        <v>79.234430000000003</v>
+        <v>73.210549999999998</v>
       </c>
       <c r="F15" s="18">
-        <v>8.0342040000000008</v>
+        <v>8.0081579999999999</v>
       </c>
       <c r="K15" s="18">
-        <v>707.89635999999996</v>
+        <v>708.83460000000002</v>
       </c>
       <c r="M15" s="18">
         <v>100</v>
@@ -1381,19 +1424,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="18">
-        <v>109.3082</v>
+        <v>113.86400999999999</v>
       </c>
       <c r="D16" s="18">
-        <v>45.919727000000002</v>
+        <v>38.289616000000002</v>
       </c>
       <c r="E16" s="18">
-        <v>76.000786000000005</v>
+        <v>83.648960000000002</v>
       </c>
       <c r="F16" s="18">
-        <v>8.0064270000000004</v>
+        <v>9.0395564999999998</v>
       </c>
       <c r="K16" s="18">
-        <v>708.16049999999996</v>
+        <v>739.53049999999996</v>
       </c>
       <c r="M16" s="18">
         <v>100</v>
@@ -1407,19 +1450,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="18">
-        <v>118.0057</v>
+        <v>122.1007</v>
       </c>
       <c r="D17" s="18">
-        <v>51.396422999999999</v>
+        <v>44.452522000000002</v>
       </c>
       <c r="E17" s="18">
-        <v>78.807919999999996</v>
+        <v>76.325010000000006</v>
       </c>
       <c r="F17" s="18">
-        <v>8.0014420000000008</v>
+        <v>8.0273380000000003</v>
       </c>
       <c r="K17" s="18">
-        <v>697.20714999999996</v>
+        <v>711.09500000000003</v>
       </c>
       <c r="M17" s="18">
         <v>100</v>
@@ -1433,19 +1476,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="18">
-        <v>106.7206</v>
+        <v>165.63802000000001</v>
       </c>
       <c r="D18" s="18">
-        <v>46.489649999999997</v>
+        <v>53.602443999999998</v>
       </c>
       <c r="E18" s="18">
-        <v>76.581630000000004</v>
+        <v>98.436750000000004</v>
       </c>
       <c r="F18" s="18">
-        <v>8.0111950000000007</v>
+        <v>9.9781700000000004</v>
       </c>
       <c r="K18" s="18">
-        <v>707.02070000000003</v>
+        <v>731.49132999999995</v>
       </c>
       <c r="M18" s="18">
         <v>100</v>
@@ -1459,19 +1502,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="18">
-        <v>123.3125</v>
+        <v>108.18828999999999</v>
       </c>
       <c r="D19" s="18">
-        <v>42.297170000000001</v>
+        <v>51.057250000000003</v>
       </c>
       <c r="E19" s="18">
-        <v>74.414444000000003</v>
+        <v>87.813649999999996</v>
       </c>
       <c r="F19" s="18">
-        <v>7.9728760000000003</v>
+        <v>8.9786149999999996</v>
       </c>
       <c r="K19" s="18">
-        <v>715.40563999999995</v>
+        <v>713.38289999999995</v>
       </c>
       <c r="M19" s="18">
         <v>100</v>
@@ -1485,19 +1528,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>148.03322</v>
+        <v>137.63412</v>
       </c>
       <c r="D20" s="18">
-        <v>46.769317999999998</v>
+        <v>41.401066</v>
       </c>
       <c r="E20" s="18">
-        <v>78.34966</v>
+        <v>76.398759999999996</v>
       </c>
       <c r="F20" s="18">
-        <v>7.9754069999999997</v>
+        <v>7.9776100000000003</v>
       </c>
       <c r="K20" s="18">
-        <v>706.46136000000001</v>
+        <v>717.1979</v>
       </c>
       <c r="M20" s="18">
         <v>100</v>
@@ -1511,19 +1554,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="18">
-        <v>157.95724000000001</v>
+        <v>130.74227999999999</v>
       </c>
       <c r="D21" s="18">
-        <v>44.241591999999997</v>
+        <v>43.446044999999998</v>
       </c>
       <c r="E21" s="18">
-        <v>88.046700000000001</v>
+        <v>78.230429999999998</v>
       </c>
       <c r="F21" s="18">
-        <v>8.9932719999999993</v>
+        <v>8.0166120000000003</v>
       </c>
       <c r="K21" s="18">
-        <v>729.90575999999999</v>
+        <v>713.10789999999997</v>
       </c>
       <c r="M21" s="18">
         <v>100</v>
@@ -1537,19 +1580,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>116.77434</v>
+        <v>126.91028</v>
       </c>
       <c r="D22" s="18">
-        <v>40.190365</v>
+        <v>43.183605</v>
       </c>
       <c r="E22" s="18">
-        <v>84.865660000000005</v>
+        <v>76.95093</v>
       </c>
       <c r="F22" s="18">
-        <v>8.9564409999999999</v>
+        <v>7.9798235999999996</v>
       </c>
       <c r="K22" s="18">
-        <v>742.63214000000005</v>
+        <v>713.63279999999997</v>
       </c>
       <c r="M22" s="18">
         <v>100</v>
@@ -1563,19 +1606,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="18">
-        <v>137.20638</v>
+        <v>144.82007999999999</v>
       </c>
       <c r="D23" s="18">
-        <v>38.30829</v>
+        <v>53.43741</v>
       </c>
       <c r="E23" s="18">
-        <v>77.294240000000002</v>
+        <v>74.243390000000005</v>
       </c>
       <c r="F23" s="18">
-        <v>7.9849953999999999</v>
+        <v>7.9886694</v>
       </c>
       <c r="K23" s="18">
-        <v>723.38340000000005</v>
+        <v>693.12519999999995</v>
       </c>
       <c r="M23" s="18">
         <v>100</v>
@@ -1589,19 +1632,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="18">
-        <v>126.05419999999999</v>
+        <v>148.59251</v>
       </c>
       <c r="D24" s="18">
-        <v>33.582096</v>
+        <v>49.49738</v>
       </c>
       <c r="E24" s="18">
-        <v>79.694046</v>
+        <v>77.158553999999995</v>
       </c>
       <c r="F24" s="18">
-        <v>7.9771131999999998</v>
+        <v>8.0243179999999992</v>
       </c>
       <c r="K24" s="18">
-        <v>732.83579999999995</v>
+        <v>701.00525000000005</v>
       </c>
       <c r="M24" s="18">
         <v>100</v>
@@ -1615,19 +1658,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="18">
-        <v>107.9663</v>
+        <v>122.91888400000001</v>
       </c>
       <c r="D25" s="18">
-        <v>40.060096999999999</v>
+        <v>47.123800000000003</v>
       </c>
       <c r="E25" s="18">
-        <v>78.356449999999995</v>
+        <v>77.850149999999999</v>
       </c>
       <c r="F25" s="18">
-        <v>7.9946275</v>
+        <v>8.0076049999999999</v>
       </c>
       <c r="K25" s="18">
-        <v>719.87980000000005</v>
+        <v>705.75239999999997</v>
       </c>
       <c r="M25" s="18">
         <v>100</v>
@@ -1641,19 +1684,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="18">
-        <v>129.80348000000001</v>
+        <v>135.23670999999999</v>
       </c>
       <c r="D26" s="18">
-        <v>50.977623000000001</v>
+        <v>39.334420000000001</v>
       </c>
       <c r="E26" s="18">
-        <v>77.684179999999998</v>
+        <v>89.839164999999994</v>
       </c>
       <c r="F26" s="18">
-        <v>7.9597309999999997</v>
+        <v>9.0013970000000008</v>
       </c>
       <c r="K26" s="18">
-        <v>698.04474000000005</v>
+        <v>738.23974999999996</v>
       </c>
       <c r="M26" s="18">
         <v>100</v>
@@ -1667,19 +1710,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="18">
-        <v>118.34923000000001</v>
+        <v>109.7816</v>
       </c>
       <c r="D27" s="18">
-        <v>37.083595000000003</v>
+        <v>45.311480000000003</v>
       </c>
       <c r="E27" s="18">
-        <v>78.876390000000001</v>
+        <v>78.970429999999993</v>
       </c>
       <c r="F27" s="18">
-        <v>7.9929503999999998</v>
+        <v>8.0432220000000001</v>
       </c>
       <c r="K27" s="18">
-        <v>725.83280000000002</v>
+        <v>709.37699999999995</v>
       </c>
       <c r="M27" s="18">
         <v>100</v>
@@ -1693,19 +1736,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="18">
-        <v>123.50893000000001</v>
+        <v>119.38705400000001</v>
       </c>
       <c r="D28" s="18">
-        <v>52.09854</v>
+        <v>48.028365999999998</v>
       </c>
       <c r="E28" s="18">
-        <v>79.297966000000002</v>
+        <v>79.931169999999995</v>
       </c>
       <c r="F28" s="18">
-        <v>8.0076900000000002</v>
+        <v>8.9424489999999999</v>
       </c>
       <c r="K28" s="18">
-        <v>695.80290000000002</v>
+        <v>721.55349999999999</v>
       </c>
       <c r="M28" s="18">
         <v>100</v>
@@ -1719,19 +1762,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="18">
-        <v>110.214905</v>
+        <v>146.54349999999999</v>
       </c>
       <c r="D29" s="18">
-        <v>42.074719999999999</v>
+        <v>52.518836999999998</v>
       </c>
       <c r="E29" s="18">
-        <v>72.879279999999994</v>
+        <v>79.242829999999998</v>
       </c>
       <c r="F29" s="18">
-        <v>8.0110089999999996</v>
+        <v>7.996505</v>
       </c>
       <c r="K29" s="18">
-        <v>715.85059999999999</v>
+        <v>694.96234000000004</v>
       </c>
       <c r="M29" s="18">
         <v>100</v>
@@ -1745,19 +1788,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="18">
-        <v>127.34936999999999</v>
+        <v>139.75409999999999</v>
       </c>
       <c r="D30" s="18">
-        <v>42.757840000000002</v>
+        <v>51.699959999999997</v>
       </c>
       <c r="E30" s="18">
-        <v>76.374309999999994</v>
+        <v>78.754559999999998</v>
       </c>
       <c r="F30" s="18">
-        <v>7.9898442999999997</v>
+        <v>7.9949810000000001</v>
       </c>
       <c r="K30" s="18">
-        <v>714.48429999999996</v>
+        <v>696.6001</v>
       </c>
       <c r="M30" s="18">
         <v>100</v>
@@ -1771,19 +1814,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="18">
-        <v>158.68983</v>
+        <v>157.57605000000001</v>
       </c>
       <c r="D31" s="18">
-        <v>56.674239999999998</v>
+        <v>56.569378</v>
       </c>
       <c r="E31" s="18">
-        <v>77.96163</v>
+        <v>80.019319999999993</v>
       </c>
       <c r="F31" s="18">
-        <v>7.9881487</v>
+        <v>8.0171200000000002</v>
       </c>
       <c r="K31" s="18">
-        <v>686.65150000000006</v>
+        <v>686.86126999999999</v>
       </c>
       <c r="M31" s="18">
         <v>100</v>
@@ -1797,19 +1840,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="18">
-        <v>120.88579</v>
+        <v>125.09299</v>
       </c>
       <c r="D32" s="18">
-        <v>47.304366999999999</v>
+        <v>36.266551999999997</v>
       </c>
       <c r="E32" s="18">
-        <v>77.741560000000007</v>
+        <v>87.739586000000003</v>
       </c>
       <c r="F32" s="18">
-        <v>8.004702</v>
+        <v>8.9748129999999993</v>
       </c>
       <c r="K32" s="18">
-        <v>705.39124000000004</v>
+        <v>748.93809999999996</v>
       </c>
       <c r="M32" s="18">
         <v>100</v>
@@ -1823,19 +1866,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="18">
-        <v>157.32159999999999</v>
+        <v>108.51058999999999</v>
       </c>
       <c r="D33" s="18">
-        <v>50.601570000000002</v>
+        <v>38.875476999999997</v>
       </c>
       <c r="E33" s="18">
-        <v>98.034019999999998</v>
+        <v>78.112976000000003</v>
       </c>
       <c r="F33" s="18">
-        <v>9.9771190000000001</v>
+        <v>8.0105719999999998</v>
       </c>
       <c r="K33" s="18">
-        <v>737.84230000000002</v>
+        <v>722.24900000000002</v>
       </c>
       <c r="M33" s="18">
         <v>100</v>
@@ -1849,19 +1892,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="18">
-        <v>131.07782</v>
+        <v>110.276794</v>
       </c>
       <c r="D34" s="18">
-        <v>52.459569999999999</v>
+        <v>47.25018</v>
       </c>
       <c r="E34" s="18">
-        <v>78.465639999999993</v>
+        <v>71.944770000000005</v>
       </c>
       <c r="F34" s="18">
-        <v>8.0131580000000007</v>
+        <v>8.0000079999999993</v>
       </c>
       <c r="K34" s="18">
-        <v>695.08090000000004</v>
+        <v>705.49963000000002</v>
       </c>
       <c r="M34" s="18">
         <v>100</v>
@@ -1875,19 +1918,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="18">
-        <v>149.68243000000001</v>
+        <v>119.11449</v>
       </c>
       <c r="D35" s="18">
-        <v>49.835616999999999</v>
+        <v>38.610602999999998</v>
       </c>
       <c r="E35" s="18">
-        <v>81.245609999999999</v>
+        <v>78.134770000000003</v>
       </c>
       <c r="F35" s="18">
-        <v>8.0227529999999998</v>
+        <v>7.9839783000000004</v>
       </c>
       <c r="K35" s="18">
-        <v>700.32874000000004</v>
+        <v>722.77880000000005</v>
       </c>
       <c r="M35" s="18">
         <v>100</v>
@@ -1901,19 +1944,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="18">
-        <v>124.91701999999999</v>
+        <v>124.87481</v>
       </c>
       <c r="D36" s="18">
-        <v>49.243766999999998</v>
+        <v>48.643154000000003</v>
       </c>
       <c r="E36" s="18">
-        <v>75.406525000000002</v>
+        <v>86.28801</v>
       </c>
       <c r="F36" s="18">
-        <v>7.9821463000000001</v>
+        <v>9.0036339999999999</v>
       </c>
       <c r="K36" s="18">
-        <v>701.51244999999994</v>
+        <v>720.76260000000002</v>
       </c>
       <c r="M36" s="18">
         <v>100</v>
@@ -1927,19 +1970,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="18">
-        <v>121.76888</v>
+        <v>127.80897</v>
       </c>
       <c r="D37" s="18">
-        <v>49.243766999999998</v>
+        <v>44.728476999999998</v>
       </c>
       <c r="E37" s="18">
-        <v>75.722880000000004</v>
+        <v>81.341576000000003</v>
       </c>
       <c r="F37" s="18">
-        <v>7.9866609999999998</v>
+        <v>9.0585470000000008</v>
       </c>
       <c r="K37" s="18">
-        <v>701.51244999999994</v>
+        <v>729.66594999999995</v>
       </c>
       <c r="M37" s="18">
         <v>100</v>
@@ -1953,19 +1996,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="18">
-        <v>115.950165</v>
+        <v>122.87253</v>
       </c>
       <c r="D38" s="18">
-        <v>49.598300000000002</v>
+        <v>40.520355000000002</v>
       </c>
       <c r="E38" s="18">
-        <v>89.644800000000004</v>
+        <v>75.309629999999999</v>
       </c>
       <c r="F38" s="18">
-        <v>8.9962160000000004</v>
+        <v>8.0469779999999993</v>
       </c>
       <c r="K38" s="18">
-        <v>717.3279</v>
+        <v>718.95929999999998</v>
       </c>
       <c r="M38" s="18">
         <v>100</v>
@@ -1979,19 +2022,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="18">
-        <v>117.660645</v>
+        <v>116.60004000000001</v>
       </c>
       <c r="D39" s="18">
-        <v>51.396422999999999</v>
+        <v>38.484721999999998</v>
       </c>
       <c r="E39" s="18">
-        <v>78.787019999999998</v>
+        <v>73.10521</v>
       </c>
       <c r="F39" s="18">
-        <v>7.9948335000000004</v>
+        <v>8.0452290000000009</v>
       </c>
       <c r="K39" s="18">
-        <v>697.20714999999996</v>
+        <v>723.03060000000005</v>
       </c>
       <c r="M39" s="18">
         <v>100</v>
@@ -2005,19 +2048,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="18">
-        <v>124.22832</v>
+        <v>115.304016</v>
       </c>
       <c r="D40" s="18">
-        <v>51.396422999999999</v>
+        <v>42.960920000000002</v>
       </c>
       <c r="E40" s="18">
-        <v>78.606589999999997</v>
+        <v>76.778274999999994</v>
       </c>
       <c r="F40" s="18">
-        <v>8.0082369999999994</v>
+        <v>8.0210609999999996</v>
       </c>
       <c r="K40" s="18">
-        <v>697.20714999999996</v>
+        <v>714.07820000000004</v>
       </c>
       <c r="M40" s="18">
         <v>100</v>
@@ -2031,19 +2074,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="18">
-        <v>128.18270000000001</v>
+        <v>125.60424999999999</v>
       </c>
       <c r="D41" s="18">
-        <v>51.592776999999998</v>
+        <v>40.520355000000002</v>
       </c>
       <c r="E41" s="18">
-        <v>90.281499999999994</v>
+        <v>84.124793999999994</v>
       </c>
       <c r="F41" s="18">
-        <v>9.0038009999999993</v>
+        <v>9.0426249999999992</v>
       </c>
       <c r="K41" s="18">
-        <v>712.33527000000004</v>
+        <v>735.23490000000004</v>
       </c>
       <c r="M41" s="18">
         <v>100</v>
@@ -2057,19 +2100,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="18">
-        <v>123.441574</v>
+        <v>125.14857000000001</v>
       </c>
       <c r="D42" s="18">
-        <v>56.568497000000001</v>
+        <v>37.637794</v>
       </c>
       <c r="E42" s="18">
-        <v>90.408844000000002</v>
+        <v>76.303730000000002</v>
       </c>
       <c r="F42" s="18">
-        <v>9.9916689999999999</v>
+        <v>8.0127790000000001</v>
       </c>
       <c r="K42" s="18">
-        <v>719.76733000000002</v>
+        <v>724.72439999999995</v>
       </c>
       <c r="M42" s="18">
         <v>100</v>
@@ -2083,21 +2126,385 @@
         <v>41</v>
       </c>
       <c r="C43" s="18">
-        <v>115.41699</v>
+        <v>122.65221</v>
       </c>
       <c r="D43" s="18">
-        <v>50.897820000000003</v>
+        <v>45.914096999999998</v>
       </c>
       <c r="E43" s="18">
-        <v>78.195080000000004</v>
+        <v>79.849106000000006</v>
       </c>
       <c r="F43" s="18">
-        <v>8.0004829999999991</v>
+        <v>8.969595</v>
       </c>
       <c r="K43" s="18">
-        <v>698.20434999999998</v>
+        <v>728.84406000000001</v>
       </c>
       <c r="M43" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="18">
+        <v>125.201324</v>
+      </c>
+      <c r="D44" s="18">
+        <v>46.192504999999997</v>
+      </c>
+      <c r="E44" s="18">
+        <v>79.903655999999998</v>
+      </c>
+      <c r="F44" s="18">
+        <v>8.9693164999999997</v>
+      </c>
+      <c r="K44" s="18">
+        <v>728.56322999999998</v>
+      </c>
+      <c r="M44" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="18">
+        <v>130.11547999999999</v>
+      </c>
+      <c r="D45" s="18">
+        <v>46.154305000000001</v>
+      </c>
+      <c r="E45" s="18">
+        <v>95.046570000000003</v>
+      </c>
+      <c r="F45" s="18">
+        <v>9.9762540000000008</v>
+      </c>
+      <c r="K45" s="18">
+        <v>741.55309999999997</v>
+      </c>
+      <c r="M45" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="18">
+        <v>125.138565</v>
+      </c>
+      <c r="D46" s="18">
+        <v>38.593530000000001</v>
+      </c>
+      <c r="E46" s="18">
+        <v>90.519630000000006</v>
+      </c>
+      <c r="F46" s="18">
+        <v>9.0256030000000003</v>
+      </c>
+      <c r="K46" s="18">
+        <v>739.78030000000001</v>
+      </c>
+      <c r="M46" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="18">
+        <v>123.05977</v>
+      </c>
+      <c r="D47" s="18">
+        <v>44.664974000000001</v>
+      </c>
+      <c r="E47" s="18">
+        <v>80.379180000000005</v>
+      </c>
+      <c r="F47" s="18">
+        <v>9.0604750000000003</v>
+      </c>
+      <c r="K47" s="18">
+        <v>729.84533999999996</v>
+      </c>
+      <c r="M47" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="18">
+        <v>122.81126399999999</v>
+      </c>
+      <c r="D48" s="18">
+        <v>45.075522999999997</v>
+      </c>
+      <c r="E48" s="18">
+        <v>80.910160000000005</v>
+      </c>
+      <c r="F48" s="18">
+        <v>9.0577299999999994</v>
+      </c>
+      <c r="K48" s="18">
+        <v>729.76900000000001</v>
+      </c>
+      <c r="M48" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="18">
+        <v>127.93747</v>
+      </c>
+      <c r="D49" s="18">
+        <v>44.805855000000001</v>
+      </c>
+      <c r="E49" s="18">
+        <v>81.446190000000001</v>
+      </c>
+      <c r="F49" s="18">
+        <v>9.0533649999999994</v>
+      </c>
+      <c r="K49" s="18">
+        <v>729.51120000000003</v>
+      </c>
+      <c r="M49" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="18">
+        <v>123.33280000000001</v>
+      </c>
+      <c r="D50" s="18">
+        <v>43.390880000000003</v>
+      </c>
+      <c r="E50" s="18">
+        <v>90.482994000000005</v>
+      </c>
+      <c r="F50" s="18">
+        <v>10.056438999999999</v>
+      </c>
+      <c r="K50" s="18">
+        <v>748.5335</v>
+      </c>
+      <c r="M50" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="18">
+        <v>130.97716</v>
+      </c>
+      <c r="D51" s="18">
+        <v>48.032997000000002</v>
+      </c>
+      <c r="E51" s="18">
+        <v>84.908749999999998</v>
+      </c>
+      <c r="F51" s="18">
+        <v>8.971622</v>
+      </c>
+      <c r="K51" s="18">
+        <v>721.93719999999996</v>
+      </c>
+      <c r="M51" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="18">
+        <v>131.14478</v>
+      </c>
+      <c r="D52" s="18">
+        <v>43.804366999999999</v>
+      </c>
+      <c r="E52" s="18">
+        <v>94.296524000000005</v>
+      </c>
+      <c r="F52" s="18">
+        <v>9.9780949999999997</v>
+      </c>
+      <c r="K52" s="18">
+        <v>748.9674</v>
+      </c>
+      <c r="M52" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="18">
+        <v>130.23972000000001</v>
+      </c>
+      <c r="D53" s="18">
+        <v>44.580350000000003</v>
+      </c>
+      <c r="E53" s="18">
+        <v>84.410929999999993</v>
+      </c>
+      <c r="F53" s="18">
+        <v>8.9810470000000002</v>
+      </c>
+      <c r="K53" s="18">
+        <v>726.62840000000006</v>
+      </c>
+      <c r="M53" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="18">
+        <v>126.632515</v>
+      </c>
+      <c r="D54" s="18">
+        <v>47.314450000000001</v>
+      </c>
+      <c r="E54" s="18">
+        <v>94.831400000000002</v>
+      </c>
+      <c r="F54" s="18">
+        <v>9.9770509999999994</v>
+      </c>
+      <c r="K54" s="18">
+        <v>741.90160000000003</v>
+      </c>
+      <c r="M54" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="18">
+        <v>127.40380999999999</v>
+      </c>
+      <c r="D55" s="18">
+        <v>48.032997000000002</v>
+      </c>
+      <c r="E55" s="18">
+        <v>94.538449999999997</v>
+      </c>
+      <c r="F55" s="18">
+        <v>9.9781089999999999</v>
+      </c>
+      <c r="K55" s="18">
+        <v>738.20190000000002</v>
+      </c>
+      <c r="M55" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="18">
+        <v>131.53675999999999</v>
+      </c>
+      <c r="D56" s="18">
+        <v>46.861065000000004</v>
+      </c>
+      <c r="E56" s="18">
+        <v>96.257360000000006</v>
+      </c>
+      <c r="F56" s="18">
+        <v>9.9747880000000002</v>
+      </c>
+      <c r="K56" s="18">
+        <v>740.13959999999997</v>
+      </c>
+      <c r="M56" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="18">
+        <v>123.55197</v>
+      </c>
+      <c r="D57" s="18">
+        <v>48.032997000000002</v>
+      </c>
+      <c r="E57" s="18">
+        <v>84.989295999999996</v>
+      </c>
+      <c r="F57" s="18">
+        <v>8.9743700000000004</v>
+      </c>
+      <c r="K57" s="18">
+        <v>723.80799999999999</v>
+      </c>
+      <c r="M57" s="18">
         <v>100</v>
       </c>
     </row>
@@ -2108,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,78 +2576,116 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
-        <v>131.33516</v>
-      </c>
-      <c r="C2" s="28">
-        <v>45.202427</v>
-      </c>
-      <c r="D2" s="28">
-        <v>78.929680000000005</v>
-      </c>
-      <c r="E2" s="28">
-        <v>8.1650790000000004</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="28">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28">
-        <v>0</v>
-      </c>
-      <c r="I2" s="28">
-        <v>0</v>
-      </c>
-      <c r="J2" s="28">
-        <v>712.77373999999998</v>
-      </c>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="28">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>127.6908</v>
+      </c>
+      <c r="C2" s="15">
+        <v>45.704543999999999</v>
+      </c>
+      <c r="D2" s="15">
+        <v>79.6828</v>
+      </c>
+      <c r="E2" s="15">
+        <v>8.2866590000000002</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>713.62829999999997</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
-        <v>120.9499</v>
-      </c>
-      <c r="C3" s="27">
-        <v>51.527718</v>
-      </c>
-      <c r="D3" s="27">
-        <v>83.092389999999995</v>
-      </c>
-      <c r="E3" s="27">
-        <v>8.5688420000000001</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>706.22310000000004</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
-      <c r="L3" s="29">
+      <c r="B3" s="16">
+        <v>123.64458999999999</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42.170707999999998</v>
+      </c>
+      <c r="D3" s="16">
+        <v>81.228219999999993</v>
+      </c>
+      <c r="E3" s="16">
+        <v>8.716799</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>728.4434</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>127.148</v>
+      </c>
+      <c r="C4" s="16">
+        <v>45.872402000000001</v>
+      </c>
+      <c r="D4" s="16">
+        <v>87.950130000000001</v>
+      </c>
+      <c r="E4" s="16">
+        <v>9.4602810000000002</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>734.47670000000005</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
         <v>100</v>
       </c>
     </row>
@@ -2251,9 +2696,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -2287,7 +2732,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="23">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="23">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E2" s="23">
         <v>0</v>
       </c>
       <c r="F2" s="19">
-        <v>10.007555</v>
+        <v>9.9998179999999994</v>
       </c>
       <c r="G2" s="19">
-        <v>100.00436999999999</v>
+        <v>99.989249999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,19 +2766,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24">
-        <v>-27</v>
+        <v>-47</v>
       </c>
       <c r="D3" s="24">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E3" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="18">
-        <v>10.013244</v>
+        <v>10.006411</v>
       </c>
       <c r="G3" s="18">
-        <v>99.992009999999993</v>
+        <v>99.994445999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,19 +2789,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="24">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D4" s="24">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E4" s="24">
         <v>0</v>
       </c>
       <c r="F4" s="18">
-        <v>9.9980440000000002</v>
+        <v>9.9882790000000004</v>
       </c>
       <c r="G4" s="18">
-        <v>100.00006</v>
+        <v>100.00116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2367,19 +2812,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="24">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5" s="24">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <v>9.9964510000000004</v>
+        <v>9.9871549999999996</v>
       </c>
       <c r="G5" s="18">
-        <v>99.990110000000001</v>
+        <v>100.00020600000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,19 +2835,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="24">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="24">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="E6" s="24">
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <v>10.001097</v>
+        <v>9.9903650000000006</v>
       </c>
       <c r="G6" s="18">
-        <v>99.996409999999997</v>
+        <v>99.996809999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,19 +2858,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="24">
-        <v>42</v>
+        <v>-49</v>
       </c>
       <c r="D7" s="24">
-        <v>-36</v>
+        <v>25</v>
       </c>
       <c r="E7" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>9.9898740000000004</v>
+        <v>9.9976260000000003</v>
       </c>
       <c r="G7" s="18">
-        <v>100.01863</v>
+        <v>100.01178</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,19 +2881,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="24">
-        <v>55</v>
+        <v>-32</v>
       </c>
       <c r="D8" s="24">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E8" s="24">
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>10.006026</v>
+        <v>10.004526</v>
       </c>
       <c r="G8" s="18">
-        <v>99.995804000000007</v>
+        <v>99.994560000000007</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,19 +2904,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <v>49</v>
+        <v>-55</v>
       </c>
       <c r="D9" s="24">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>10.000956</v>
+        <v>9.9994779999999999</v>
       </c>
       <c r="G9" s="18">
-        <v>100.00378000000001</v>
+        <v>100.00747</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,19 +2927,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <v>-19</v>
+        <v>35</v>
       </c>
       <c r="D10" s="24">
-        <v>52</v>
+        <v>-43</v>
       </c>
       <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>9.9986300000000004</v>
+        <v>10.016126999999999</v>
       </c>
       <c r="G10" s="18">
-        <v>99.994669999999999</v>
+        <v>100.00363</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2505,19 +2950,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="24">
-        <v>51</v>
+        <v>-28</v>
       </c>
       <c r="D11" s="24">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E11" s="24">
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>9.9918270000000007</v>
+        <v>9.9996510000000001</v>
       </c>
       <c r="G11" s="18">
-        <v>100.01507599999999</v>
+        <v>99.995769999999993</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,19 +2973,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="24">
-        <v>-22</v>
+        <v>53</v>
       </c>
       <c r="D12" s="24">
-        <v>-51</v>
+        <v>18</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>10.004405999999999</v>
+        <v>10.003169</v>
       </c>
       <c r="G12" s="18">
-        <v>100.00838</v>
+        <v>100.00594</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,19 +2996,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="24">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D13" s="24">
-        <v>-24</v>
+        <v>-55</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <v>10.00536</v>
+        <v>9.9969909999999995</v>
       </c>
       <c r="G13" s="18">
-        <v>100.00604</v>
+        <v>100.00095</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2574,19 +3019,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="24">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D14" s="24">
-        <v>56</v>
+        <v>-33</v>
       </c>
       <c r="E14" s="24">
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>10.010899</v>
+        <v>10.004502</v>
       </c>
       <c r="G14" s="18">
-        <v>99.998474000000002</v>
+        <v>100.00287</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,19 +3042,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="24">
-        <v>-44</v>
+        <v>54</v>
       </c>
       <c r="D15" s="24">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="E15" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="18">
-        <v>9.9993870000000005</v>
+        <v>9.9863929999999996</v>
       </c>
       <c r="G15" s="18">
-        <v>100.00391</v>
+        <v>100.00058</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,19 +3065,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <v>52</v>
+        <v>-43</v>
       </c>
       <c r="D16" s="24">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E16" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="18">
-        <v>10.004600999999999</v>
+        <v>9.9935860000000005</v>
       </c>
       <c r="G16" s="18">
-        <v>99.998750000000001</v>
+        <v>100.00668</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2643,19 +3088,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="24">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D17" s="24">
-        <v>37</v>
+        <v>-56</v>
       </c>
       <c r="E17" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F17" s="18">
-        <v>10.006848</v>
+        <v>10.002950999999999</v>
       </c>
       <c r="G17" s="18">
-        <v>100.00333999999999</v>
+        <v>99.995819999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,19 +3111,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="24">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D18" s="24">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E18" s="24">
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>9.9989329999999992</v>
+        <v>10.00404</v>
       </c>
       <c r="G18" s="18">
-        <v>100.00233</v>
+        <v>99.988624999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,19 +3134,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="24">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E19" s="24">
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <v>10.004882</v>
+        <v>10.004651000000001</v>
       </c>
       <c r="G19" s="18">
-        <v>99.992270000000005</v>
+        <v>99.995804000000007</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,19 +3157,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D20" s="24">
-        <v>-53</v>
+        <v>38</v>
       </c>
       <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>9.9934519999999996</v>
+        <v>10.008589000000001</v>
       </c>
       <c r="G20" s="18">
-        <v>99.995949999999993</v>
+        <v>100.00109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,19 +3180,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <v>-36</v>
+        <v>6</v>
       </c>
       <c r="D21" s="24">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E21" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="18">
-        <v>10.000246000000001</v>
+        <v>10.009644</v>
       </c>
       <c r="G21" s="18">
-        <v>100.02552</v>
+        <v>100.00522599999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,19 +3203,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="24">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D22" s="24">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E22" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="18">
-        <v>10.000299</v>
+        <v>9.9882609999999996</v>
       </c>
       <c r="G22" s="18">
-        <v>100.007065</v>
+        <v>99.995999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,19 +3226,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="24">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D23" s="24">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E23" s="24">
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <v>9.9920770000000001</v>
+        <v>10.004887999999999</v>
       </c>
       <c r="G23" s="18">
-        <v>99.996970000000005</v>
+        <v>100.01124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,19 +3249,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="24">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D24" s="24">
-        <v>-46</v>
+        <v>-42</v>
       </c>
       <c r="E24" s="24">
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <v>9.9998319999999996</v>
+        <v>10.002972</v>
       </c>
       <c r="G24" s="18">
-        <v>99.999274999999997</v>
+        <v>100.00761</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,19 +3272,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="24">
-        <v>-28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24">
-        <v>-48</v>
+        <v>48</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <v>10.002188</v>
+        <v>10.008687</v>
       </c>
       <c r="G25" s="18">
-        <v>99.994254999999995</v>
+        <v>99.995186000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2850,19 +3295,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="24">
-        <v>-56</v>
+        <v>-28</v>
       </c>
       <c r="D26" s="24">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="E26" s="24">
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <v>9.9955359999999995</v>
+        <v>10.006956000000001</v>
       </c>
       <c r="G26" s="18">
-        <v>100.01031</v>
+        <v>100.00756</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,19 +3318,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="24">
-        <v>12</v>
+        <v>-19</v>
       </c>
       <c r="D27" s="24">
-        <v>-54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="24">
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <v>10.001887</v>
+        <v>9.9981980000000004</v>
       </c>
       <c r="G27" s="18">
-        <v>100.00317</v>
+        <v>99.999049999999997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,19 +3341,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="24">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" s="24">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E28" s="24">
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <v>10.0003805</v>
+        <v>9.9966659999999994</v>
       </c>
       <c r="G28" s="18">
-        <v>99.996729999999999</v>
+        <v>99.99494</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2919,19 +3364,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D29" s="24">
-        <v>48</v>
+        <v>-26</v>
       </c>
       <c r="E29" s="24">
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <v>10.004334999999999</v>
+        <v>9.9997710000000009</v>
       </c>
       <c r="G29" s="18">
-        <v>100.0031</v>
+        <v>99.999465999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,19 +3387,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <v>-43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="24">
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="E30" s="24">
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>10.009658999999999</v>
+        <v>9.9911480000000008</v>
       </c>
       <c r="G30" s="18">
-        <v>100.00282</v>
+        <v>99.995766000000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,19 +3410,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="24">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="D31" s="24">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="E31" s="24">
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <v>9.9977230000000006</v>
+        <v>10.009105999999999</v>
       </c>
       <c r="G31" s="18">
-        <v>100.00118000000001</v>
+        <v>100.0076</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,19 +3433,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D32" s="24">
-        <v>-55</v>
+        <v>55</v>
       </c>
       <c r="E32" s="24">
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <v>9.9956999999999994</v>
+        <v>10.005045000000001</v>
       </c>
       <c r="G32" s="18">
-        <v>99.995316000000003</v>
+        <v>99.991</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,19 +3456,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="24">
-        <v>-54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="24">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>10.000954</v>
+        <v>10.005578</v>
       </c>
       <c r="G33" s="18">
-        <v>100.00565</v>
+        <v>99.993904000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="24">
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="D34" s="24">
         <v>55</v>
@@ -3043,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <v>9.9960249999999995</v>
+        <v>9.9936860000000003</v>
       </c>
       <c r="G34" s="18">
-        <v>99.991110000000006</v>
+        <v>99.996809999999996</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3057,19 +3502,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="24">
-        <v>-8</v>
+        <v>-56</v>
       </c>
       <c r="D35" s="24">
-        <v>-55</v>
+        <v>-2</v>
       </c>
       <c r="E35" s="24">
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <v>9.9971069999999997</v>
+        <v>9.9874200000000002</v>
       </c>
       <c r="G35" s="18">
-        <v>100.00614</v>
+        <v>100.00199000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,19 +3525,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="24">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="D36" s="24">
-        <v>-44</v>
+        <v>-48</v>
       </c>
       <c r="E36" s="24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="18">
-        <v>9.9992529999999995</v>
+        <v>10.000109999999999</v>
       </c>
       <c r="G36" s="18">
-        <v>100.00185</v>
+        <v>100.00209</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3103,19 +3548,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="24">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="D37" s="24">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="E37" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F37" s="18">
-        <v>9.9980290000000007</v>
+        <v>9.9924630000000008</v>
       </c>
       <c r="G37" s="18">
-        <v>99.979830000000007</v>
+        <v>99.998379999999997</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,19 +3571,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="24">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="D38" s="24">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="24">
         <v>0</v>
       </c>
       <c r="F38" s="18">
-        <v>9.995298</v>
+        <v>9.9961479999999998</v>
       </c>
       <c r="G38" s="18">
-        <v>99.984380000000002</v>
+        <v>100.00461</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,19 +3594,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="24">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D39" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="24">
         <v>0</v>
       </c>
       <c r="F39" s="18">
-        <v>10.012199000000001</v>
+        <v>9.9944419999999994</v>
       </c>
       <c r="G39" s="18">
-        <v>100.00342999999999</v>
+        <v>100.00494399999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3172,19 +3617,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="24">
-        <v>22</v>
+        <v>-8</v>
       </c>
       <c r="D40" s="24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E40" s="24">
         <v>0</v>
       </c>
       <c r="F40" s="18">
-        <v>10.011803</v>
+        <v>9.9961479999999998</v>
       </c>
       <c r="G40" s="18">
-        <v>100.00424</v>
+        <v>100.00461</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,19 +3640,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="24">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D41" s="24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E41" s="24">
         <v>0</v>
       </c>
       <c r="F41" s="18">
-        <v>10.013456</v>
+        <v>9.9977370000000008</v>
       </c>
       <c r="G41" s="18">
-        <v>100.00694</v>
+        <v>100.00461</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3218,19 +3663,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="24">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D42" s="24">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="E42" s="24">
         <v>0</v>
       </c>
       <c r="F42" s="18">
-        <v>9.9902949999999997</v>
+        <v>9.9998330000000006</v>
       </c>
       <c r="G42" s="18">
-        <v>100.023346</v>
+        <v>100.00848000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,19 +3686,341 @@
         <v>41</v>
       </c>
       <c r="C43" s="24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="24">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E43" s="24">
         <v>0</v>
       </c>
       <c r="F43" s="18">
-        <v>10.013496</v>
+        <v>9.9984009999999994</v>
       </c>
       <c r="G43" s="18">
-        <v>100.00082</v>
+        <v>99.993744000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>17</v>
+      </c>
+      <c r="D44" s="24">
+        <v>4</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
+        <v>9.9964910000000007</v>
+      </c>
+      <c r="G44" s="18">
+        <v>99.993744000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>13</v>
+      </c>
+      <c r="D45" s="24">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24">
+        <v>14</v>
+      </c>
+      <c r="F45" s="18">
+        <v>9.9964075000000001</v>
+      </c>
+      <c r="G45" s="18">
+        <v>99.99633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>14</v>
+      </c>
+      <c r="D46" s="24">
+        <v>16</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>10.006435</v>
+      </c>
+      <c r="G46" s="18">
+        <v>99.992170000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>-17</v>
+      </c>
+      <c r="D47" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="24">
+        <v>9</v>
+      </c>
+      <c r="F47" s="18">
+        <v>9.9924630000000008</v>
+      </c>
+      <c r="G47" s="18">
+        <v>100.00108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="24">
+        <v>-16</v>
+      </c>
+      <c r="D48" s="24">
+        <v>-5</v>
+      </c>
+      <c r="E48" s="24">
+        <v>5</v>
+      </c>
+      <c r="F48" s="18">
+        <v>9.9924630000000008</v>
+      </c>
+      <c r="G48" s="18">
+        <v>100.00081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="24">
+        <v>-17</v>
+      </c>
+      <c r="D49" s="24">
+        <v>-12</v>
+      </c>
+      <c r="E49" s="24">
+        <v>4</v>
+      </c>
+      <c r="F49" s="18">
+        <v>9.9932230000000004</v>
+      </c>
+      <c r="G49" s="18">
+        <v>100.00073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="24">
+        <v>-20</v>
+      </c>
+      <c r="D50" s="24">
+        <v>-17</v>
+      </c>
+      <c r="E50" s="24">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>9.9914550000000002</v>
+      </c>
+      <c r="G50" s="18">
+        <v>99.99821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="24">
+        <v>14</v>
+      </c>
+      <c r="D51" s="24">
+        <v>-61</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>9.9978069999999999</v>
+      </c>
+      <c r="G51" s="18">
+        <v>99.993934999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="24">
+        <v>13</v>
+      </c>
+      <c r="D52" s="24">
+        <v>22</v>
+      </c>
+      <c r="E52" s="24">
+        <v>13</v>
+      </c>
+      <c r="F52" s="18">
+        <v>9.9950580000000002</v>
+      </c>
+      <c r="G52" s="18">
+        <v>99.99324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="24">
+        <v>16</v>
+      </c>
+      <c r="D53" s="24">
+        <v>28</v>
+      </c>
+      <c r="E53" s="24">
+        <v>10</v>
+      </c>
+      <c r="F53" s="18">
+        <v>9.9964075000000001</v>
+      </c>
+      <c r="G53" s="18">
+        <v>99.993740000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="24">
+        <v>20</v>
+      </c>
+      <c r="D54" s="24">
+        <v>38</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <v>9.9964075000000001</v>
+      </c>
+      <c r="G54" s="18">
+        <v>99.995869999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="24">
+        <v>22</v>
+      </c>
+      <c r="D55" s="24">
+        <v>48</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>9.9982194999999994</v>
+      </c>
+      <c r="G55" s="18">
+        <v>99.993979999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="24">
+        <v>20</v>
+      </c>
+      <c r="D56" s="24">
+        <v>55</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18">
+        <v>9.9964619999999993</v>
+      </c>
+      <c r="G56" s="18">
+        <v>99.992869999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="24">
+        <v>17</v>
+      </c>
+      <c r="D57" s="24">
+        <v>59</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>9.9954249999999991</v>
+      </c>
+      <c r="G57" s="18">
+        <v>99.993979999999993</v>
       </c>
     </row>
   </sheetData>
@@ -3264,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,7 +4066,9 @@
       <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
       <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,6 +4078,9 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3317,6 +4089,9 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -3325,6 +4100,9 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3333,6 +4111,9 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -3341,6 +4122,9 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -3349,6 +4133,9 @@
       <c r="B8" s="9">
         <v>6</v>
       </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3357,6 +4144,9 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3365,6 +4155,9 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3373,6 +4166,9 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3381,6 +4177,9 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3389,6 +4188,9 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3397,6 +4199,9 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3405,6 +4210,9 @@
       <c r="B15" s="9">
         <v>13</v>
       </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3413,221 +4221,459 @@
       <c r="B16" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="B26" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1</v>
       </c>
       <c r="B27" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1</v>
       </c>
       <c r="B30" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1</v>
       </c>
       <c r="B31" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1</v>
       </c>
       <c r="B32" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1</v>
       </c>
       <c r="B33" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
       <c r="B36" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" s="9">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="9">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="9">
         <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3637,9 +4683,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3712,17 +4758,33 @@
       <c r="C2" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
       <c r="E2" s="19">
-        <v>38019.54</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="15"/>
+        <v>32288.134999999998</v>
+      </c>
+      <c r="F2" s="19">
+        <v>2498.7013999999999</v>
+      </c>
+      <c r="G2" s="19">
+        <v>17370.271000000001</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>8859.7749999999996</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>2498.7013999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3734,8 +4796,32 @@
       <c r="C3" s="16">
         <v>0</v>
       </c>
+      <c r="D3" s="16">
+        <v>20000</v>
+      </c>
       <c r="E3" s="18">
-        <v>21367.921999999999</v>
+        <v>28850.69</v>
+      </c>
+      <c r="F3" s="18">
+        <v>5740.6684999999998</v>
+      </c>
+      <c r="G3" s="18">
+        <v>31114.379000000001</v>
+      </c>
+      <c r="H3" s="18">
+        <v>10.064109999999999</v>
+      </c>
+      <c r="I3" s="18">
+        <v>497.72455000000002</v>
+      </c>
+      <c r="J3" s="18">
+        <v>410.05939999999998</v>
+      </c>
+      <c r="K3" s="18">
+        <v>275</v>
+      </c>
+      <c r="L3" s="16">
+        <v>6025.7323999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3748,8 +4834,32 @@
       <c r="C4" s="16">
         <v>0</v>
       </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
       <c r="E4" s="18">
-        <v>19504.77</v>
+        <v>29849.062000000002</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5664.5209999999997</v>
+      </c>
+      <c r="G4" s="18">
+        <v>17173.146000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>19622.508000000002</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>5664.5209999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3762,8 +4872,32 @@
       <c r="C5" s="16">
         <v>0</v>
       </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
       <c r="E5" s="18">
-        <v>23538.15</v>
+        <v>33516.027000000002</v>
+      </c>
+      <c r="F5" s="18">
+        <v>5660.6244999999999</v>
+      </c>
+      <c r="G5" s="18">
+        <v>32825.86</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>5359.19</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>5660.6244999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3776,8 +4910,32 @@
       <c r="C6" s="16">
         <v>0</v>
       </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
       <c r="E6" s="18">
-        <v>25549.965</v>
+        <v>22817.9</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2845.0427</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3511.4164999999998</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>31250.611000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2845.0427</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3790,8 +4948,32 @@
       <c r="C7" s="16">
         <v>0</v>
       </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
       <c r="E7" s="18">
-        <v>18225.298999999999</v>
+        <v>22536.511999999999</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6617.2983000000004</v>
+      </c>
+      <c r="G7" s="18">
+        <v>25498.146000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>20838.912</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6617.2983000000004</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3804,8 +4986,32 @@
       <c r="C8" s="16">
         <v>0</v>
       </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
       <c r="E8" s="18">
-        <v>44801.733999999997</v>
+        <v>17653.791000000001</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2815.3188</v>
+      </c>
+      <c r="G8" s="18">
+        <v>22980.880000000001</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>18547.393</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2815.3188</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3818,8 +5024,32 @@
       <c r="C9" s="16">
         <v>0</v>
       </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
       <c r="E9" s="18">
-        <v>32318.828000000001</v>
+        <v>10921.108</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5651.63</v>
+      </c>
+      <c r="G9" s="18">
+        <v>23505.271000000001</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>29209.261999999999</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>5651.63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3832,8 +5062,32 @@
       <c r="C10" s="16">
         <v>0</v>
       </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
       <c r="E10" s="18">
-        <v>21845.942999999999</v>
+        <v>10620.290999999999</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3356.2831999999999</v>
+      </c>
+      <c r="G10" s="18">
+        <v>41252.660000000003</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>10899.486000000001</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>3356.2831999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3846,8 +5100,32 @@
       <c r="C11" s="16">
         <v>0</v>
       </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
       <c r="E11" s="18">
-        <v>23653.833999999999</v>
+        <v>13888.166999999999</v>
+      </c>
+      <c r="F11" s="18">
+        <v>5687.5039999999999</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3255.7026000000001</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>37582.862999999998</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5687.5039999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3860,8 +5138,32 @@
       <c r="C12" s="16">
         <v>0</v>
       </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
       <c r="E12" s="18">
-        <v>14510.630999999999</v>
+        <v>4770.799</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4771.6553000000004</v>
+      </c>
+      <c r="G12" s="18">
+        <v>45479.87</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>13194.425999999999</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>4771.6553000000004</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3874,8 +5176,32 @@
       <c r="C13" s="16">
         <v>0</v>
       </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
       <c r="E13" s="18">
-        <v>57845.347999999998</v>
+        <v>24266.456999999999</v>
+      </c>
+      <c r="F13" s="18">
+        <v>5587.8459999999995</v>
+      </c>
+      <c r="G13" s="18">
+        <v>8202.3709999999992</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>34543.983999999997</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5587.8459999999995</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3888,8 +5214,32 @@
       <c r="C14" s="16">
         <v>0</v>
       </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
       <c r="E14" s="18">
-        <v>19121.928</v>
+        <v>26060.258000000002</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4288.0054</v>
+      </c>
+      <c r="G14" s="18">
+        <v>25245.848000000002</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>15586.05</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>4288.0054</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3902,8 +5252,32 @@
       <c r="C15" s="16">
         <v>0</v>
       </c>
+      <c r="D15" s="16">
+        <v>20000</v>
+      </c>
       <c r="E15" s="18">
-        <v>36272.332000000002</v>
+        <v>6182.6665000000003</v>
+      </c>
+      <c r="F15" s="18">
+        <v>5702.3275999999996</v>
+      </c>
+      <c r="G15" s="18">
+        <v>27005.671999999999</v>
+      </c>
+      <c r="H15" s="18">
+        <v>39.455714999999998</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2004.395</v>
+      </c>
+      <c r="J15" s="18">
+        <v>21262.546999999999</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5741.7830000000004</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3916,11 +5290,35 @@
       <c r="C16" s="16">
         <v>0</v>
       </c>
+      <c r="D16" s="16">
+        <v>20000</v>
+      </c>
       <c r="E16" s="18">
-        <v>20972.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9867.6569999999992</v>
+      </c>
+      <c r="F16" s="18">
+        <v>6141.7627000000002</v>
+      </c>
+      <c r="G16" s="18">
+        <v>20417.226999999999</v>
+      </c>
+      <c r="H16" s="18">
+        <v>59.615130000000001</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3008.2530000000002</v>
+      </c>
+      <c r="J16" s="18">
+        <v>26647.123</v>
+      </c>
+      <c r="K16" s="18">
+        <v>600</v>
+      </c>
+      <c r="L16" s="16">
+        <v>6801.3779999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -3930,11 +5328,35 @@
       <c r="C17" s="16">
         <v>0</v>
       </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
       <c r="E17" s="18">
-        <v>30607.166000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14023.288</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3607.8470000000002</v>
+      </c>
+      <c r="G17" s="18">
+        <v>16891.384999999998</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>30135.68</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3607.8470000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -3944,11 +5366,35 @@
       <c r="C18" s="16">
         <v>0</v>
       </c>
+      <c r="D18" s="16">
+        <v>20000</v>
+      </c>
       <c r="E18" s="18">
-        <v>16582.588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45876.597999999998</v>
+      </c>
+      <c r="F18" s="18">
+        <v>6491.9930000000004</v>
+      </c>
+      <c r="G18" s="18">
+        <v>20681.43</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>16260.98</v>
+      </c>
+      <c r="K18" s="18">
+        <v>95</v>
+      </c>
+      <c r="L18" s="16">
+        <v>6586.9930000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -3958,11 +5404,35 @@
       <c r="C19" s="16">
         <v>0</v>
       </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
       <c r="E19" s="18">
-        <v>4983.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16372.558999999999</v>
+      </c>
+      <c r="F19" s="18">
+        <v>5916.4059999999999</v>
+      </c>
+      <c r="G19" s="18">
+        <v>22202.69</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>15518.898999999999</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>5916.4059999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -3972,11 +5442,35 @@
       <c r="C20" s="16">
         <v>0</v>
       </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
       <c r="E20" s="18">
-        <v>29738.645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1456.0444</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1456.1865</v>
+      </c>
+      <c r="G20" s="18">
+        <v>21344.021000000001</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>46017</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>1456.1865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -3986,11 +5480,35 @@
       <c r="C21" s="16">
         <v>0</v>
       </c>
+      <c r="D21" s="16">
+        <v>20000</v>
+      </c>
       <c r="E21" s="18">
-        <v>30614.799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7084.5986000000003</v>
+      </c>
+      <c r="F21" s="18">
+        <v>7074.4129999999996</v>
+      </c>
+      <c r="G21" s="18">
+        <v>36124.593999999997</v>
+      </c>
+      <c r="H21" s="18">
+        <v>60.578636000000003</v>
+      </c>
+      <c r="I21" s="18">
+        <v>3018.5027</v>
+      </c>
+      <c r="J21" s="18">
+        <v>22161.947</v>
+      </c>
+      <c r="K21" s="18">
+        <v>335</v>
+      </c>
+      <c r="L21" s="16">
+        <v>7469.9916999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -4000,11 +5518,35 @@
       <c r="C22" s="16">
         <v>0</v>
       </c>
+      <c r="D22" s="16">
+        <v>40000</v>
+      </c>
       <c r="E22" s="18">
-        <v>8969.7860000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12848.031999999999</v>
+      </c>
+      <c r="F22" s="18">
+        <v>5963.9170000000004</v>
+      </c>
+      <c r="G22" s="18">
+        <v>20980.498</v>
+      </c>
+      <c r="H22" s="18">
+        <v>29.647835000000001</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1512.0070000000001</v>
+      </c>
+      <c r="J22" s="18">
+        <v>29626.611000000001</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>5993.5649999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4014,11 +5556,35 @@
       <c r="C23" s="16">
         <v>0</v>
       </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
       <c r="E23" s="18">
-        <v>11205.536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41492.11</v>
+      </c>
+      <c r="F23" s="18">
+        <v>3016.6374999999998</v>
+      </c>
+      <c r="G23" s="18">
+        <v>21951.201000000001</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>8966.7309999999998</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>3016.6374999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -4028,11 +5594,35 @@
       <c r="C24" s="16">
         <v>0</v>
       </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
       <c r="E24" s="18">
-        <v>39585.366999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40633.360000000001</v>
+      </c>
+      <c r="F24" s="18">
+        <v>6724.8029999999999</v>
+      </c>
+      <c r="G24" s="18">
+        <v>20131.713</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>13531.183999999999</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>6724.8029999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -4042,11 +5632,35 @@
       <c r="C25" s="16">
         <v>0</v>
       </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
       <c r="E25" s="18">
-        <v>36292.703000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32632.307000000001</v>
+      </c>
+      <c r="F25" s="18">
+        <v>5646.4949999999999</v>
+      </c>
+      <c r="G25" s="18">
+        <v>4180.2285000000002</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>24646.901999999998</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>5646.4949999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -4056,11 +5670,35 @@
       <c r="C26" s="16">
         <v>0</v>
       </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
       <c r="E26" s="18">
-        <v>12254.038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12436.799000000001</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3207.0493000000001</v>
+      </c>
+      <c r="G26" s="18">
+        <v>109.09762600000001</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>55072.453000000001</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>3207.0493000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -4070,11 +5708,35 @@
       <c r="C27" s="16">
         <v>0</v>
       </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
       <c r="E27" s="18">
-        <v>21970.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37808.995999999999</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3523.4376999999999</v>
+      </c>
+      <c r="G27" s="18">
+        <v>12694.061</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>4387.7484999999997</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>3523.4376999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -4084,11 +5746,35 @@
       <c r="C28" s="16">
         <v>0</v>
       </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
       <c r="E28" s="18">
-        <v>24825.482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21381.285</v>
+      </c>
+      <c r="F28" s="18">
+        <v>5705.415</v>
+      </c>
+      <c r="G28" s="18">
+        <v>18584.259999999998</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>19727.982</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>5705.415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -4098,11 +5784,35 @@
       <c r="C29" s="16">
         <v>0</v>
       </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
       <c r="E29" s="18">
-        <v>24612.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18570.945</v>
+      </c>
+      <c r="F29" s="18">
+        <v>5606.0204999999996</v>
+      </c>
+      <c r="G29" s="18">
+        <v>33124.97</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>21575.831999999999</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>5606.0204999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -4112,11 +5822,35 @@
       <c r="C30" s="16">
         <v>0</v>
       </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
       <c r="E30" s="18">
-        <v>4996.5736999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34040.285000000003</v>
+      </c>
+      <c r="F30" s="18">
+        <v>2707.1514000000002</v>
+      </c>
+      <c r="G30" s="18">
+        <v>15446.18</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>20390.583999999999</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>2707.1514000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -4126,11 +5860,35 @@
       <c r="C31" s="16">
         <v>0</v>
       </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
       <c r="E31" s="18">
-        <v>40760.292999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40519.707000000002</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1480.8273999999999</v>
+      </c>
+      <c r="G31" s="18">
+        <v>13624.02</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>24644.298999999999</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1480.8273999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -4140,11 +5898,35 @@
       <c r="C32" s="16">
         <v>0</v>
       </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
       <c r="E32" s="18">
-        <v>16408.063999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7937.2269999999999</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5824.5586000000003</v>
+      </c>
+      <c r="G32" s="18">
+        <v>45603.983999999997</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>9005.2819999999992</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>5824.5586000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -4154,11 +5936,35 @@
       <c r="C33" s="16">
         <v>0</v>
       </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
       <c r="E33" s="18">
-        <v>22134.030999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30663.21</v>
+      </c>
+      <c r="F33" s="18">
+        <v>3832.0083</v>
+      </c>
+      <c r="G33" s="18">
+        <v>13352.096</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>10239.984</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>3832.0083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -4168,11 +5974,35 @@
       <c r="C34" s="16">
         <v>0</v>
       </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
       <c r="E34" s="18">
-        <v>31009.998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26037.143</v>
+      </c>
+      <c r="F34" s="18">
+        <v>3966.652</v>
+      </c>
+      <c r="G34" s="18">
+        <v>24424.87</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>4676.3887000000004</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>3966.652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -4182,11 +6012,35 @@
       <c r="C35" s="16">
         <v>0</v>
       </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
       <c r="E35" s="18">
-        <v>2249.9083999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3526.1235000000001</v>
+      </c>
+      <c r="F35" s="18">
+        <v>3528.5673999999999</v>
+      </c>
+      <c r="G35" s="18">
+        <v>47490.663999999997</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>8540.4570000000003</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>3528.5673999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4196,11 +6050,35 @@
       <c r="C36" s="16">
         <v>0</v>
       </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
       <c r="E36" s="18">
-        <v>35502.273000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4725.1875</v>
+      </c>
+      <c r="F36" s="18">
+        <v>4725.2619999999997</v>
+      </c>
+      <c r="G36" s="18">
+        <v>38275.370000000003</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>19436.849999999999</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>4725.2619999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -4210,11 +6088,35 @@
       <c r="C37" s="16">
         <v>0</v>
       </c>
+      <c r="D37" s="16">
+        <v>60000</v>
+      </c>
       <c r="E37" s="18">
-        <v>31754.195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13752.851000000001</v>
+      </c>
+      <c r="F37" s="18">
+        <v>5741.8525</v>
+      </c>
+      <c r="G37" s="18">
+        <v>4483.4507000000003</v>
+      </c>
+      <c r="H37" s="18">
+        <v>79.397025999999997</v>
+      </c>
+      <c r="I37" s="18">
+        <v>3973.7579999999998</v>
+      </c>
+      <c r="J37" s="18">
+        <v>45668.18</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1850</v>
+      </c>
+      <c r="L37" s="16">
+        <v>7671.2494999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -4224,11 +6126,35 @@
       <c r="C38" s="16">
         <v>0</v>
       </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
       <c r="E38" s="18">
-        <v>30035.896000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4953.4679999999998</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3014.9758000000002</v>
+      </c>
+      <c r="G38" s="18">
+        <v>34918.629999999997</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>21564.168000000001</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
+        <v>3014.9758000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -4238,11 +6164,35 @@
       <c r="C39" s="16">
         <v>0</v>
       </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
       <c r="E39" s="18">
-        <v>10479.474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7509.4769999999999</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1459.2538999999999</v>
+      </c>
+      <c r="G39" s="18">
+        <v>31636.243999999999</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>19154.296999999999</v>
+      </c>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>1459.2538999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -4252,11 +6202,35 @@
       <c r="C40" s="16">
         <v>0</v>
       </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
       <c r="E40" s="18">
-        <v>13557.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10059.713</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1675.4692</v>
+      </c>
+      <c r="G40" s="18">
+        <v>25095.99</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>22496.305</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>1675.4692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -4266,11 +6240,35 @@
       <c r="C41" s="16">
         <v>0</v>
       </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
       <c r="E41" s="18">
-        <v>12892.931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8207.2890000000007</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1244.8315</v>
+      </c>
+      <c r="G41" s="18">
+        <v>30386.333999999999</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>24208.504000000001</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1244.8315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -4280,11 +6278,35 @@
       <c r="C42" s="16">
         <v>0</v>
       </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
       <c r="E42" s="18">
-        <v>18479.219000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28200.111000000001</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1059.4922999999999</v>
+      </c>
+      <c r="G42" s="18">
+        <v>25289.844000000001</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>9084.3340000000007</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
+        <v>1059.4922999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4294,8 +6316,564 @@
       <c r="C43" s="16">
         <v>0</v>
       </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
       <c r="E43" s="18">
-        <v>13691.017</v>
+        <v>28276.41</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2407.8771999999999</v>
+      </c>
+      <c r="G43" s="18">
+        <v>23352.28</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>9697.4169999999995</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>2407.8771999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18">
+        <v>27913.482</v>
+      </c>
+      <c r="F44" s="18">
+        <v>5736.0150000000003</v>
+      </c>
+      <c r="G44" s="18">
+        <v>24172.3</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10514.883</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <v>5736.0150000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="18">
+        <v>34450.597999999998</v>
+      </c>
+      <c r="F45" s="18">
+        <v>5785.7065000000002</v>
+      </c>
+      <c r="G45" s="18">
+        <v>21801.24</v>
+      </c>
+      <c r="H45" s="18">
+        <v>139.49704</v>
+      </c>
+      <c r="I45" s="18">
+        <v>7026.6940000000004</v>
+      </c>
+      <c r="J45" s="18">
+        <v>8805.9</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1100</v>
+      </c>
+      <c r="L45" s="16">
+        <v>7025.2035999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>33604.699999999997</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1050.9146000000001</v>
+      </c>
+      <c r="G46" s="18">
+        <v>23285.164000000001</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>5679.4189999999999</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>1050.9146000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>40000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>15374.763999999999</v>
+      </c>
+      <c r="F47" s="18">
+        <v>5743.1826000000001</v>
+      </c>
+      <c r="G47" s="18">
+        <v>5075.5137000000004</v>
+      </c>
+      <c r="H47" s="18">
+        <v>89.321655000000007</v>
+      </c>
+      <c r="I47" s="18">
+        <v>4490.1629999999996</v>
+      </c>
+      <c r="J47" s="18">
+        <v>41079.605000000003</v>
+      </c>
+      <c r="K47" s="18">
+        <v>685</v>
+      </c>
+      <c r="L47" s="16">
+        <v>6517.5043999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="18">
+        <v>18630.5</v>
+      </c>
+      <c r="F48" s="18">
+        <v>5740.6606000000002</v>
+      </c>
+      <c r="G48" s="18">
+        <v>3008.8062</v>
+      </c>
+      <c r="H48" s="18">
+        <v>49.623139999999999</v>
+      </c>
+      <c r="I48" s="18">
+        <v>2496.4920000000002</v>
+      </c>
+      <c r="J48" s="18">
+        <v>39766.324000000001</v>
+      </c>
+      <c r="K48" s="18">
+        <v>400</v>
+      </c>
+      <c r="L48" s="16">
+        <v>6190.2837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E49" s="18">
+        <v>17579.898000000001</v>
+      </c>
+      <c r="F49" s="18">
+        <v>6557.5375999999997</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2320.0680000000002</v>
+      </c>
+      <c r="H49" s="18">
+        <v>39.728940000000001</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1996.3456000000001</v>
+      </c>
+      <c r="J49" s="18">
+        <v>44068.766000000003</v>
+      </c>
+      <c r="K49" s="18">
+        <v>585</v>
+      </c>
+      <c r="L49" s="16">
+        <v>7182.2665999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="18">
+        <v>11051.415000000001</v>
+      </c>
+      <c r="F50" s="18">
+        <v>5813.3590000000004</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1431.7394999999999</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <v>49183.25</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
+        <v>5813.3590000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>34127.008000000002</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1929.1940999999999</v>
+      </c>
+      <c r="G51" s="18">
+        <v>25507.063999999998</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
+        <v>5854.5063</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>1929.1940999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16">
+        <v>40000</v>
+      </c>
+      <c r="E52" s="18">
+        <v>34468.766000000003</v>
+      </c>
+      <c r="F52" s="18">
+        <v>5984.9844000000003</v>
+      </c>
+      <c r="G52" s="18">
+        <v>20366.081999999999</v>
+      </c>
+      <c r="H52" s="18">
+        <v>129.35749999999999</v>
+      </c>
+      <c r="I52" s="18">
+        <v>6531.9880000000003</v>
+      </c>
+      <c r="J52" s="18">
+        <v>10737.546</v>
+      </c>
+      <c r="K52" s="18">
+        <v>800</v>
+      </c>
+      <c r="L52" s="16">
+        <v>6914.3419999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="18">
+        <v>36164.769999999997</v>
+      </c>
+      <c r="F53" s="18">
+        <v>5728.3670000000002</v>
+      </c>
+      <c r="G53" s="18">
+        <v>19711.03</v>
+      </c>
+      <c r="H53" s="18">
+        <v>99.640739999999994</v>
+      </c>
+      <c r="I53" s="18">
+        <v>5031.7974000000004</v>
+      </c>
+      <c r="J53" s="18">
+        <v>9244.06</v>
+      </c>
+      <c r="K53" s="18">
+        <v>400</v>
+      </c>
+      <c r="L53" s="16">
+        <v>6228.0079999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>33528.413999999997</v>
+      </c>
+      <c r="F54" s="18">
+        <v>6064.4975999999997</v>
+      </c>
+      <c r="G54" s="18">
+        <v>21217.66</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18">
+        <v>8570.1820000000007</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16">
+        <v>6064.4975999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>34210.01</v>
+      </c>
+      <c r="F55" s="18">
+        <v>4860.1629999999996</v>
+      </c>
+      <c r="G55" s="18">
+        <v>20747.490000000002</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18">
+        <v>8744.4040000000005</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>4860.1629999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <v>38443.879999999997</v>
+      </c>
+      <c r="F56" s="18">
+        <v>2352.1277</v>
+      </c>
+      <c r="G56" s="18">
+        <v>16821.978999999999</v>
+      </c>
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18">
+        <v>10502.528</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="16">
+        <v>2352.1277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <v>31950.68</v>
+      </c>
+      <c r="F57" s="18">
+        <v>5908.0165999999999</v>
+      </c>
+      <c r="G57" s="18">
+        <v>21638.303</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
+        <v>8187</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="16">
+        <v>5908.0165999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4305,10 +6883,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,12 +6920,957 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>969</v>
+      </c>
       <c r="E2" s="23"/>
-      <c r="F2" s="21"/>
+      <c r="F2" s="21">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>271</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>278</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>598</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <v>338</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>136</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>419</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <v>846</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>774</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1336</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1274</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
+      <c r="D36" s="24">
+        <v>596</v>
+      </c>
+      <c r="F36" s="22">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="22">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0</v>
+      </c>
+      <c r="F41" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24">
+        <v>564</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24">
+        <v>380</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24">
+        <v>269</v>
+      </c>
+      <c r="F51" s="22">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24">
+        <v>524</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24">
+        <v>586</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24">
+        <v>228</v>
+      </c>
+      <c r="F56" s="22">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <v>94</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4356,19 +7879,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4386,22 +7909,1143 @@
         <v>45</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="23">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-100</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F3" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="24">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="24">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F8" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F9" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F10" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="24">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F14" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="24">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F16" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="24">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F18" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F19" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>-20</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="24">
+        <v>5</v>
+      </c>
+      <c r="E21" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="24">
+        <v>4</v>
+      </c>
+      <c r="E23" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F23" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F24" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="24">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>-60</v>
+      </c>
+      <c r="F26" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18">
+        <v>-60</v>
+      </c>
+      <c r="F27" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="24">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18">
+        <v>-60</v>
+      </c>
+      <c r="F28" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="24">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F30" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="24">
+        <v>6</v>
+      </c>
+      <c r="E31" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F31" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="24">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F32" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="24">
+        <v>4</v>
+      </c>
+      <c r="E33" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F33" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="24">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="24">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="24">
+        <v>20</v>
+      </c>
+      <c r="E37" s="18">
+        <v>-400</v>
+      </c>
+      <c r="F37" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="24">
+        <v>5</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="24">
+        <v>5</v>
+      </c>
+      <c r="E39" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="24">
+        <v>5</v>
+      </c>
+      <c r="E40" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="24">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5</v>
+      </c>
+      <c r="E42" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="24">
+        <v>5</v>
+      </c>
+      <c r="E43" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="24">
+        <v>4</v>
+      </c>
+      <c r="E44" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F44" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="24">
+        <v>11</v>
+      </c>
+      <c r="E45" s="18">
+        <v>-220</v>
+      </c>
+      <c r="F45" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="24">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="24">
+        <v>7</v>
+      </c>
+      <c r="E47" s="18">
+        <v>-137</v>
+      </c>
+      <c r="F47" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="24">
+        <v>4</v>
+      </c>
+      <c r="E48" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F48" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C49" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="24">
+        <v>6</v>
+      </c>
+      <c r="E49" s="18">
+        <v>-117</v>
+      </c>
+      <c r="F49" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="24">
+        <v>3</v>
+      </c>
+      <c r="E50" s="18">
+        <v>-59</v>
+      </c>
+      <c r="F50" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="24">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="24">
+        <v>8</v>
+      </c>
+      <c r="E52" s="18">
+        <v>-160</v>
+      </c>
+      <c r="F52" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="24">
+        <v>4</v>
+      </c>
+      <c r="E53" s="18">
+        <v>-80</v>
+      </c>
+      <c r="F53" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="24">
+        <v>5</v>
+      </c>
+      <c r="E55" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="24">
+        <v>5</v>
+      </c>
+      <c r="E56" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Survived"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Died"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4410,7 +9054,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" activeCellId="4" sqref="C1:F1048576 G1:G1048576 H1:H1048576 M1:M1048576 N1:N1048576"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,49 +9092,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4545,37 +9189,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Creature Traits" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
     <sheet name="Environment" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="c_avgs_1" localSheetId="1">'Creature Averages'!$A$1:$L$4</definedName>
-    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$57</definedName>
-    <definedName name="env_1" localSheetId="8">Environment!$A$1:$L$2</definedName>
-    <definedName name="lifetime" localSheetId="5">'Lifetime ticks'!$A$1:$F$57</definedName>
-    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$57</definedName>
-    <definedName name="p_impact" localSheetId="6">'Player Impact'!$A$1:$F$57</definedName>
-    <definedName name="p_stats" localSheetId="7">'Player Stats'!$A$1:$P$2</definedName>
-    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$57</definedName>
-    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$57</definedName>
+    <definedName name="c_avgs_1" localSheetId="1">'Creature Averages'!$A$1:$L$3</definedName>
+    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$37</definedName>
+    <definedName name="env" localSheetId="8">Environment!$A$1:$L$3</definedName>
+    <definedName name="lifetime" localSheetId="5">'Lifetime ticks'!$A$1:$F$37</definedName>
+    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$37</definedName>
+    <definedName name="p_impact" localSheetId="6">'Player Impact'!$A$1:$F$37</definedName>
+    <definedName name="p_stats_1" localSheetId="7">'Player Stats'!$A$1:$P$3</definedName>
+    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$37</definedName>
+    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -81,8 +81,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" interval="1" name="env" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\higle_000\Documents\GitHub\evolvedTD\evolvedTD\data\env.csv" comma="1">
+  <connection id="3" name="env" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\higle_000\Documents\GitHub\evolvedTD\evolvedTD\data\env.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t xml:space="preserve">   Gen   </t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Died</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -542,11 +545,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,39 +639,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0C9619"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0C9619"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -718,11 +740,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p_stats" refreshOnLoad="1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p_stats_1" refreshOnLoad="1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="env_1" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="env" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -1060,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>117.03636</v>
+        <v>141.11787000000001</v>
       </c>
       <c r="D2" s="18">
-        <v>40.943683999999998</v>
+        <v>49.283239999999999</v>
       </c>
       <c r="E2" s="18">
-        <v>77.736590000000007</v>
+        <v>80.624930000000006</v>
       </c>
       <c r="F2" s="18">
-        <v>7.9841413000000001</v>
+        <v>8.0099330000000002</v>
       </c>
       <c r="K2" s="18">
-        <v>718.11260000000004</v>
+        <v>701.43353000000002</v>
       </c>
       <c r="M2" s="18">
         <v>100</v>
@@ -1086,19 +1108,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="18">
-        <v>120.75026</v>
+        <v>107.28951000000001</v>
       </c>
       <c r="D3" s="18">
-        <v>42.784992000000003</v>
+        <v>39.341850000000001</v>
       </c>
       <c r="E3" s="18">
-        <v>88.49109</v>
+        <v>78.095794999999995</v>
       </c>
       <c r="F3" s="18">
-        <v>9.0335249999999991</v>
+        <v>7.9765550000000003</v>
       </c>
       <c r="K3" s="18">
-        <v>730.75116000000003</v>
+        <v>721.31629999999996</v>
       </c>
       <c r="M3" s="18">
         <v>100</v>
@@ -1112,19 +1134,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="18">
-        <v>133.28944000000001</v>
+        <v>114.97237</v>
       </c>
       <c r="D4" s="18">
-        <v>44.785910000000001</v>
+        <v>39.290816999999997</v>
       </c>
       <c r="E4" s="18">
-        <v>79.374039999999994</v>
+        <v>80.235060000000004</v>
       </c>
       <c r="F4" s="18">
-        <v>8.0058399999999992</v>
+        <v>7.9891953000000004</v>
       </c>
       <c r="K4" s="18">
-        <v>710.42816000000005</v>
+        <v>721.41832999999997</v>
       </c>
       <c r="M4" s="18">
         <v>100</v>
@@ -1138,19 +1160,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="18">
-        <v>143.40215000000001</v>
+        <v>111.57549</v>
       </c>
       <c r="D5" s="18">
-        <v>45.261470000000003</v>
+        <v>37.494663000000003</v>
       </c>
       <c r="E5" s="18">
-        <v>75.736620000000002</v>
+        <v>79.464550000000003</v>
       </c>
       <c r="F5" s="18">
-        <v>7.9954749999999999</v>
+        <v>8.0294150000000002</v>
       </c>
       <c r="K5" s="18">
-        <v>709.47704999999996</v>
+        <v>725.01070000000004</v>
       </c>
       <c r="M5" s="18">
         <v>100</v>
@@ -1164,19 +1186,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="18">
-        <v>115.15985999999999</v>
+        <v>123.30329999999999</v>
       </c>
       <c r="D6" s="18">
-        <v>40.901867000000003</v>
+        <v>37.122047000000002</v>
       </c>
       <c r="E6" s="18">
-        <v>77.617670000000004</v>
+        <v>77.142889999999994</v>
       </c>
       <c r="F6" s="18">
-        <v>8.009385</v>
+        <v>7.9600014999999997</v>
       </c>
       <c r="K6" s="18">
-        <v>718.19629999999995</v>
+        <v>725.7559</v>
       </c>
       <c r="M6" s="18">
         <v>100</v>
@@ -1190,19 +1212,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="18">
-        <v>137.74715</v>
+        <v>142.34470999999999</v>
       </c>
       <c r="D7" s="18">
-        <v>47.31664</v>
+        <v>44.515210000000003</v>
       </c>
       <c r="E7" s="18">
-        <v>77.322845000000001</v>
+        <v>74.622169999999997</v>
       </c>
       <c r="F7" s="18">
-        <v>7.9776049999999996</v>
+        <v>7.9978179999999996</v>
       </c>
       <c r="K7" s="18">
-        <v>705.36670000000004</v>
+        <v>710.96960000000001</v>
       </c>
       <c r="M7" s="18">
         <v>100</v>
@@ -1216,19 +1238,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="18">
-        <v>118.364136</v>
+        <v>123.20140000000001</v>
       </c>
       <c r="D8" s="18">
-        <v>52.475918</v>
+        <v>46.794662000000002</v>
       </c>
       <c r="E8" s="18">
-        <v>88.067850000000007</v>
+        <v>78.597149999999999</v>
       </c>
       <c r="F8" s="18">
-        <v>9.0101580000000006</v>
+        <v>8.0108529999999991</v>
       </c>
       <c r="K8" s="18">
-        <v>710.69353999999998</v>
+        <v>706.41063999999994</v>
       </c>
       <c r="M8" s="18">
         <v>100</v>
@@ -1242,19 +1264,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>127.27128</v>
+        <v>111.236046</v>
       </c>
       <c r="D9" s="18">
-        <v>46.444285999999998</v>
+        <v>37.811497000000003</v>
       </c>
       <c r="E9" s="18">
-        <v>73.649240000000006</v>
+        <v>76.922619999999995</v>
       </c>
       <c r="F9" s="18">
-        <v>8.0190979999999996</v>
+        <v>8.0013590000000008</v>
       </c>
       <c r="K9" s="18">
-        <v>707.11144999999999</v>
+        <v>724.37699999999995</v>
       </c>
       <c r="M9" s="18">
         <v>100</v>
@@ -1268,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="18">
-        <v>125.54488000000001</v>
+        <v>129.63593</v>
       </c>
       <c r="D10" s="18">
-        <v>41.448729999999998</v>
+        <v>55.729636999999997</v>
       </c>
       <c r="E10" s="18">
-        <v>76.26634</v>
+        <v>77.374830000000003</v>
       </c>
       <c r="F10" s="18">
-        <v>8.0136669999999999</v>
+        <v>7.9860414999999998</v>
       </c>
       <c r="K10" s="18">
-        <v>717.10253999999998</v>
+        <v>688.54070000000002</v>
       </c>
       <c r="M10" s="18">
         <v>100</v>
@@ -1294,19 +1316,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="18">
-        <v>109.45347</v>
+        <v>139.22781000000001</v>
       </c>
       <c r="D11" s="18">
-        <v>41.660933999999997</v>
+        <v>50.612769999999998</v>
       </c>
       <c r="E11" s="18">
-        <v>75.565449999999998</v>
+        <v>77.831314000000006</v>
       </c>
       <c r="F11" s="18">
-        <v>7.9995117000000002</v>
+        <v>8.0091059999999992</v>
       </c>
       <c r="K11" s="18">
-        <v>716.67809999999997</v>
+        <v>698.77449999999999</v>
       </c>
       <c r="M11" s="18">
         <v>100</v>
@@ -1320,19 +1342,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="18">
-        <v>126.89019999999999</v>
+        <v>151.81993</v>
       </c>
       <c r="D12" s="18">
-        <v>43.829535999999997</v>
+        <v>48.26491</v>
       </c>
       <c r="E12" s="18">
-        <v>77.245329999999996</v>
+        <v>78.858765000000005</v>
       </c>
       <c r="F12" s="18">
-        <v>8.0047800000000002</v>
+        <v>8.0003759999999993</v>
       </c>
       <c r="K12" s="18">
-        <v>712.34094000000005</v>
+        <v>703.47014999999999</v>
       </c>
       <c r="M12" s="18">
         <v>100</v>
@@ -1346,19 +1368,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>134.02562</v>
+        <v>155.74966000000001</v>
       </c>
       <c r="D13" s="18">
-        <v>49.248460000000001</v>
+        <v>53.621516999999997</v>
       </c>
       <c r="E13" s="18">
-        <v>74.838989999999995</v>
+        <v>77.00367</v>
       </c>
       <c r="F13" s="18">
-        <v>8.0004019999999993</v>
+        <v>8.0008800000000004</v>
       </c>
       <c r="K13" s="18">
-        <v>701.50305000000003</v>
+        <v>692.75696000000005</v>
       </c>
       <c r="M13" s="18">
         <v>100</v>
@@ -1372,19 +1394,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>133.78432000000001</v>
+        <v>141.49474000000001</v>
       </c>
       <c r="D14" s="18">
-        <v>48.374389999999998</v>
+        <v>52.163550000000001</v>
       </c>
       <c r="E14" s="18">
-        <v>77.741219999999998</v>
+        <v>75.97466</v>
       </c>
       <c r="F14" s="18">
-        <v>7.9843590000000004</v>
+        <v>7.9885010000000003</v>
       </c>
       <c r="K14" s="18">
-        <v>703.25120000000004</v>
+        <v>695.67290000000003</v>
       </c>
       <c r="M14" s="18">
         <v>100</v>
@@ -1398,19 +1420,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="18">
-        <v>108.90177</v>
+        <v>106.41463</v>
       </c>
       <c r="D15" s="18">
-        <v>45.582703000000002</v>
+        <v>36.657173</v>
       </c>
       <c r="E15" s="18">
-        <v>73.210549999999998</v>
+        <v>78.171589999999995</v>
       </c>
       <c r="F15" s="18">
-        <v>8.0081579999999999</v>
+        <v>7.9723740000000003</v>
       </c>
       <c r="K15" s="18">
-        <v>708.83460000000002</v>
+        <v>726.68566999999996</v>
       </c>
       <c r="M15" s="18">
         <v>100</v>
@@ -1424,19 +1446,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="18">
-        <v>113.86400999999999</v>
+        <v>142.38353000000001</v>
       </c>
       <c r="D16" s="18">
-        <v>38.289616000000002</v>
+        <v>50.183889999999998</v>
       </c>
       <c r="E16" s="18">
-        <v>83.648960000000002</v>
+        <v>74.953864999999993</v>
       </c>
       <c r="F16" s="18">
-        <v>9.0395564999999998</v>
+        <v>7.9792313999999998</v>
       </c>
       <c r="K16" s="18">
-        <v>739.53049999999996</v>
+        <v>699.63220000000001</v>
       </c>
       <c r="M16" s="18">
         <v>100</v>
@@ -1450,19 +1472,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="18">
-        <v>122.1007</v>
+        <v>110.689735</v>
       </c>
       <c r="D17" s="18">
-        <v>44.452522000000002</v>
+        <v>46.281925000000001</v>
       </c>
       <c r="E17" s="18">
-        <v>76.325010000000006</v>
+        <v>85.767859999999999</v>
       </c>
       <c r="F17" s="18">
-        <v>8.0273380000000003</v>
+        <v>9.0213180000000008</v>
       </c>
       <c r="K17" s="18">
-        <v>711.09500000000003</v>
+        <v>722.46019999999999</v>
       </c>
       <c r="M17" s="18">
         <v>100</v>
@@ -1476,19 +1498,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="18">
-        <v>165.63802000000001</v>
+        <v>118.02800999999999</v>
       </c>
       <c r="D18" s="18">
-        <v>53.602443999999998</v>
+        <v>42.199787000000001</v>
       </c>
       <c r="E18" s="18">
-        <v>98.436750000000004</v>
+        <v>85.384079999999997</v>
       </c>
       <c r="F18" s="18">
-        <v>9.9781700000000004</v>
+        <v>9.019361</v>
       </c>
       <c r="K18" s="18">
-        <v>731.49132999999995</v>
+        <v>731.32069999999999</v>
       </c>
       <c r="M18" s="18">
         <v>100</v>
@@ -1502,19 +1524,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="18">
-        <v>108.18828999999999</v>
+        <v>124.61941</v>
       </c>
       <c r="D19" s="18">
-        <v>51.057250000000003</v>
+        <v>43.461326999999997</v>
       </c>
       <c r="E19" s="18">
-        <v>87.813649999999996</v>
+        <v>77.222920000000002</v>
       </c>
       <c r="F19" s="18">
-        <v>8.9786149999999996</v>
+        <v>8.0235339999999997</v>
       </c>
       <c r="K19" s="18">
-        <v>713.38289999999995</v>
+        <v>713.07732999999996</v>
       </c>
       <c r="M19" s="18">
         <v>100</v>
@@ -1528,19 +1550,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>137.63412</v>
+        <v>119.18673</v>
       </c>
       <c r="D20" s="18">
-        <v>41.401066</v>
+        <v>39.192990000000002</v>
       </c>
       <c r="E20" s="18">
-        <v>76.398759999999996</v>
+        <v>81.56635</v>
       </c>
       <c r="F20" s="18">
-        <v>7.9776100000000003</v>
+        <v>8.0124809999999993</v>
       </c>
       <c r="K20" s="18">
-        <v>717.1979</v>
+        <v>721.61400000000003</v>
       </c>
       <c r="M20" s="18">
         <v>100</v>
@@ -1554,19 +1576,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="18">
-        <v>130.74227999999999</v>
+        <v>98.772229999999993</v>
       </c>
       <c r="D21" s="18">
-        <v>43.446044999999998</v>
+        <v>46.008057000000001</v>
       </c>
       <c r="E21" s="18">
-        <v>78.230429999999998</v>
+        <v>75.078320000000005</v>
       </c>
       <c r="F21" s="18">
-        <v>8.0166120000000003</v>
+        <v>7.9881883</v>
       </c>
       <c r="K21" s="18">
-        <v>713.10789999999997</v>
+        <v>707.98389999999995</v>
       </c>
       <c r="M21" s="18">
         <v>100</v>
@@ -1580,19 +1602,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>126.91028</v>
+        <v>132.44713999999999</v>
       </c>
       <c r="D22" s="18">
-        <v>43.183605</v>
+        <v>40.067608</v>
       </c>
       <c r="E22" s="18">
-        <v>76.95093</v>
+        <v>78.869129999999998</v>
       </c>
       <c r="F22" s="18">
-        <v>7.9798235999999996</v>
+        <v>7.976801</v>
       </c>
       <c r="K22" s="18">
-        <v>713.63279999999997</v>
+        <v>719.86479999999995</v>
       </c>
       <c r="M22" s="18">
         <v>100</v>
@@ -1606,19 +1628,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="18">
-        <v>144.82007999999999</v>
+        <v>118.59395000000001</v>
       </c>
       <c r="D23" s="18">
-        <v>53.43741</v>
+        <v>43.919440000000002</v>
       </c>
       <c r="E23" s="18">
-        <v>74.243390000000005</v>
+        <v>73.816159999999996</v>
       </c>
       <c r="F23" s="18">
-        <v>7.9886694</v>
+        <v>8.0196690000000004</v>
       </c>
       <c r="K23" s="18">
-        <v>693.12519999999995</v>
+        <v>712.16112999999996</v>
       </c>
       <c r="M23" s="18">
         <v>100</v>
@@ -1632,19 +1654,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="18">
-        <v>148.59251</v>
+        <v>118.14798999999999</v>
       </c>
       <c r="D24" s="18">
-        <v>49.49738</v>
+        <v>38.18356</v>
       </c>
       <c r="E24" s="18">
-        <v>77.158553999999995</v>
+        <v>90.292270000000002</v>
       </c>
       <c r="F24" s="18">
-        <v>8.0243179999999992</v>
+        <v>9.0146359999999994</v>
       </c>
       <c r="K24" s="18">
-        <v>701.00525000000005</v>
+        <v>746.01049999999998</v>
       </c>
       <c r="M24" s="18">
         <v>100</v>
@@ -1658,19 +1680,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="18">
-        <v>122.91888400000001</v>
+        <v>116.82781</v>
       </c>
       <c r="D25" s="18">
-        <v>47.123800000000003</v>
+        <v>50.057310000000001</v>
       </c>
       <c r="E25" s="18">
-        <v>77.850149999999999</v>
+        <v>86.479830000000007</v>
       </c>
       <c r="F25" s="18">
-        <v>8.0076049999999999</v>
+        <v>9.035444</v>
       </c>
       <c r="K25" s="18">
-        <v>705.75239999999997</v>
+        <v>716.04094999999995</v>
       </c>
       <c r="M25" s="18">
         <v>100</v>
@@ -1684,19 +1706,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="18">
-        <v>135.23670999999999</v>
+        <v>153.65235999999999</v>
       </c>
       <c r="D26" s="18">
-        <v>39.334420000000001</v>
+        <v>46.635666000000001</v>
       </c>
       <c r="E26" s="18">
-        <v>89.839164999999994</v>
+        <v>78.034800000000004</v>
       </c>
       <c r="F26" s="18">
-        <v>9.0013970000000008</v>
+        <v>8.0249740000000003</v>
       </c>
       <c r="K26" s="18">
-        <v>738.23974999999996</v>
+        <v>706.72864000000004</v>
       </c>
       <c r="M26" s="18">
         <v>100</v>
@@ -1710,19 +1732,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="18">
-        <v>109.7816</v>
+        <v>109.07637</v>
       </c>
       <c r="D27" s="18">
-        <v>45.311480000000003</v>
+        <v>42.182236000000003</v>
       </c>
       <c r="E27" s="18">
-        <v>78.970429999999993</v>
+        <v>73.459639999999993</v>
       </c>
       <c r="F27" s="18">
-        <v>8.0432220000000001</v>
+        <v>8.0036140000000007</v>
       </c>
       <c r="K27" s="18">
-        <v>709.37699999999995</v>
+        <v>715.63549999999998</v>
       </c>
       <c r="M27" s="18">
         <v>100</v>
@@ -1736,19 +1758,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="18">
-        <v>119.38705400000001</v>
+        <v>135.35026999999999</v>
       </c>
       <c r="D28" s="18">
-        <v>48.028365999999998</v>
+        <v>45.072375999999998</v>
       </c>
       <c r="E28" s="18">
-        <v>79.931169999999995</v>
+        <v>76.827866</v>
       </c>
       <c r="F28" s="18">
-        <v>8.9424489999999999</v>
+        <v>7.9899639999999996</v>
       </c>
       <c r="K28" s="18">
-        <v>721.55349999999999</v>
+        <v>709.85519999999997</v>
       </c>
       <c r="M28" s="18">
         <v>100</v>
@@ -1762,19 +1784,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="18">
-        <v>146.54349999999999</v>
+        <v>105.52278</v>
       </c>
       <c r="D29" s="18">
-        <v>52.518836999999998</v>
+        <v>36.745037000000004</v>
       </c>
       <c r="E29" s="18">
-        <v>79.242829999999998</v>
+        <v>77.855819999999994</v>
       </c>
       <c r="F29" s="18">
-        <v>7.996505</v>
+        <v>7.9503019999999998</v>
       </c>
       <c r="K29" s="18">
-        <v>694.96234000000004</v>
+        <v>726.50995</v>
       </c>
       <c r="M29" s="18">
         <v>100</v>
@@ -1788,19 +1810,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="18">
-        <v>139.75409999999999</v>
+        <v>115.964294</v>
       </c>
       <c r="D30" s="18">
-        <v>51.699959999999997</v>
+        <v>44.617027</v>
       </c>
       <c r="E30" s="18">
-        <v>78.754559999999998</v>
+        <v>75.273409999999998</v>
       </c>
       <c r="F30" s="18">
-        <v>7.9949810000000001</v>
+        <v>7.9424359999999998</v>
       </c>
       <c r="K30" s="18">
-        <v>696.6001</v>
+        <v>710.76589999999999</v>
       </c>
       <c r="M30" s="18">
         <v>100</v>
@@ -1814,19 +1836,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="18">
-        <v>157.57605000000001</v>
+        <v>114.64321</v>
       </c>
       <c r="D31" s="18">
-        <v>56.569378</v>
+        <v>42.078518000000003</v>
       </c>
       <c r="E31" s="18">
-        <v>80.019319999999993</v>
+        <v>78.909710000000004</v>
       </c>
       <c r="F31" s="18">
-        <v>8.0171200000000002</v>
+        <v>7.9976373000000001</v>
       </c>
       <c r="K31" s="18">
-        <v>686.86126999999999</v>
+        <v>715.84295999999995</v>
       </c>
       <c r="M31" s="18">
         <v>100</v>
@@ -1840,19 +1862,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="18">
-        <v>125.09299</v>
+        <v>139.91295</v>
       </c>
       <c r="D32" s="18">
-        <v>36.266551999999997</v>
+        <v>38.066783999999998</v>
       </c>
       <c r="E32" s="18">
-        <v>87.739586000000003</v>
+        <v>79.27234</v>
       </c>
       <c r="F32" s="18">
-        <v>8.9748129999999993</v>
+        <v>7.9962983000000003</v>
       </c>
       <c r="K32" s="18">
-        <v>748.93809999999996</v>
+        <v>723.86645999999996</v>
       </c>
       <c r="M32" s="18">
         <v>100</v>
@@ -1866,19 +1888,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="18">
-        <v>108.51058999999999</v>
+        <v>117.16043000000001</v>
       </c>
       <c r="D33" s="18">
-        <v>38.875476999999997</v>
+        <v>43.681064999999997</v>
       </c>
       <c r="E33" s="18">
-        <v>78.112976000000003</v>
+        <v>82.085814999999997</v>
       </c>
       <c r="F33" s="18">
-        <v>8.0105719999999998</v>
+        <v>7.9992739999999998</v>
       </c>
       <c r="K33" s="18">
-        <v>722.24900000000002</v>
+        <v>712.63789999999995</v>
       </c>
       <c r="M33" s="18">
         <v>100</v>
@@ -1892,19 +1914,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="18">
-        <v>110.276794</v>
+        <v>123.2475</v>
       </c>
       <c r="D34" s="18">
-        <v>47.25018</v>
+        <v>50.868189999999998</v>
       </c>
       <c r="E34" s="18">
-        <v>71.944770000000005</v>
+        <v>77.667919999999995</v>
       </c>
       <c r="F34" s="18">
-        <v>8.0000079999999993</v>
+        <v>7.9826883999999998</v>
       </c>
       <c r="K34" s="18">
-        <v>705.49963000000002</v>
+        <v>698.2636</v>
       </c>
       <c r="M34" s="18">
         <v>100</v>
@@ -1918,19 +1940,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="18">
-        <v>119.11449</v>
+        <v>152.38873000000001</v>
       </c>
       <c r="D35" s="18">
-        <v>38.610602999999998</v>
+        <v>47.129306999999997</v>
       </c>
       <c r="E35" s="18">
-        <v>78.134770000000003</v>
+        <v>80.032859999999999</v>
       </c>
       <c r="F35" s="18">
-        <v>7.9839783000000004</v>
+        <v>8.0035170000000004</v>
       </c>
       <c r="K35" s="18">
-        <v>722.77880000000005</v>
+        <v>705.7414</v>
       </c>
       <c r="M35" s="18">
         <v>100</v>
@@ -1944,19 +1966,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="18">
-        <v>124.87481</v>
+        <v>139.91890000000001</v>
       </c>
       <c r="D36" s="18">
-        <v>48.643154000000003</v>
+        <v>52.046813999999998</v>
       </c>
       <c r="E36" s="18">
-        <v>86.28801</v>
+        <v>77.224999999999994</v>
       </c>
       <c r="F36" s="18">
-        <v>9.0036339999999999</v>
+        <v>7.9858560000000001</v>
       </c>
       <c r="K36" s="18">
-        <v>720.76260000000002</v>
+        <v>695.90639999999996</v>
       </c>
       <c r="M36" s="18">
         <v>100</v>
@@ -1970,541 +1992,21 @@
         <v>35</v>
       </c>
       <c r="C37" s="18">
-        <v>127.80897</v>
+        <v>123.63621000000001</v>
       </c>
       <c r="D37" s="18">
-        <v>44.728476999999998</v>
+        <v>50.445835000000002</v>
       </c>
       <c r="E37" s="18">
-        <v>81.341576000000003</v>
+        <v>86.972830000000002</v>
       </c>
       <c r="F37" s="18">
-        <v>9.0585470000000008</v>
+        <v>8.9744960000000003</v>
       </c>
       <c r="K37" s="18">
-        <v>729.66594999999995</v>
+        <v>718.04570000000001</v>
       </c>
       <c r="M37" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="18">
-        <v>122.87253</v>
-      </c>
-      <c r="D38" s="18">
-        <v>40.520355000000002</v>
-      </c>
-      <c r="E38" s="18">
-        <v>75.309629999999999</v>
-      </c>
-      <c r="F38" s="18">
-        <v>8.0469779999999993</v>
-      </c>
-      <c r="K38" s="18">
-        <v>718.95929999999998</v>
-      </c>
-      <c r="M38" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="18">
-        <v>116.60004000000001</v>
-      </c>
-      <c r="D39" s="18">
-        <v>38.484721999999998</v>
-      </c>
-      <c r="E39" s="18">
-        <v>73.10521</v>
-      </c>
-      <c r="F39" s="18">
-        <v>8.0452290000000009</v>
-      </c>
-      <c r="K39" s="18">
-        <v>723.03060000000005</v>
-      </c>
-      <c r="M39" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="18">
-        <v>115.304016</v>
-      </c>
-      <c r="D40" s="18">
-        <v>42.960920000000002</v>
-      </c>
-      <c r="E40" s="18">
-        <v>76.778274999999994</v>
-      </c>
-      <c r="F40" s="18">
-        <v>8.0210609999999996</v>
-      </c>
-      <c r="K40" s="18">
-        <v>714.07820000000004</v>
-      </c>
-      <c r="M40" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="18">
-        <v>125.60424999999999</v>
-      </c>
-      <c r="D41" s="18">
-        <v>40.520355000000002</v>
-      </c>
-      <c r="E41" s="18">
-        <v>84.124793999999994</v>
-      </c>
-      <c r="F41" s="18">
-        <v>9.0426249999999992</v>
-      </c>
-      <c r="K41" s="18">
-        <v>735.23490000000004</v>
-      </c>
-      <c r="M41" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="18">
-        <v>125.14857000000001</v>
-      </c>
-      <c r="D42" s="18">
-        <v>37.637794</v>
-      </c>
-      <c r="E42" s="18">
-        <v>76.303730000000002</v>
-      </c>
-      <c r="F42" s="18">
-        <v>8.0127790000000001</v>
-      </c>
-      <c r="K42" s="18">
-        <v>724.72439999999995</v>
-      </c>
-      <c r="M42" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="18">
-        <v>122.65221</v>
-      </c>
-      <c r="D43" s="18">
-        <v>45.914096999999998</v>
-      </c>
-      <c r="E43" s="18">
-        <v>79.849106000000006</v>
-      </c>
-      <c r="F43" s="18">
-        <v>8.969595</v>
-      </c>
-      <c r="K43" s="18">
-        <v>728.84406000000001</v>
-      </c>
-      <c r="M43" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="18">
-        <v>125.201324</v>
-      </c>
-      <c r="D44" s="18">
-        <v>46.192504999999997</v>
-      </c>
-      <c r="E44" s="18">
-        <v>79.903655999999998</v>
-      </c>
-      <c r="F44" s="18">
-        <v>8.9693164999999997</v>
-      </c>
-      <c r="K44" s="18">
-        <v>728.56322999999998</v>
-      </c>
-      <c r="M44" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="18">
-        <v>130.11547999999999</v>
-      </c>
-      <c r="D45" s="18">
-        <v>46.154305000000001</v>
-      </c>
-      <c r="E45" s="18">
-        <v>95.046570000000003</v>
-      </c>
-      <c r="F45" s="18">
-        <v>9.9762540000000008</v>
-      </c>
-      <c r="K45" s="18">
-        <v>741.55309999999997</v>
-      </c>
-      <c r="M45" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="18">
-        <v>125.138565</v>
-      </c>
-      <c r="D46" s="18">
-        <v>38.593530000000001</v>
-      </c>
-      <c r="E46" s="18">
-        <v>90.519630000000006</v>
-      </c>
-      <c r="F46" s="18">
-        <v>9.0256030000000003</v>
-      </c>
-      <c r="K46" s="18">
-        <v>739.78030000000001</v>
-      </c>
-      <c r="M46" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="18">
-        <v>123.05977</v>
-      </c>
-      <c r="D47" s="18">
-        <v>44.664974000000001</v>
-      </c>
-      <c r="E47" s="18">
-        <v>80.379180000000005</v>
-      </c>
-      <c r="F47" s="18">
-        <v>9.0604750000000003</v>
-      </c>
-      <c r="K47" s="18">
-        <v>729.84533999999996</v>
-      </c>
-      <c r="M47" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="18">
-        <v>122.81126399999999</v>
-      </c>
-      <c r="D48" s="18">
-        <v>45.075522999999997</v>
-      </c>
-      <c r="E48" s="18">
-        <v>80.910160000000005</v>
-      </c>
-      <c r="F48" s="18">
-        <v>9.0577299999999994</v>
-      </c>
-      <c r="K48" s="18">
-        <v>729.76900000000001</v>
-      </c>
-      <c r="M48" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="18">
-        <v>127.93747</v>
-      </c>
-      <c r="D49" s="18">
-        <v>44.805855000000001</v>
-      </c>
-      <c r="E49" s="18">
-        <v>81.446190000000001</v>
-      </c>
-      <c r="F49" s="18">
-        <v>9.0533649999999994</v>
-      </c>
-      <c r="K49" s="18">
-        <v>729.51120000000003</v>
-      </c>
-      <c r="M49" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="18">
-        <v>123.33280000000001</v>
-      </c>
-      <c r="D50" s="18">
-        <v>43.390880000000003</v>
-      </c>
-      <c r="E50" s="18">
-        <v>90.482994000000005</v>
-      </c>
-      <c r="F50" s="18">
-        <v>10.056438999999999</v>
-      </c>
-      <c r="K50" s="18">
-        <v>748.5335</v>
-      </c>
-      <c r="M50" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="18">
-        <v>130.97716</v>
-      </c>
-      <c r="D51" s="18">
-        <v>48.032997000000002</v>
-      </c>
-      <c r="E51" s="18">
-        <v>84.908749999999998</v>
-      </c>
-      <c r="F51" s="18">
-        <v>8.971622</v>
-      </c>
-      <c r="K51" s="18">
-        <v>721.93719999999996</v>
-      </c>
-      <c r="M51" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="18">
-        <v>131.14478</v>
-      </c>
-      <c r="D52" s="18">
-        <v>43.804366999999999</v>
-      </c>
-      <c r="E52" s="18">
-        <v>94.296524000000005</v>
-      </c>
-      <c r="F52" s="18">
-        <v>9.9780949999999997</v>
-      </c>
-      <c r="K52" s="18">
-        <v>748.9674</v>
-      </c>
-      <c r="M52" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="18">
-        <v>130.23972000000001</v>
-      </c>
-      <c r="D53" s="18">
-        <v>44.580350000000003</v>
-      </c>
-      <c r="E53" s="18">
-        <v>84.410929999999993</v>
-      </c>
-      <c r="F53" s="18">
-        <v>8.9810470000000002</v>
-      </c>
-      <c r="K53" s="18">
-        <v>726.62840000000006</v>
-      </c>
-      <c r="M53" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="18">
-        <v>126.632515</v>
-      </c>
-      <c r="D54" s="18">
-        <v>47.314450000000001</v>
-      </c>
-      <c r="E54" s="18">
-        <v>94.831400000000002</v>
-      </c>
-      <c r="F54" s="18">
-        <v>9.9770509999999994</v>
-      </c>
-      <c r="K54" s="18">
-        <v>741.90160000000003</v>
-      </c>
-      <c r="M54" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="18">
-        <v>127.40380999999999</v>
-      </c>
-      <c r="D55" s="18">
-        <v>48.032997000000002</v>
-      </c>
-      <c r="E55" s="18">
-        <v>94.538449999999997</v>
-      </c>
-      <c r="F55" s="18">
-        <v>9.9781089999999999</v>
-      </c>
-      <c r="K55" s="18">
-        <v>738.20190000000002</v>
-      </c>
-      <c r="M55" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="18">
-        <v>131.53675999999999</v>
-      </c>
-      <c r="D56" s="18">
-        <v>46.861065000000004</v>
-      </c>
-      <c r="E56" s="18">
-        <v>96.257360000000006</v>
-      </c>
-      <c r="F56" s="18">
-        <v>9.9747880000000002</v>
-      </c>
-      <c r="K56" s="18">
-        <v>740.13959999999997</v>
-      </c>
-      <c r="M56" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="18">
-        <v>123.55197</v>
-      </c>
-      <c r="D57" s="18">
-        <v>48.032997000000002</v>
-      </c>
-      <c r="E57" s="18">
-        <v>84.989295999999996</v>
-      </c>
-      <c r="F57" s="18">
-        <v>8.9743700000000004</v>
-      </c>
-      <c r="K57" s="18">
-        <v>723.80799999999999</v>
-      </c>
-      <c r="M57" s="18">
         <v>100</v>
       </c>
     </row>
@@ -2515,7 +2017,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -2576,116 +2078,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>127.6908</v>
-      </c>
-      <c r="C2" s="15">
-        <v>45.704543999999999</v>
-      </c>
-      <c r="D2" s="15">
-        <v>79.6828</v>
-      </c>
-      <c r="E2" s="15">
-        <v>8.2866590000000002</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>713.62829999999997</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>125.88337</v>
+      </c>
+      <c r="C2" s="30">
+        <v>44.496639999999999</v>
+      </c>
+      <c r="D2" s="30">
+        <v>78.771324000000007</v>
+      </c>
+      <c r="E2" s="30">
+        <v>8.1114180000000005</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30">
+        <v>0</v>
+      </c>
+      <c r="J2" s="30">
+        <v>712.98609999999996</v>
+      </c>
+      <c r="K2" s="30">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>123.64458999999999</v>
-      </c>
-      <c r="C3" s="16">
-        <v>42.170707999999998</v>
-      </c>
-      <c r="D3" s="16">
-        <v>81.228219999999993</v>
-      </c>
-      <c r="E3" s="16">
-        <v>8.716799</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>728.4434</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>127.148</v>
-      </c>
-      <c r="C4" s="16">
-        <v>45.872402000000001</v>
-      </c>
-      <c r="D4" s="16">
-        <v>87.950130000000001</v>
-      </c>
-      <c r="E4" s="16">
-        <v>9.4602810000000002</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>734.47670000000005</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="B3" s="28">
+        <v>123.63621000000001</v>
+      </c>
+      <c r="C3" s="28">
+        <v>50.445835000000002</v>
+      </c>
+      <c r="D3" s="28">
+        <v>86.972830000000002</v>
+      </c>
+      <c r="E3" s="28">
+        <v>8.9744960000000003</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>718.04570000000001</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31">
         <v>100</v>
       </c>
     </row>
@@ -2696,7 +2160,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
@@ -2743,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="23">
-        <v>52</v>
+        <v>-51</v>
       </c>
       <c r="D2" s="23">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E2" s="23">
         <v>0</v>
       </c>
       <c r="F2" s="19">
-        <v>9.9998179999999994</v>
+        <v>9.9978130000000007</v>
       </c>
       <c r="G2" s="19">
-        <v>99.989249999999998</v>
+        <v>99.988439999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,19 +2230,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24">
-        <v>-47</v>
+        <v>-11</v>
       </c>
       <c r="D3" s="24">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E3" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
-        <v>10.006411</v>
+        <v>10.000128</v>
       </c>
       <c r="G3" s="18">
-        <v>99.994445999999996</v>
+        <v>100.00439</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2789,19 +2253,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="24">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" s="24">
-        <v>55</v>
+        <v>-48</v>
       </c>
       <c r="E4" s="24">
         <v>0</v>
       </c>
       <c r="F4" s="18">
-        <v>9.9882790000000004</v>
+        <v>10.003603</v>
       </c>
       <c r="G4" s="18">
-        <v>100.00116</v>
+        <v>100.00176</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,19 +2276,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="24">
-        <v>53</v>
+        <v>-28</v>
       </c>
       <c r="D5" s="24">
-        <v>16</v>
+        <v>-48</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <v>9.9871549999999996</v>
+        <v>10.00803</v>
       </c>
       <c r="G5" s="18">
-        <v>100.00020600000001</v>
+        <v>99.996444999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="24">
-        <v>19</v>
+        <v>-56</v>
       </c>
       <c r="D6" s="24">
-        <v>-52</v>
+        <v>1</v>
       </c>
       <c r="E6" s="24">
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <v>9.9903650000000006</v>
+        <v>9.9947320000000008</v>
       </c>
       <c r="G6" s="18">
-        <v>99.996809999999996</v>
+        <v>100.012</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,19 +2322,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="24">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="D7" s="24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="24">
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>9.9976260000000003</v>
+        <v>9.9995259999999995</v>
       </c>
       <c r="G7" s="18">
-        <v>100.01178</v>
+        <v>100.01636000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,19 +2345,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="24">
-        <v>-32</v>
+        <v>-7</v>
       </c>
       <c r="D8" s="24">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E8" s="24">
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>10.004526</v>
+        <v>9.9959159999999994</v>
       </c>
       <c r="G8" s="18">
-        <v>99.994560000000007</v>
+        <v>99.997055000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,19 +2368,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <v>-55</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="24">
-        <v>9</v>
+        <v>-56</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>9.9994779999999999</v>
+        <v>9.9947680000000005</v>
       </c>
       <c r="G9" s="18">
-        <v>100.00747</v>
+        <v>99.992630000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <v>35</v>
+        <v>-26</v>
       </c>
       <c r="D10" s="24">
-        <v>-43</v>
+        <v>49</v>
       </c>
       <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>10.016126999999999</v>
+        <v>9.9823885000000008</v>
       </c>
       <c r="G10" s="18">
-        <v>100.00363</v>
+        <v>100.00876</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,19 +2414,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="24">
-        <v>-28</v>
+        <v>49</v>
       </c>
       <c r="D11" s="24">
-        <v>48</v>
+        <v>-26</v>
       </c>
       <c r="E11" s="24">
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>9.9996510000000001</v>
+        <v>9.9994759999999996</v>
       </c>
       <c r="G11" s="18">
-        <v>99.995769999999993</v>
+        <v>100.00697</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,19 +2437,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="24">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="24">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>10.003169</v>
+        <v>9.9865659999999998</v>
       </c>
       <c r="G12" s="18">
-        <v>100.00594</v>
+        <v>100.000854</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,19 +2460,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="24">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="D13" s="24">
-        <v>-55</v>
+        <v>-39</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <v>9.9969909999999995</v>
+        <v>9.9993029999999994</v>
       </c>
       <c r="G13" s="18">
-        <v>100.00095</v>
+        <v>100.00461</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,19 +2483,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="24">
-        <v>45</v>
+        <v>-55</v>
       </c>
       <c r="D14" s="24">
-        <v>-33</v>
+        <v>-8</v>
       </c>
       <c r="E14" s="24">
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>10.004502</v>
+        <v>10.000647000000001</v>
       </c>
       <c r="G14" s="18">
-        <v>100.00287</v>
+        <v>100.00889599999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3042,19 +2506,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="24">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D15" s="24">
-        <v>12</v>
+        <v>-33</v>
       </c>
       <c r="E15" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="18">
-        <v>9.9863929999999996</v>
+        <v>10.009425</v>
       </c>
       <c r="G15" s="18">
-        <v>100.00058</v>
+        <v>99.997219999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,19 +2529,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <v>-43</v>
+        <v>29</v>
       </c>
       <c r="D16" s="24">
-        <v>35</v>
+        <v>-47</v>
       </c>
       <c r="E16" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="18">
-        <v>9.9935860000000005</v>
+        <v>9.9955809999999996</v>
       </c>
       <c r="G16" s="18">
-        <v>100.00668</v>
+        <v>99.992810000000006</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,19 +2552,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="24">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D17" s="24">
-        <v>-56</v>
+        <v>-24</v>
       </c>
       <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <v>10.002950999999999</v>
+        <v>9.9976099999999999</v>
       </c>
       <c r="G17" s="18">
-        <v>99.995819999999995</v>
+        <v>99.995890000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,19 +2575,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="24">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D18" s="24">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="24">
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>10.00404</v>
+        <v>9.9917090000000002</v>
       </c>
       <c r="G18" s="18">
-        <v>99.988624999999999</v>
+        <v>99.993774000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="24">
         <v>-54</v>
@@ -3143,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <v>10.004651000000001</v>
+        <v>9.9977099999999997</v>
       </c>
       <c r="G19" s="18">
-        <v>99.995804000000007</v>
+        <v>99.987229999999997</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,19 +2621,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <v>41</v>
+        <v>-19</v>
       </c>
       <c r="D20" s="24">
-        <v>38</v>
+        <v>-52</v>
       </c>
       <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>10.008589000000001</v>
+        <v>10.004908</v>
       </c>
       <c r="G20" s="18">
-        <v>100.00109</v>
+        <v>100.00874</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,19 +2644,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <v>6</v>
+        <v>-12</v>
       </c>
       <c r="D21" s="24">
-        <v>55</v>
+        <v>-54</v>
       </c>
       <c r="E21" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21" s="18">
-        <v>10.009644</v>
+        <v>9.9994259999999997</v>
       </c>
       <c r="G21" s="18">
-        <v>100.00522599999999</v>
+        <v>99.999189999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3203,19 +2667,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="24">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D22" s="24">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E22" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="18">
-        <v>9.9882609999999996</v>
+        <v>9.9976380000000002</v>
       </c>
       <c r="G22" s="18">
-        <v>99.995999999999995</v>
+        <v>100.00212999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,19 +2690,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="24">
-        <v>2</v>
+        <v>-56</v>
       </c>
       <c r="D23" s="24">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E23" s="24">
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <v>10.004887999999999</v>
+        <v>10.006866</v>
       </c>
       <c r="G23" s="18">
-        <v>100.01124</v>
+        <v>99.985900000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,19 +2713,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="24">
-        <v>36</v>
+        <v>-20</v>
       </c>
       <c r="D24" s="24">
-        <v>-42</v>
+        <v>-52</v>
       </c>
       <c r="E24" s="24">
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <v>10.002972</v>
+        <v>9.9845670000000002</v>
       </c>
       <c r="G24" s="18">
-        <v>100.00761</v>
+        <v>99.999099999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3272,19 +2736,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="24">
-        <v>29</v>
+        <v>-11</v>
       </c>
       <c r="D25" s="24">
-        <v>48</v>
+        <v>-55</v>
       </c>
       <c r="E25" s="24">
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <v>10.008687</v>
+        <v>10.001355999999999</v>
       </c>
       <c r="G25" s="18">
-        <v>99.995186000000004</v>
+        <v>99.996899999999997</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,19 +2759,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="24">
-        <v>-28</v>
+        <v>34</v>
       </c>
       <c r="D26" s="24">
-        <v>-48</v>
+        <v>-44</v>
       </c>
       <c r="E26" s="24">
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <v>10.006956000000001</v>
+        <v>9.9946859999999997</v>
       </c>
       <c r="G26" s="18">
-        <v>100.00756</v>
+        <v>99.983185000000006</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3318,19 +2782,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="24">
-        <v>-19</v>
+        <v>26</v>
       </c>
       <c r="D27" s="24">
-        <v>52</v>
+        <v>-49</v>
       </c>
       <c r="E27" s="24">
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <v>9.9981980000000004</v>
+        <v>9.9997190000000007</v>
       </c>
       <c r="G27" s="18">
-        <v>99.999049999999997</v>
+        <v>100.00400500000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,19 +2805,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="24">
-        <v>49</v>
+        <v>-10</v>
       </c>
       <c r="D28" s="24">
-        <v>26</v>
+        <v>-55</v>
       </c>
       <c r="E28" s="24">
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <v>9.9966659999999994</v>
+        <v>10.00276</v>
       </c>
       <c r="G28" s="18">
-        <v>99.99494</v>
+        <v>99.999089999999995</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,19 +2828,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D29" s="24">
-        <v>-26</v>
+        <v>-56</v>
       </c>
       <c r="E29" s="24">
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <v>9.9997710000000009</v>
+        <v>9.9950229999999998</v>
       </c>
       <c r="G29" s="18">
-        <v>99.999465999999998</v>
+        <v>99.996284000000003</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,19 +2851,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="D30" s="24">
-        <v>-38</v>
+        <v>50</v>
       </c>
       <c r="E30" s="24">
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>9.9911480000000008</v>
+        <v>9.9842619999999993</v>
       </c>
       <c r="G30" s="18">
-        <v>99.995766000000003</v>
+        <v>100.00518</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,19 +2874,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="24">
-        <v>-50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="24">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="E31" s="24">
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <v>10.009105999999999</v>
+        <v>9.9929439999999996</v>
       </c>
       <c r="G31" s="18">
-        <v>100.0076</v>
+        <v>100.0004</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,19 +2897,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D32" s="24">
-        <v>55</v>
+        <v>-46</v>
       </c>
       <c r="E32" s="24">
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <v>10.005045000000001</v>
+        <v>9.9893959999999993</v>
       </c>
       <c r="G32" s="18">
-        <v>99.991</v>
+        <v>100.0052</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,19 +2920,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="24">
-        <v>55</v>
+        <v>-53</v>
       </c>
       <c r="D33" s="24">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>10.005578</v>
+        <v>10.006214999999999</v>
       </c>
       <c r="G33" s="18">
-        <v>99.993904000000001</v>
+        <v>100.00309</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,19 +2943,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="24">
-        <v>-7</v>
+        <v>-23</v>
       </c>
       <c r="D34" s="24">
-        <v>55</v>
+        <v>-51</v>
       </c>
       <c r="E34" s="24">
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <v>9.9936860000000003</v>
+        <v>10.00278</v>
       </c>
       <c r="G34" s="18">
-        <v>99.996809999999996</v>
+        <v>100.01143999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,19 +2966,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="24">
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="D35" s="24">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="E35" s="24">
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <v>9.9874200000000002</v>
+        <v>10.011296</v>
       </c>
       <c r="G35" s="18">
-        <v>100.00199000000001</v>
+        <v>100.00187</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3525,19 +2989,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="24">
-        <v>-27</v>
+        <v>-50</v>
       </c>
       <c r="D36" s="24">
-        <v>-48</v>
+        <v>-24</v>
       </c>
       <c r="E36" s="24">
         <v>0</v>
       </c>
       <c r="F36" s="18">
-        <v>10.000109999999999</v>
+        <v>9.9992400000000004</v>
       </c>
       <c r="G36" s="18">
-        <v>100.00209</v>
+        <v>99.986069999999998</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,479 +3012,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="24">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="24">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="E37" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F37" s="18">
-        <v>9.9924630000000008</v>
+        <v>10.014609</v>
       </c>
       <c r="G37" s="18">
-        <v>99.998379999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="24">
-        <v>-6</v>
-      </c>
-      <c r="D38" s="24">
-        <v>18</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <v>9.9961479999999998</v>
-      </c>
-      <c r="G38" s="18">
-        <v>100.00461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="24">
-        <v>5</v>
-      </c>
-      <c r="D39" s="24">
-        <v>18</v>
-      </c>
-      <c r="E39" s="24">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
-        <v>9.9944419999999994</v>
-      </c>
-      <c r="G39" s="18">
-        <v>100.00494399999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="24">
-        <v>-8</v>
-      </c>
-      <c r="D40" s="24">
-        <v>13</v>
-      </c>
-      <c r="E40" s="24">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <v>9.9961479999999998</v>
-      </c>
-      <c r="G40" s="18">
-        <v>100.00461</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="24">
-        <v>8</v>
-      </c>
-      <c r="D41" s="24">
-        <v>22</v>
-      </c>
-      <c r="E41" s="24">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>9.9977370000000008</v>
-      </c>
-      <c r="G41" s="18">
-        <v>100.00461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24">
-        <v>15</v>
-      </c>
-      <c r="E42" s="24">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
-        <v>9.9998330000000006</v>
-      </c>
-      <c r="G42" s="18">
-        <v>100.00848000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="24">
-        <v>21</v>
-      </c>
-      <c r="D43" s="24">
-        <v>4</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>9.9984009999999994</v>
-      </c>
-      <c r="G43" s="18">
-        <v>99.993744000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="24">
-        <v>17</v>
-      </c>
-      <c r="D44" s="24">
-        <v>4</v>
-      </c>
-      <c r="E44" s="24">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
-        <v>9.9964910000000007</v>
-      </c>
-      <c r="G44" s="18">
-        <v>99.993744000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="24">
-        <v>13</v>
-      </c>
-      <c r="D45" s="24">
-        <v>20</v>
-      </c>
-      <c r="E45" s="24">
-        <v>14</v>
-      </c>
-      <c r="F45" s="18">
-        <v>9.9964075000000001</v>
-      </c>
-      <c r="G45" s="18">
-        <v>99.99633</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="24">
-        <v>14</v>
-      </c>
-      <c r="D46" s="24">
-        <v>16</v>
-      </c>
-      <c r="E46" s="24">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
-        <v>10.006435</v>
-      </c>
-      <c r="G46" s="18">
-        <v>99.992170000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="24">
-        <v>-17</v>
-      </c>
-      <c r="D47" s="24">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="24">
-        <v>9</v>
-      </c>
-      <c r="F47" s="18">
-        <v>9.9924630000000008</v>
-      </c>
-      <c r="G47" s="18">
-        <v>100.00108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="24">
-        <v>-16</v>
-      </c>
-      <c r="D48" s="24">
-        <v>-5</v>
-      </c>
-      <c r="E48" s="24">
-        <v>5</v>
-      </c>
-      <c r="F48" s="18">
-        <v>9.9924630000000008</v>
-      </c>
-      <c r="G48" s="18">
-        <v>100.00081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="24">
-        <v>-17</v>
-      </c>
-      <c r="D49" s="24">
-        <v>-12</v>
-      </c>
-      <c r="E49" s="24">
-        <v>4</v>
-      </c>
-      <c r="F49" s="18">
-        <v>9.9932230000000004</v>
-      </c>
-      <c r="G49" s="18">
-        <v>100.00073</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="24">
-        <v>-20</v>
-      </c>
-      <c r="D50" s="24">
-        <v>-17</v>
-      </c>
-      <c r="E50" s="24">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <v>9.9914550000000002</v>
-      </c>
-      <c r="G50" s="18">
-        <v>99.99821</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="24">
-        <v>14</v>
-      </c>
-      <c r="D51" s="24">
-        <v>-61</v>
-      </c>
-      <c r="E51" s="24">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>9.9978069999999999</v>
-      </c>
-      <c r="G51" s="18">
-        <v>99.993934999999993</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="24">
-        <v>13</v>
-      </c>
-      <c r="D52" s="24">
-        <v>22</v>
-      </c>
-      <c r="E52" s="24">
-        <v>13</v>
-      </c>
-      <c r="F52" s="18">
-        <v>9.9950580000000002</v>
-      </c>
-      <c r="G52" s="18">
-        <v>99.99324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="24">
-        <v>16</v>
-      </c>
-      <c r="D53" s="24">
-        <v>28</v>
-      </c>
-      <c r="E53" s="24">
-        <v>10</v>
-      </c>
-      <c r="F53" s="18">
-        <v>9.9964075000000001</v>
-      </c>
-      <c r="G53" s="18">
-        <v>99.993740000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="24">
-        <v>20</v>
-      </c>
-      <c r="D54" s="24">
-        <v>38</v>
-      </c>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
-        <v>9.9964075000000001</v>
-      </c>
-      <c r="G54" s="18">
-        <v>99.995869999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="24">
-        <v>22</v>
-      </c>
-      <c r="D55" s="24">
-        <v>48</v>
-      </c>
-      <c r="E55" s="24">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <v>9.9982194999999994</v>
-      </c>
-      <c r="G55" s="18">
-        <v>99.993979999999993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="24">
-        <v>20</v>
-      </c>
-      <c r="D56" s="24">
-        <v>55</v>
-      </c>
-      <c r="E56" s="24">
-        <v>0</v>
-      </c>
-      <c r="F56" s="18">
-        <v>9.9964619999999993</v>
-      </c>
-      <c r="G56" s="18">
-        <v>99.992869999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="24">
-        <v>17</v>
-      </c>
-      <c r="D57" s="24">
-        <v>59</v>
-      </c>
-      <c r="E57" s="24">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <v>9.9954249999999991</v>
-      </c>
-      <c r="G57" s="18">
-        <v>99.993979999999993</v>
+        <v>99.990004999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -4067,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23"/>
     </row>
@@ -4079,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,7 +3226,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4255,7 +3259,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4277,7 +3281,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +3303,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,7 +3325,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,7 +3336,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,7 +3369,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,7 +3391,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,7 +3402,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4409,7 +3413,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,7 +3446,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4453,226 +3457,6 @@
         <v>35</v>
       </c>
       <c r="C37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4683,7 +3467,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -4762,13 +3546,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="19">
-        <v>32288.134999999998</v>
+        <v>29262.928</v>
       </c>
       <c r="F2" s="19">
-        <v>2498.7013999999999</v>
+        <v>5424.0434999999998</v>
       </c>
       <c r="G2" s="19">
-        <v>17370.271000000001</v>
+        <v>25226.967000000001</v>
       </c>
       <c r="H2" s="19">
         <v>0</v>
@@ -4777,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="19">
-        <v>8859.7749999999996</v>
+        <v>16069.044</v>
       </c>
       <c r="K2" s="19">
         <v>0</v>
       </c>
       <c r="L2" s="15">
-        <v>2498.7013999999999</v>
+        <v>5424.0434999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4797,31 +3581,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
-        <v>28850.69</v>
+        <v>19178.243999999999</v>
       </c>
       <c r="F3" s="18">
-        <v>5740.6684999999998</v>
+        <v>4894.8325000000004</v>
       </c>
       <c r="G3" s="18">
-        <v>31114.379000000001</v>
+        <v>27590.752</v>
       </c>
       <c r="H3" s="18">
-        <v>10.064109999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" s="18">
-        <v>497.72455000000002</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18">
-        <v>410.05939999999998</v>
+        <v>6875.7606999999998</v>
       </c>
       <c r="K3" s="18">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L3" s="16">
-        <v>6025.7323999999999</v>
+        <v>4894.8325000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4838,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="18">
-        <v>29849.062000000002</v>
+        <v>50337.542999999998</v>
       </c>
       <c r="F4" s="18">
-        <v>5664.5209999999997</v>
+        <v>5186.5405000000001</v>
       </c>
       <c r="G4" s="18">
-        <v>17173.146000000001</v>
+        <v>2280.3188</v>
       </c>
       <c r="H4" s="18">
         <v>0</v>
@@ -4853,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="18">
-        <v>19622.508000000002</v>
+        <v>4868.3227999999999</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <v>5664.5209999999997</v>
+        <v>5186.5405000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4876,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <v>33516.027000000002</v>
+        <v>10.196339</v>
       </c>
       <c r="F5" s="18">
-        <v>5660.6244999999999</v>
+        <v>11.437580000000001</v>
       </c>
       <c r="G5" s="18">
-        <v>32825.86</v>
+        <v>44556.387000000002</v>
       </c>
       <c r="H5" s="18">
         <v>0</v>
@@ -4891,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="18">
-        <v>5359.19</v>
+        <v>11221.163</v>
       </c>
       <c r="K5" s="18">
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <v>5660.6244999999999</v>
+        <v>11.437580000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4914,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <v>22817.9</v>
+        <v>8561.3619999999992</v>
       </c>
       <c r="F6" s="18">
-        <v>2845.0427</v>
+        <v>4188.4449999999997</v>
       </c>
       <c r="G6" s="18">
-        <v>3511.4164999999998</v>
+        <v>31109.59</v>
       </c>
       <c r="H6" s="18">
         <v>0</v>
@@ -4929,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="18">
-        <v>31250.611000000001</v>
+        <v>21980.697</v>
       </c>
       <c r="K6" s="18">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <v>2845.0427</v>
+        <v>4188.4449999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4952,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="18">
-        <v>22536.511999999999</v>
+        <v>39503.72</v>
       </c>
       <c r="F7" s="18">
-        <v>6617.2983000000004</v>
+        <v>4602.2934999999998</v>
       </c>
       <c r="G7" s="18">
-        <v>25498.146000000001</v>
+        <v>22321.581999999999</v>
       </c>
       <c r="H7" s="18">
         <v>0</v>
@@ -4967,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="18">
-        <v>20838.912</v>
+        <v>9347.0560000000005</v>
       </c>
       <c r="K7" s="18">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <v>6617.2983000000004</v>
+        <v>4602.2934999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4990,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="18">
-        <v>17653.791000000001</v>
+        <v>32219.653999999999</v>
       </c>
       <c r="F8" s="18">
-        <v>2815.3188</v>
+        <v>4372.3193000000001</v>
       </c>
       <c r="G8" s="18">
-        <v>22980.880000000001</v>
+        <v>24380.309000000001</v>
       </c>
       <c r="H8" s="18">
         <v>0</v>
@@ -5005,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="18">
-        <v>18547.393</v>
+        <v>5000.7340000000004</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <v>2815.3188</v>
+        <v>4372.3193000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5028,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="18">
-        <v>10921.108</v>
+        <v>25829.182000000001</v>
       </c>
       <c r="F9" s="18">
-        <v>5651.63</v>
+        <v>5716.491</v>
       </c>
       <c r="G9" s="18">
-        <v>23505.271000000001</v>
+        <v>25437.629000000001</v>
       </c>
       <c r="H9" s="18">
         <v>0</v>
@@ -5043,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="18">
-        <v>29209.261999999999</v>
+        <v>4351.2133999999996</v>
       </c>
       <c r="K9" s="18">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <v>5651.63</v>
+        <v>5716.491</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5066,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>10620.290999999999</v>
+        <v>14875.884</v>
       </c>
       <c r="F10" s="18">
-        <v>3356.2831999999999</v>
+        <v>3613.4863</v>
       </c>
       <c r="G10" s="18">
-        <v>41252.660000000003</v>
+        <v>19913.766</v>
       </c>
       <c r="H10" s="18">
         <v>0</v>
@@ -5081,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="18">
-        <v>10899.486000000001</v>
+        <v>30028.312000000002</v>
       </c>
       <c r="K10" s="18">
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <v>3356.2831999999999</v>
+        <v>3613.4863</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5104,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="18">
-        <v>13888.166999999999</v>
+        <v>19921.456999999999</v>
       </c>
       <c r="F11" s="18">
-        <v>5687.5039999999999</v>
+        <v>2356.7550999999999</v>
       </c>
       <c r="G11" s="18">
-        <v>3255.7026000000001</v>
+        <v>6028.8056999999999</v>
       </c>
       <c r="H11" s="18">
         <v>0</v>
@@ -5119,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="18">
-        <v>37582.862999999998</v>
+        <v>43663.644999999997</v>
       </c>
       <c r="K11" s="18">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <v>5687.5039999999999</v>
+        <v>2356.7550999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>4770.799</v>
+        <v>42021.934000000001</v>
       </c>
       <c r="F12" s="18">
-        <v>4771.6553000000004</v>
+        <v>3472.4475000000002</v>
       </c>
       <c r="G12" s="18">
-        <v>45479.87</v>
+        <v>21586.629000000001</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
@@ -5157,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="18">
-        <v>13194.425999999999</v>
+        <v>12301.407999999999</v>
       </c>
       <c r="K12" s="18">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <v>4771.6553000000004</v>
+        <v>3472.4475000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5180,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <v>24266.456999999999</v>
+        <v>55317.586000000003</v>
       </c>
       <c r="F13" s="18">
-        <v>5587.8459999999995</v>
+        <v>2302.5812999999998</v>
       </c>
       <c r="G13" s="18">
-        <v>8202.3709999999992</v>
+        <v>2144</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -5195,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="18">
-        <v>34543.983999999997</v>
+        <v>20413.248</v>
       </c>
       <c r="K13" s="18">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <v>5587.8459999999995</v>
+        <v>2302.5812999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5218,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="18">
-        <v>26060.258000000002</v>
+        <v>38236.375</v>
       </c>
       <c r="F14" s="18">
-        <v>4288.0054</v>
+        <v>6034.8739999999998</v>
       </c>
       <c r="G14" s="18">
-        <v>25245.848000000002</v>
+        <v>16006.066999999999</v>
       </c>
       <c r="H14" s="18">
         <v>0</v>
@@ -5233,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="18">
-        <v>15586.05</v>
+        <v>16504.93</v>
       </c>
       <c r="K14" s="18">
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <v>4288.0054</v>
+        <v>6034.8739999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5256,28 +4040,28 @@
         <v>20000</v>
       </c>
       <c r="E15" s="18">
-        <v>6182.6665000000003</v>
+        <v>27797.516</v>
       </c>
       <c r="F15" s="18">
-        <v>5702.3275999999996</v>
+        <v>5725.1289999999999</v>
       </c>
       <c r="G15" s="18">
-        <v>27005.671999999999</v>
+        <v>11777.666999999999</v>
       </c>
       <c r="H15" s="18">
-        <v>39.455714999999998</v>
+        <v>20.188496000000001</v>
       </c>
       <c r="I15" s="18">
-        <v>2004.395</v>
+        <v>988.6336</v>
       </c>
       <c r="J15" s="18">
-        <v>21262.546999999999</v>
+        <v>13632.130999999999</v>
       </c>
       <c r="K15" s="18">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L15" s="16">
-        <v>5741.7830000000004</v>
+        <v>5945.3173999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5291,31 +4075,31 @@
         <v>0</v>
       </c>
       <c r="D16" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
-        <v>9867.6569999999992</v>
+        <v>2071.6732999999999</v>
       </c>
       <c r="F16" s="18">
-        <v>6141.7627000000002</v>
+        <v>2072.0803000000001</v>
       </c>
       <c r="G16" s="18">
-        <v>20417.226999999999</v>
+        <v>37878.06</v>
       </c>
       <c r="H16" s="18">
-        <v>59.615130000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>3008.2530000000002</v>
+        <v>0</v>
       </c>
       <c r="J16" s="18">
-        <v>26647.123</v>
+        <v>31242.030999999999</v>
       </c>
       <c r="K16" s="18">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
-        <v>6801.3779999999997</v>
+        <v>2072.0803000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5332,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <v>14023.288</v>
+        <v>9760.3420000000006</v>
       </c>
       <c r="F17" s="18">
-        <v>3607.8470000000002</v>
+        <v>2838.6480000000001</v>
       </c>
       <c r="G17" s="18">
-        <v>16891.384999999998</v>
+        <v>22759.287</v>
       </c>
       <c r="H17" s="18">
         <v>0</v>
@@ -5347,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="18">
-        <v>30135.68</v>
+        <v>22825.234</v>
       </c>
       <c r="K17" s="18">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <v>3607.8470000000002</v>
+        <v>2838.6480000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5367,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
-        <v>45876.597999999998</v>
+        <v>31357.273000000001</v>
       </c>
       <c r="F18" s="18">
-        <v>6491.9930000000004</v>
+        <v>4822.5879999999997</v>
       </c>
       <c r="G18" s="18">
-        <v>20681.43</v>
+        <v>15219.771000000001</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
@@ -5385,13 +4169,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="18">
-        <v>16260.98</v>
+        <v>12436.957</v>
       </c>
       <c r="K18" s="18">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16">
-        <v>6586.9930000000004</v>
+        <v>4822.5879999999997</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5408,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <v>16372.558999999999</v>
+        <v>3556.9648000000002</v>
       </c>
       <c r="F19" s="18">
-        <v>5916.4059999999999</v>
+        <v>3561.1333</v>
       </c>
       <c r="G19" s="18">
-        <v>22202.69</v>
+        <v>47039.5</v>
       </c>
       <c r="H19" s="18">
         <v>0</v>
@@ -5423,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="18">
-        <v>15518.898999999999</v>
+        <v>11713.236000000001</v>
       </c>
       <c r="K19" s="18">
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <v>5916.4059999999999</v>
+        <v>3561.1333</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5446,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <v>1456.0444</v>
+        <v>8798.65</v>
       </c>
       <c r="F20" s="18">
-        <v>1456.1865</v>
+        <v>5312.7</v>
       </c>
       <c r="G20" s="18">
-        <v>21344.021000000001</v>
+        <v>24295.043000000001</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
@@ -5461,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="18">
-        <v>46017</v>
+        <v>26499.668000000001</v>
       </c>
       <c r="K20" s="18">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <v>1456.1865</v>
+        <v>5312.7</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -5481,31 +4265,31 @@
         <v>0</v>
       </c>
       <c r="D21" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18">
-        <v>7084.5986000000003</v>
+        <v>5220.2920000000004</v>
       </c>
       <c r="F21" s="18">
-        <v>7074.4129999999996</v>
+        <v>5222.7816999999995</v>
       </c>
       <c r="G21" s="18">
-        <v>36124.593999999997</v>
+        <v>3378.6985</v>
       </c>
       <c r="H21" s="18">
-        <v>60.578636000000003</v>
+        <v>0</v>
       </c>
       <c r="I21" s="18">
-        <v>3018.5027</v>
+        <v>0</v>
       </c>
       <c r="J21" s="18">
-        <v>22161.947</v>
+        <v>40787.129999999997</v>
       </c>
       <c r="K21" s="18">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
-        <v>7469.9916999999996</v>
+        <v>5222.7816999999995</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -5519,31 +4303,31 @@
         <v>0</v>
       </c>
       <c r="D22" s="16">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="18">
-        <v>12848.031999999999</v>
+        <v>22126.553</v>
       </c>
       <c r="F22" s="18">
-        <v>5963.9170000000004</v>
+        <v>5699.5063</v>
       </c>
       <c r="G22" s="18">
-        <v>20980.498</v>
+        <v>43475.883000000002</v>
       </c>
       <c r="H22" s="18">
-        <v>29.647835000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" s="18">
-        <v>1512.0070000000001</v>
+        <v>0</v>
       </c>
       <c r="J22" s="18">
-        <v>29626.611000000001</v>
+        <v>621.13824</v>
       </c>
       <c r="K22" s="18">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>5993.5649999999996</v>
+        <v>5699.5063</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -5560,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <v>41492.11</v>
+        <v>31420.363000000001</v>
       </c>
       <c r="F23" s="18">
-        <v>3016.6374999999998</v>
+        <v>5594.3770000000004</v>
       </c>
       <c r="G23" s="18">
-        <v>21951.201000000001</v>
+        <v>4350.2915000000003</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
@@ -5575,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="18">
-        <v>8966.7309999999998</v>
+        <v>23526.32</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <v>3016.6374999999998</v>
+        <v>5594.3770000000004</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -5598,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="18">
-        <v>40633.360000000001</v>
+        <v>34091.902000000002</v>
       </c>
       <c r="F24" s="18">
-        <v>6724.8029999999999</v>
+        <v>2926.6581999999999</v>
       </c>
       <c r="G24" s="18">
-        <v>20131.713</v>
+        <v>15896.705</v>
       </c>
       <c r="H24" s="18">
         <v>0</v>
@@ -5613,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="18">
-        <v>13531.183999999999</v>
+        <v>9085.3880000000008</v>
       </c>
       <c r="K24" s="18">
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <v>6724.8029999999999</v>
+        <v>2926.6581999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5636,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="18">
-        <v>32632.307000000001</v>
+        <v>36147.599999999999</v>
       </c>
       <c r="F25" s="18">
-        <v>5646.4949999999999</v>
+        <v>3244.5452</v>
       </c>
       <c r="G25" s="18">
-        <v>4180.2285000000002</v>
+        <v>5858.665</v>
       </c>
       <c r="H25" s="18">
         <v>0</v>
@@ -5651,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="18">
-        <v>24646.901999999998</v>
+        <v>16407.636999999999</v>
       </c>
       <c r="K25" s="18">
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <v>5646.4949999999999</v>
+        <v>3244.5452</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5674,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="18">
-        <v>12436.799000000001</v>
+        <v>6794.348</v>
       </c>
       <c r="F26" s="18">
-        <v>3207.0493000000001</v>
+        <v>1902.2499</v>
       </c>
       <c r="G26" s="18">
-        <v>109.09762600000001</v>
+        <v>24866.813999999998</v>
       </c>
       <c r="H26" s="18">
         <v>0</v>
@@ -5689,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="18">
-        <v>55072.453000000001</v>
+        <v>45165.016000000003</v>
       </c>
       <c r="K26" s="18">
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <v>3207.0493000000001</v>
+        <v>1902.2499</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -5712,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <v>37808.995999999999</v>
+        <v>6322.1005999999998</v>
       </c>
       <c r="F27" s="18">
-        <v>3523.4376999999999</v>
+        <v>5789.1313</v>
       </c>
       <c r="G27" s="18">
-        <v>12694.061</v>
+        <v>28876.27</v>
       </c>
       <c r="H27" s="18">
         <v>0</v>
@@ -5727,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="18">
-        <v>4387.7484999999997</v>
+        <v>19339.815999999999</v>
       </c>
       <c r="K27" s="18">
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <v>3523.4376999999999</v>
+        <v>5789.1313</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -5750,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <v>21381.285</v>
+        <v>17048.812000000002</v>
       </c>
       <c r="F28" s="18">
-        <v>5705.415</v>
+        <v>3604.9879999999998</v>
       </c>
       <c r="G28" s="18">
-        <v>18584.259999999998</v>
+        <v>21727.620999999999</v>
       </c>
       <c r="H28" s="18">
         <v>0</v>
@@ -5765,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="18">
-        <v>19727.982</v>
+        <v>28898.7</v>
       </c>
       <c r="K28" s="18">
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>5705.415</v>
+        <v>3604.9879999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5788,13 +4572,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="18">
-        <v>18570.945</v>
+        <v>3424.2795000000001</v>
       </c>
       <c r="F29" s="18">
-        <v>5606.0204999999996</v>
+        <v>2724.567</v>
       </c>
       <c r="G29" s="18">
-        <v>33124.97</v>
+        <v>48679.934000000001</v>
       </c>
       <c r="H29" s="18">
         <v>0</v>
@@ -5803,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="18">
-        <v>21575.831999999999</v>
+        <v>657.17895999999996</v>
       </c>
       <c r="K29" s="18">
         <v>0</v>
       </c>
       <c r="L29" s="16">
-        <v>5606.0204999999996</v>
+        <v>2724.567</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5826,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <v>34040.285000000003</v>
+        <v>4350.1540000000005</v>
       </c>
       <c r="F30" s="18">
-        <v>2707.1514000000002</v>
+        <v>4350.5844999999999</v>
       </c>
       <c r="G30" s="18">
-        <v>15446.18</v>
+        <v>22171.360000000001</v>
       </c>
       <c r="H30" s="18">
         <v>0</v>
@@ -5841,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="18">
-        <v>20390.583999999999</v>
+        <v>31460.634999999998</v>
       </c>
       <c r="K30" s="18">
         <v>0</v>
       </c>
       <c r="L30" s="16">
-        <v>2707.1514000000002</v>
+        <v>4350.5844999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5864,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="18">
-        <v>40519.707000000002</v>
+        <v>16146.718999999999</v>
       </c>
       <c r="F31" s="18">
-        <v>1480.8273999999999</v>
+        <v>3425.777</v>
       </c>
       <c r="G31" s="18">
-        <v>13624.02</v>
+        <v>32945.957000000002</v>
       </c>
       <c r="H31" s="18">
         <v>0</v>
@@ -5879,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="18">
-        <v>24644.298999999999</v>
+        <v>8228.9359999999997</v>
       </c>
       <c r="K31" s="18">
         <v>0</v>
       </c>
       <c r="L31" s="16">
-        <v>1480.8273999999999</v>
+        <v>3425.777</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -5902,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <v>7937.2269999999999</v>
+        <v>19579</v>
       </c>
       <c r="F32" s="18">
-        <v>5824.5586000000003</v>
+        <v>3679.8065999999999</v>
       </c>
       <c r="G32" s="18">
-        <v>45603.983999999997</v>
+        <v>21124.807000000001</v>
       </c>
       <c r="H32" s="18">
         <v>0</v>
@@ -5917,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="18">
-        <v>9005.2819999999992</v>
+        <v>29252.668000000001</v>
       </c>
       <c r="K32" s="18">
         <v>0</v>
       </c>
       <c r="L32" s="16">
-        <v>5824.5586000000003</v>
+        <v>3679.8065999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5940,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="18">
-        <v>30663.21</v>
+        <v>33569.68</v>
       </c>
       <c r="F33" s="18">
-        <v>3832.0083</v>
+        <v>4665.6580000000004</v>
       </c>
       <c r="G33" s="18">
-        <v>13352.096</v>
+        <v>9362.1470000000008</v>
       </c>
       <c r="H33" s="18">
         <v>0</v>
@@ -5955,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="18">
-        <v>10239.984</v>
+        <v>15648.388000000001</v>
       </c>
       <c r="K33" s="18">
         <v>0</v>
       </c>
       <c r="L33" s="16">
-        <v>3832.0083</v>
+        <v>4665.6580000000004</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5978,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="18">
-        <v>26037.143</v>
+        <v>39673.379999999997</v>
       </c>
       <c r="F34" s="18">
-        <v>3966.652</v>
+        <v>3755.7707999999998</v>
       </c>
       <c r="G34" s="18">
-        <v>24424.87</v>
+        <v>15547.995000000001</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
@@ -5993,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="18">
-        <v>4676.3887000000004</v>
+        <v>6402.375</v>
       </c>
       <c r="K34" s="18">
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>3966.652</v>
+        <v>3755.7707999999998</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -6016,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="18">
-        <v>3526.1235000000001</v>
+        <v>23749.38</v>
       </c>
       <c r="F35" s="18">
-        <v>3528.5673999999999</v>
+        <v>3326.6356999999998</v>
       </c>
       <c r="G35" s="18">
-        <v>47490.663999999997</v>
+        <v>45028.347999999998</v>
       </c>
       <c r="H35" s="18">
         <v>0</v>
@@ -6031,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="18">
-        <v>8540.4570000000003</v>
+        <v>7416.6419999999998</v>
       </c>
       <c r="K35" s="18">
         <v>0</v>
       </c>
       <c r="L35" s="16">
-        <v>3528.5673999999999</v>
+        <v>3326.6356999999998</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -6054,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="18">
-        <v>4725.1875</v>
+        <v>1039.4747</v>
       </c>
       <c r="F36" s="18">
-        <v>4725.2619999999997</v>
+        <v>1040.0315000000001</v>
       </c>
       <c r="G36" s="18">
-        <v>38275.370000000003</v>
+        <v>41160.355000000003</v>
       </c>
       <c r="H36" s="18">
         <v>0</v>
@@ -6069,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="18">
-        <v>19436.849999999999</v>
+        <v>27759.620999999999</v>
       </c>
       <c r="K36" s="18">
         <v>0</v>
       </c>
       <c r="L36" s="16">
-        <v>4725.2619999999997</v>
+        <v>1040.0315000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -6089,791 +4873,31 @@
         <v>0</v>
       </c>
       <c r="D37" s="16">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18">
-        <v>13752.851000000001</v>
+        <v>35776.402000000002</v>
       </c>
       <c r="F37" s="18">
-        <v>5741.8525</v>
+        <v>82.787599999999998</v>
       </c>
       <c r="G37" s="18">
-        <v>4483.4507000000003</v>
+        <v>14556.895</v>
       </c>
       <c r="H37" s="18">
-        <v>79.397025999999997</v>
+        <v>0</v>
       </c>
       <c r="I37" s="18">
-        <v>3973.7579999999998</v>
+        <v>0</v>
       </c>
       <c r="J37" s="18">
-        <v>45668.18</v>
+        <v>11484.808999999999</v>
       </c>
       <c r="K37" s="18">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="L37" s="16">
-        <v>7671.2494999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="18">
-        <v>4953.4679999999998</v>
-      </c>
-      <c r="F38" s="18">
-        <v>3014.9758000000002</v>
-      </c>
-      <c r="G38" s="18">
-        <v>34918.629999999997</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
-        <v>21564.168000000001</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="16">
-        <v>3014.9758000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="18">
-        <v>7509.4769999999999</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1459.2538999999999</v>
-      </c>
-      <c r="G39" s="18">
-        <v>31636.243999999999</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="18">
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
-        <v>19154.296999999999</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
-        <v>1459.2538999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="18">
-        <v>10059.713</v>
-      </c>
-      <c r="F40" s="18">
-        <v>1675.4692</v>
-      </c>
-      <c r="G40" s="18">
-        <v>25095.99</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <v>22496.305</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
-        <v>1675.4692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>8207.2890000000007</v>
-      </c>
-      <c r="F41" s="18">
-        <v>1244.8315</v>
-      </c>
-      <c r="G41" s="18">
-        <v>30386.333999999999</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <v>24208.504000000001</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="16">
-        <v>1244.8315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-      <c r="D42" s="16">
-        <v>0</v>
-      </c>
-      <c r="E42" s="18">
-        <v>28200.111000000001</v>
-      </c>
-      <c r="F42" s="18">
-        <v>1059.4922999999999</v>
-      </c>
-      <c r="G42" s="18">
-        <v>25289.844000000001</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0</v>
-      </c>
-      <c r="I42" s="18">
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
-        <v>9084.3340000000007</v>
-      </c>
-      <c r="K42" s="18">
-        <v>0</v>
-      </c>
-      <c r="L42" s="16">
-        <v>1059.4922999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>28276.41</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2407.8771999999999</v>
-      </c>
-      <c r="G43" s="18">
-        <v>23352.28</v>
-      </c>
-      <c r="H43" s="18">
-        <v>0</v>
-      </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
-        <v>9697.4169999999995</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="16">
-        <v>2407.8771999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-      <c r="D44" s="16">
-        <v>0</v>
-      </c>
-      <c r="E44" s="18">
-        <v>27913.482</v>
-      </c>
-      <c r="F44" s="18">
-        <v>5736.0150000000003</v>
-      </c>
-      <c r="G44" s="18">
-        <v>24172.3</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <v>10514.883</v>
-      </c>
-      <c r="K44" s="18">
-        <v>0</v>
-      </c>
-      <c r="L44" s="16">
-        <v>5736.0150000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-      <c r="D45" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E45" s="18">
-        <v>34450.597999999998</v>
-      </c>
-      <c r="F45" s="18">
-        <v>5785.7065000000002</v>
-      </c>
-      <c r="G45" s="18">
-        <v>21801.24</v>
-      </c>
-      <c r="H45" s="18">
-        <v>139.49704</v>
-      </c>
-      <c r="I45" s="18">
-        <v>7026.6940000000004</v>
-      </c>
-      <c r="J45" s="18">
-        <v>8805.9</v>
-      </c>
-      <c r="K45" s="18">
-        <v>1100</v>
-      </c>
-      <c r="L45" s="16">
-        <v>7025.2035999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-      <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="18">
-        <v>33604.699999999997</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1050.9146000000001</v>
-      </c>
-      <c r="G46" s="18">
-        <v>23285.164000000001</v>
-      </c>
-      <c r="H46" s="18">
-        <v>0</v>
-      </c>
-      <c r="I46" s="18">
-        <v>0</v>
-      </c>
-      <c r="J46" s="18">
-        <v>5679.4189999999999</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0</v>
-      </c>
-      <c r="L46" s="16">
-        <v>1050.9146000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-      <c r="D47" s="16">
-        <v>40000</v>
-      </c>
-      <c r="E47" s="18">
-        <v>15374.763999999999</v>
-      </c>
-      <c r="F47" s="18">
-        <v>5743.1826000000001</v>
-      </c>
-      <c r="G47" s="18">
-        <v>5075.5137000000004</v>
-      </c>
-      <c r="H47" s="18">
-        <v>89.321655000000007</v>
-      </c>
-      <c r="I47" s="18">
-        <v>4490.1629999999996</v>
-      </c>
-      <c r="J47" s="18">
-        <v>41079.605000000003</v>
-      </c>
-      <c r="K47" s="18">
-        <v>685</v>
-      </c>
-      <c r="L47" s="16">
-        <v>6517.5043999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-      <c r="D48" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E48" s="18">
-        <v>18630.5</v>
-      </c>
-      <c r="F48" s="18">
-        <v>5740.6606000000002</v>
-      </c>
-      <c r="G48" s="18">
-        <v>3008.8062</v>
-      </c>
-      <c r="H48" s="18">
-        <v>49.623139999999999</v>
-      </c>
-      <c r="I48" s="18">
-        <v>2496.4920000000002</v>
-      </c>
-      <c r="J48" s="18">
-        <v>39766.324000000001</v>
-      </c>
-      <c r="K48" s="18">
-        <v>400</v>
-      </c>
-      <c r="L48" s="16">
-        <v>6190.2837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-      <c r="D49" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E49" s="18">
-        <v>17579.898000000001</v>
-      </c>
-      <c r="F49" s="18">
-        <v>6557.5375999999997</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2320.0680000000002</v>
-      </c>
-      <c r="H49" s="18">
-        <v>39.728940000000001</v>
-      </c>
-      <c r="I49" s="18">
-        <v>1996.3456000000001</v>
-      </c>
-      <c r="J49" s="18">
-        <v>44068.766000000003</v>
-      </c>
-      <c r="K49" s="18">
-        <v>585</v>
-      </c>
-      <c r="L49" s="16">
-        <v>7182.2665999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="18">
-        <v>11051.415000000001</v>
-      </c>
-      <c r="F50" s="18">
-        <v>5813.3590000000004</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1431.7394999999999</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0</v>
-      </c>
-      <c r="I50" s="18">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18">
-        <v>49183.25</v>
-      </c>
-      <c r="K50" s="18">
-        <v>0</v>
-      </c>
-      <c r="L50" s="16">
-        <v>5813.3590000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <v>34127.008000000002</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1929.1940999999999</v>
-      </c>
-      <c r="G51" s="18">
-        <v>25507.063999999998</v>
-      </c>
-      <c r="H51" s="18">
-        <v>0</v>
-      </c>
-      <c r="I51" s="18">
-        <v>0</v>
-      </c>
-      <c r="J51" s="18">
-        <v>5854.5063</v>
-      </c>
-      <c r="K51" s="18">
-        <v>0</v>
-      </c>
-      <c r="L51" s="16">
-        <v>1929.1940999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-      <c r="D52" s="16">
-        <v>40000</v>
-      </c>
-      <c r="E52" s="18">
-        <v>34468.766000000003</v>
-      </c>
-      <c r="F52" s="18">
-        <v>5984.9844000000003</v>
-      </c>
-      <c r="G52" s="18">
-        <v>20366.081999999999</v>
-      </c>
-      <c r="H52" s="18">
-        <v>129.35749999999999</v>
-      </c>
-      <c r="I52" s="18">
-        <v>6531.9880000000003</v>
-      </c>
-      <c r="J52" s="18">
-        <v>10737.546</v>
-      </c>
-      <c r="K52" s="18">
-        <v>800</v>
-      </c>
-      <c r="L52" s="16">
-        <v>6914.3419999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-      <c r="D53" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E53" s="18">
-        <v>36164.769999999997</v>
-      </c>
-      <c r="F53" s="18">
-        <v>5728.3670000000002</v>
-      </c>
-      <c r="G53" s="18">
-        <v>19711.03</v>
-      </c>
-      <c r="H53" s="18">
-        <v>99.640739999999994</v>
-      </c>
-      <c r="I53" s="18">
-        <v>5031.7974000000004</v>
-      </c>
-      <c r="J53" s="18">
-        <v>9244.06</v>
-      </c>
-      <c r="K53" s="18">
-        <v>400</v>
-      </c>
-      <c r="L53" s="16">
-        <v>6228.0079999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-      <c r="D54" s="16">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>33528.413999999997</v>
-      </c>
-      <c r="F54" s="18">
-        <v>6064.4975999999997</v>
-      </c>
-      <c r="G54" s="18">
-        <v>21217.66</v>
-      </c>
-      <c r="H54" s="18">
-        <v>0</v>
-      </c>
-      <c r="I54" s="18">
-        <v>0</v>
-      </c>
-      <c r="J54" s="18">
-        <v>8570.1820000000007</v>
-      </c>
-      <c r="K54" s="18">
-        <v>0</v>
-      </c>
-      <c r="L54" s="16">
-        <v>6064.4975999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-      <c r="D55" s="16">
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <v>34210.01</v>
-      </c>
-      <c r="F55" s="18">
-        <v>4860.1629999999996</v>
-      </c>
-      <c r="G55" s="18">
-        <v>20747.490000000002</v>
-      </c>
-      <c r="H55" s="18">
-        <v>0</v>
-      </c>
-      <c r="I55" s="18">
-        <v>0</v>
-      </c>
-      <c r="J55" s="18">
-        <v>8744.4040000000005</v>
-      </c>
-      <c r="K55" s="18">
-        <v>0</v>
-      </c>
-      <c r="L55" s="16">
-        <v>4860.1629999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0</v>
-      </c>
-      <c r="E56" s="18">
-        <v>38443.879999999997</v>
-      </c>
-      <c r="F56" s="18">
-        <v>2352.1277</v>
-      </c>
-      <c r="G56" s="18">
-        <v>16821.978999999999</v>
-      </c>
-      <c r="H56" s="18">
-        <v>0</v>
-      </c>
-      <c r="I56" s="18">
-        <v>0</v>
-      </c>
-      <c r="J56" s="18">
-        <v>10502.528</v>
-      </c>
-      <c r="K56" s="18">
-        <v>0</v>
-      </c>
-      <c r="L56" s="16">
-        <v>2352.1277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-      <c r="D57" s="16">
-        <v>0</v>
-      </c>
-      <c r="E57" s="18">
-        <v>31950.68</v>
-      </c>
-      <c r="F57" s="18">
-        <v>5908.0165999999999</v>
-      </c>
-      <c r="G57" s="18">
-        <v>21638.303</v>
-      </c>
-      <c r="H57" s="18">
-        <v>0</v>
-      </c>
-      <c r="I57" s="18">
-        <v>0</v>
-      </c>
-      <c r="J57" s="18">
-        <v>8187</v>
-      </c>
-      <c r="K57" s="18">
-        <v>0</v>
-      </c>
-      <c r="L57" s="16">
-        <v>5908.0165999999999</v>
+        <v>82.787599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6883,7 +4907,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -6930,11 +4954,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="23">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="21">
-        <v>969</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="22">
-        <v>1500</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="22">
-        <v>1500</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7002,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="22">
-        <v>1393</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7016,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="24">
-        <v>0</v>
+        <v>1319</v>
       </c>
       <c r="F7" s="22">
         <v>1500</v>
@@ -7036,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="22">
-        <v>1277</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7050,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="24">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F9" s="22">
         <v>1500</v>
@@ -7070,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="22">
-        <v>1500</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="24">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="F11" s="22">
-        <v>1500</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="22">
-        <v>1301</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7118,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="24">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F13" s="22">
-        <v>1500</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7135,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="24">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="F14" s="22">
-        <v>1141</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7169,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="24">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="F16" s="22">
-        <v>1500</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7186,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="24">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F17" s="22">
-        <v>1500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7220,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="24">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F19" s="22">
-        <v>1500</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7240,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="22">
-        <v>462</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7254,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="24">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="F21" s="22">
-        <v>1500</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7271,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="24">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="F22" s="22">
         <v>1500</v>
@@ -7308,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="22">
-        <v>1500</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7322,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="24">
-        <v>846</v>
+        <v>450</v>
       </c>
       <c r="F25" s="22">
-        <v>1500</v>
+        <v>947</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="24">
-        <v>774</v>
+        <v>0</v>
       </c>
       <c r="F26" s="22">
-        <v>1500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7373,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="24">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F28" s="22">
-        <v>1500</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7390,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="24">
-        <v>1336</v>
+        <v>1393</v>
       </c>
       <c r="F29" s="22">
         <v>1500</v>
@@ -7410,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="22">
-        <v>756</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7427,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="22">
-        <v>506</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7458,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="24">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>1500</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7478,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="22">
-        <v>1060</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7492,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="24">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="F35" s="22">
-        <v>1007</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7509,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="24">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="F36" s="22">
-        <v>1225</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,347 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="24">
-        <v>0</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0</v>
-      </c>
-      <c r="F38" s="22">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24">
-        <v>0</v>
-      </c>
-      <c r="F39" s="22">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0</v>
-      </c>
-      <c r="F40" s="22">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0</v>
-      </c>
-      <c r="D41" s="24">
-        <v>0</v>
-      </c>
-      <c r="F41" s="22">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="F42" s="22">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="22">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24">
-        <v>0</v>
-      </c>
-      <c r="F44" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0</v>
-      </c>
-      <c r="D45" s="24">
-        <v>564</v>
-      </c>
-      <c r="F45" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0</v>
-      </c>
-      <c r="D46" s="24">
-        <v>0</v>
-      </c>
-      <c r="F46" s="22">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="24">
-        <v>0</v>
-      </c>
-      <c r="D47" s="24">
-        <v>0</v>
-      </c>
-      <c r="F47" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24">
-        <v>380</v>
-      </c>
-      <c r="F48" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0</v>
-      </c>
-      <c r="F49" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0</v>
-      </c>
-      <c r="D50" s="24">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24">
-        <v>269</v>
-      </c>
-      <c r="F51" s="22">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="24">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0</v>
-      </c>
-      <c r="F52" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="24">
-        <v>0</v>
-      </c>
-      <c r="D53" s="24">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24">
-        <v>524</v>
-      </c>
-      <c r="F54" s="22">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="24">
-        <v>0</v>
-      </c>
-      <c r="D55" s="24">
-        <v>586</v>
-      </c>
-      <c r="F55" s="22">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0</v>
-      </c>
-      <c r="D56" s="24">
-        <v>228</v>
-      </c>
-      <c r="F56" s="22">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="24">
-        <v>0</v>
-      </c>
-      <c r="D57" s="24">
-        <v>94</v>
-      </c>
-      <c r="F57" s="22">
-        <v>1501</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7879,9 +5563,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -7923,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="19">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="F2" s="19">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7943,16 +5627,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="18">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="F3" s="18">
-        <v>75</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,13 +5650,13 @@
         <v>75</v>
       </c>
       <c r="D4" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="18">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F4" s="18">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7983,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="24">
         <v>0</v>
@@ -7992,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8046,13 +5730,13 @@
         <v>76</v>
       </c>
       <c r="D8" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="18">
-        <v>-120</v>
+        <v>-100</v>
       </c>
       <c r="F8" s="18">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,13 +5750,13 @@
         <v>75</v>
       </c>
       <c r="D9" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="18">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="F9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8083,16 +5767,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="18">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8103,16 +5787,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="18">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F11" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8123,16 +5807,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="18">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="F12" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8143,16 +5827,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F13" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8163,16 +5847,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="18">
-        <v>-120</v>
+        <v>-20</v>
       </c>
       <c r="F14" s="18">
-        <v>-20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8186,10 +5870,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="18">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F15" s="18">
         <v>100</v>
@@ -8203,16 +5887,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="18">
-        <v>-120</v>
+        <v>-20</v>
       </c>
       <c r="F16" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8223,16 +5907,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="18">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8246,13 +5930,13 @@
         <v>75</v>
       </c>
       <c r="D18" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="18">
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="F18" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8263,16 +5947,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F19" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8286,10 +5970,10 @@
         <v>76</v>
       </c>
       <c r="D20" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="18">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="18">
         <v>0</v>
@@ -8303,16 +5987,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="18">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="F21" s="18">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8326,13 +6010,13 @@
         <v>75</v>
       </c>
       <c r="D22" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="18">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F22" s="18">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8363,16 +6047,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="18">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8383,16 +6067,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="18">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="F25" s="18">
-        <v>100</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8403,16 +6087,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="18">
-        <v>-60</v>
+        <v>-120</v>
       </c>
       <c r="F26" s="18">
-        <v>40</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8426,13 +6110,13 @@
         <v>75</v>
       </c>
       <c r="D27" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="18">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F27" s="18">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8443,16 +6127,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E28" s="18">
-        <v>-60</v>
+        <v>-220</v>
       </c>
       <c r="F28" s="18">
-        <v>40</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,13 +6170,13 @@
         <v>76</v>
       </c>
       <c r="D30" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" s="18">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8506,13 +6190,13 @@
         <v>76</v>
       </c>
       <c r="D31" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="18">
-        <v>-120</v>
+        <v>-100</v>
       </c>
       <c r="F31" s="18">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8526,13 +6210,13 @@
         <v>75</v>
       </c>
       <c r="D32" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="18">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="F32" s="18">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,16 +6227,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="18">
-        <v>-80</v>
+        <v>-120</v>
       </c>
       <c r="F33" s="18">
-        <v>20</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,13 +6250,13 @@
         <v>76</v>
       </c>
       <c r="D34" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="18">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="F34" s="18">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,13 +6270,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="18">
-        <v>-40</v>
+        <v>-120</v>
       </c>
       <c r="F35" s="18">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,10 +6290,10 @@
         <v>76</v>
       </c>
       <c r="D36" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="18">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="F36" s="18">
         <v>0</v>
@@ -8623,416 +6307,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E37" s="18">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F37" s="18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="24">
-        <v>5</v>
-      </c>
-      <c r="E38" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="24">
-        <v>5</v>
-      </c>
-      <c r="E39" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="24">
-        <v>5</v>
-      </c>
-      <c r="E40" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="24">
-        <v>5</v>
-      </c>
-      <c r="E41" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="24">
-        <v>5</v>
-      </c>
-      <c r="E42" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="24">
-        <v>5</v>
-      </c>
-      <c r="E43" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="24">
-        <v>4</v>
-      </c>
-      <c r="E44" s="18">
-        <v>-80</v>
-      </c>
-      <c r="F44" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="24">
-        <v>11</v>
-      </c>
-      <c r="E45" s="18">
-        <v>-220</v>
-      </c>
-      <c r="F45" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="24">
-        <v>5</v>
-      </c>
-      <c r="E46" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="24">
-        <v>7</v>
-      </c>
-      <c r="E47" s="18">
-        <v>-137</v>
-      </c>
-      <c r="F47" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="24">
-        <v>4</v>
-      </c>
-      <c r="E48" s="18">
-        <v>-80</v>
-      </c>
-      <c r="F48" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="24">
-        <v>6</v>
-      </c>
-      <c r="E49" s="18">
-        <v>-117</v>
-      </c>
-      <c r="F49" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>3</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="24">
-        <v>3</v>
-      </c>
-      <c r="E50" s="18">
-        <v>-59</v>
-      </c>
-      <c r="F50" s="18">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="24">
-        <v>5</v>
-      </c>
-      <c r="E51" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F51" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>3</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="24">
-        <v>8</v>
-      </c>
-      <c r="E52" s="18">
-        <v>-160</v>
-      </c>
-      <c r="F52" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="24">
-        <v>4</v>
-      </c>
-      <c r="E53" s="18">
-        <v>-80</v>
-      </c>
-      <c r="F53" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="24">
-        <v>5</v>
-      </c>
-      <c r="E55" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F55" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="24">
-        <v>5</v>
-      </c>
-      <c r="E56" s="18">
-        <v>-100</v>
-      </c>
-      <c r="F56" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>3</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="24">
-        <v>0</v>
-      </c>
-      <c r="E57" s="18">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9051,10 +6335,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9138,7 +6422,9 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="23"/>
       <c r="D2" s="21"/>
@@ -9155,6 +6441,11 @@
       <c r="O2" s="19"/>
       <c r="P2" s="15"/>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9162,11 +6453,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="1" sqref="I1:I1048576 L1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9223,20 +6512,83 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="15"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>60</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,14 +24,14 @@
   </sheets>
   <definedNames>
     <definedName name="c_avgs" localSheetId="1">'Creature Averages'!$A$1:$L$5</definedName>
-    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$36</definedName>
-    <definedName name="env_1" localSheetId="8">Environment!$A$1:$L$5</definedName>
-    <definedName name="lifetime" localSheetId="5">'Lifetime ticks'!$A$1:$F$36</definedName>
-    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$36</definedName>
-    <definedName name="p_impact" localSheetId="6">'Player Impact'!$A$1:$F$36</definedName>
-    <definedName name="p_stats" localSheetId="7">'Player Stats'!$A$1:$P$5</definedName>
-    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$36</definedName>
-    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$36</definedName>
+    <definedName name="c_traits_1" localSheetId="0">'Creature Traits'!$A$1:$M$47</definedName>
+    <definedName name="env_1" localSheetId="8">Environment!$A$1:$L$3</definedName>
+    <definedName name="lifetime" localSheetId="5">'Lifetime ticks'!$A$1:$F$47</definedName>
+    <definedName name="metabolism_1" localSheetId="4">Metabolism!$A$1:$L$47</definedName>
+    <definedName name="p_impact" localSheetId="6">'Player Impact'!$A$1:$F$47</definedName>
+    <definedName name="p_stats" localSheetId="7">'Player Stats'!$A$1:$P$3</definedName>
+    <definedName name="reproduction" localSheetId="2">'Reproductive Traits'!$A$1:$G$47</definedName>
+    <definedName name="sensing" localSheetId="3">Sensing!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t xml:space="preserve">   Gen   </t>
   </si>
@@ -601,7 +601,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0C9619"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -935,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -1007,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>147.20060000000001</v>
+        <v>122.018936</v>
       </c>
       <c r="D2" s="18">
-        <v>47.187010000000001</v>
+        <v>48.758262999999999</v>
       </c>
       <c r="E2" s="18">
-        <v>79.537419999999997</v>
+        <v>75.79786</v>
       </c>
       <c r="F2" s="18">
-        <v>7.9808836000000003</v>
+        <v>7.9792223</v>
       </c>
       <c r="K2" s="18">
-        <v>705.62599999999998</v>
+        <v>702.48346000000004</v>
       </c>
       <c r="M2" s="18">
         <v>100</v>
@@ -1033,19 +1061,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="18">
-        <v>131.84003000000001</v>
+        <v>147.3775</v>
       </c>
       <c r="D3" s="18">
-        <v>39.971319999999999</v>
+        <v>53.394565999999998</v>
       </c>
       <c r="E3" s="18">
-        <v>79.943740000000005</v>
+        <v>76.288123999999996</v>
       </c>
       <c r="F3" s="18">
-        <v>7.9906769999999998</v>
+        <v>8.0268499999999996</v>
       </c>
       <c r="K3" s="18">
-        <v>720.05740000000003</v>
+        <v>693.21090000000004</v>
       </c>
       <c r="M3" s="18">
         <v>100</v>
@@ -1059,19 +1087,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="18">
-        <v>149.64984000000001</v>
+        <v>130.42624000000001</v>
       </c>
       <c r="D4" s="18">
-        <v>47.288730000000001</v>
+        <v>51.817528000000003</v>
       </c>
       <c r="E4" s="18">
-        <v>89.385419999999996</v>
+        <v>75.810519999999997</v>
       </c>
       <c r="F4" s="18">
-        <v>9.0032390000000007</v>
+        <v>8.0079709999999995</v>
       </c>
       <c r="K4" s="18">
-        <v>721.94226000000003</v>
+        <v>696.36490000000003</v>
       </c>
       <c r="M4" s="18">
         <v>100</v>
@@ -1085,19 +1113,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="18">
-        <v>152.00261</v>
+        <v>112.27753</v>
       </c>
       <c r="D5" s="18">
-        <v>59.699257000000003</v>
+        <v>43.414630000000002</v>
       </c>
       <c r="E5" s="18">
-        <v>87.731759999999994</v>
+        <v>85.973200000000006</v>
       </c>
       <c r="F5" s="18">
-        <v>9.003228</v>
+        <v>9.0071349999999999</v>
       </c>
       <c r="K5" s="18">
-        <v>696.52189999999996</v>
+        <v>728.87194999999997</v>
       </c>
       <c r="M5" s="18">
         <v>100</v>
@@ -1111,19 +1139,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="18">
-        <v>121.06905999999999</v>
+        <v>135.14236</v>
       </c>
       <c r="D6" s="18">
-        <v>45.067599999999999</v>
+        <v>39.028390000000002</v>
       </c>
       <c r="E6" s="18">
-        <v>76.599900000000005</v>
+        <v>78.913430000000005</v>
       </c>
       <c r="F6" s="18">
-        <v>7.9900774999999999</v>
+        <v>8.0069219999999994</v>
       </c>
       <c r="K6" s="18">
-        <v>709.86479999999995</v>
+        <v>721.94323999999995</v>
       </c>
       <c r="M6" s="18">
         <v>100</v>
@@ -1137,19 +1165,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="18">
-        <v>140.51885999999999</v>
+        <v>172.75909999999999</v>
       </c>
       <c r="D7" s="18">
-        <v>55.371025000000003</v>
+        <v>50.977576999999997</v>
       </c>
       <c r="E7" s="18">
-        <v>78.530913999999996</v>
+        <v>78.488556000000003</v>
       </c>
       <c r="F7" s="18">
-        <v>7.9895953999999998</v>
+        <v>7.9947423999999998</v>
       </c>
       <c r="K7" s="18">
-        <v>689.25792999999999</v>
+        <v>698.04485999999997</v>
       </c>
       <c r="M7" s="18">
         <v>100</v>
@@ -1163,19 +1191,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="18">
-        <v>132.32669000000001</v>
+        <v>113.8212</v>
       </c>
       <c r="D8" s="18">
-        <v>50.437412000000002</v>
+        <v>42.851787999999999</v>
       </c>
       <c r="E8" s="18">
-        <v>77.826070000000001</v>
+        <v>75.93683</v>
       </c>
       <c r="F8" s="18">
-        <v>8.0221689999999999</v>
+        <v>8.0116399999999999</v>
       </c>
       <c r="K8" s="18">
-        <v>699.12519999999995</v>
+        <v>714.29645000000005</v>
       </c>
       <c r="M8" s="18">
         <v>100</v>
@@ -1189,19 +1217,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>137.52287000000001</v>
+        <v>141.38028</v>
       </c>
       <c r="D9" s="18">
-        <v>42.545036000000003</v>
+        <v>52.78866</v>
       </c>
       <c r="E9" s="18">
-        <v>76.502589999999998</v>
+        <v>78.344040000000007</v>
       </c>
       <c r="F9" s="18">
-        <v>8.0285949999999993</v>
+        <v>7.990354</v>
       </c>
       <c r="K9" s="18">
-        <v>714.90989999999999</v>
+        <v>694.42267000000004</v>
       </c>
       <c r="M9" s="18">
         <v>100</v>
@@ -1215,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="18">
-        <v>124.93982</v>
+        <v>125.77139</v>
       </c>
       <c r="D10" s="18">
-        <v>48.782234000000003</v>
+        <v>48.323227000000003</v>
       </c>
       <c r="E10" s="18">
-        <v>78.720770000000002</v>
+        <v>76.732169999999996</v>
       </c>
       <c r="F10" s="18">
-        <v>8.0092459999999992</v>
+        <v>7.9896419999999999</v>
       </c>
       <c r="K10" s="18">
-        <v>702.43555000000003</v>
+        <v>703.35350000000005</v>
       </c>
       <c r="M10" s="18">
         <v>100</v>
@@ -1241,19 +1269,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="18">
-        <v>121.47199999999999</v>
+        <v>111.79040500000001</v>
       </c>
       <c r="D11" s="18">
-        <v>43.427370000000003</v>
+        <v>37.210022000000002</v>
       </c>
       <c r="E11" s="18">
-        <v>88.621120000000005</v>
+        <v>76.748850000000004</v>
       </c>
       <c r="F11" s="18">
-        <v>8.9764549999999996</v>
+        <v>7.9996809999999998</v>
       </c>
       <c r="K11" s="18">
-        <v>728.75739999999996</v>
+        <v>725.57996000000003</v>
       </c>
       <c r="M11" s="18">
         <v>100</v>
@@ -1267,19 +1295,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="18">
-        <v>108.28874999999999</v>
+        <v>154.84827000000001</v>
       </c>
       <c r="D12" s="18">
-        <v>42.108730000000001</v>
+        <v>44.105995</v>
       </c>
       <c r="E12" s="18">
-        <v>74.416079999999994</v>
+        <v>77.111289999999997</v>
       </c>
       <c r="F12" s="18">
-        <v>8.0031239999999997</v>
+        <v>7.9729624000000001</v>
       </c>
       <c r="K12" s="18">
-        <v>715.78252999999995</v>
+        <v>711.78800000000001</v>
       </c>
       <c r="M12" s="18">
         <v>100</v>
@@ -1293,19 +1321,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>124.65734</v>
+        <v>115.16757</v>
       </c>
       <c r="D13" s="18">
-        <v>48.872599999999998</v>
+        <v>36.825114999999997</v>
       </c>
       <c r="E13" s="18">
-        <v>77.087710000000001</v>
+        <v>85.37397</v>
       </c>
       <c r="F13" s="18">
-        <v>8.0023719999999994</v>
+        <v>8.988353</v>
       </c>
       <c r="K13" s="18">
-        <v>702.25480000000005</v>
+        <v>742.91210000000001</v>
       </c>
       <c r="M13" s="18">
         <v>100</v>
@@ -1319,19 +1347,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>110.26921</v>
+        <v>143.35037</v>
       </c>
       <c r="D14" s="18">
-        <v>36.790916000000003</v>
+        <v>47.082459999999998</v>
       </c>
       <c r="E14" s="18">
-        <v>79.852879999999999</v>
+        <v>78.683049999999994</v>
       </c>
       <c r="F14" s="18">
-        <v>7.987209</v>
+        <v>8.0181719999999999</v>
       </c>
       <c r="K14" s="18">
-        <v>726.41814999999997</v>
+        <v>705.83510000000001</v>
       </c>
       <c r="M14" s="18">
         <v>100</v>
@@ -1345,19 +1373,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="18">
-        <v>137.20029</v>
+        <v>108.02426</v>
       </c>
       <c r="D15" s="18">
-        <v>46.367249999999999</v>
+        <v>43.201717000000002</v>
       </c>
       <c r="E15" s="18">
-        <v>79.069950000000006</v>
+        <v>74.329445000000007</v>
       </c>
       <c r="F15" s="18">
-        <v>8.0205780000000004</v>
+        <v>7.9867224999999999</v>
       </c>
       <c r="K15" s="18">
-        <v>707.26549999999997</v>
+        <v>713.59655999999995</v>
       </c>
       <c r="M15" s="18">
         <v>100</v>
@@ -1371,19 +1399,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="18">
-        <v>137.59975</v>
+        <v>118.66451000000001</v>
       </c>
       <c r="D16" s="18">
-        <v>47.389530000000001</v>
+        <v>49.558017999999997</v>
       </c>
       <c r="E16" s="18">
-        <v>77.540930000000003</v>
+        <v>79.226035999999993</v>
       </c>
       <c r="F16" s="18">
-        <v>8.0210670000000004</v>
+        <v>8.0009119999999996</v>
       </c>
       <c r="K16" s="18">
-        <v>705.22095000000002</v>
+        <v>700.88400000000001</v>
       </c>
       <c r="M16" s="18">
         <v>100</v>
@@ -1397,19 +1425,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="18">
-        <v>131.21084999999999</v>
+        <v>152.56993</v>
       </c>
       <c r="D17" s="18">
-        <v>47.662464</v>
+        <v>55.195103000000003</v>
       </c>
       <c r="E17" s="18">
-        <v>87.669539999999998</v>
+        <v>77.760999999999996</v>
       </c>
       <c r="F17" s="18">
-        <v>9.0017569999999996</v>
+        <v>8.0160280000000004</v>
       </c>
       <c r="K17" s="18">
-        <v>722.20950000000005</v>
+        <v>689.60979999999995</v>
       </c>
       <c r="M17" s="18">
         <v>100</v>
@@ -1423,19 +1451,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="18">
-        <v>126.888306</v>
+        <v>143.76438999999999</v>
       </c>
       <c r="D18" s="18">
-        <v>56.658264000000003</v>
+        <v>44.455936000000001</v>
       </c>
       <c r="E18" s="18">
-        <v>76.712456000000003</v>
+        <v>76.974495000000005</v>
       </c>
       <c r="F18" s="18">
-        <v>7.9788246000000003</v>
+        <v>8.0238029999999991</v>
       </c>
       <c r="K18" s="18">
-        <v>686.68349999999998</v>
+        <v>711.08812999999998</v>
       </c>
       <c r="M18" s="18">
         <v>100</v>
@@ -1449,19 +1477,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="18">
-        <v>137.47755000000001</v>
+        <v>119.68106</v>
       </c>
       <c r="D19" s="18">
-        <v>49.891525000000001</v>
+        <v>39.691462999999999</v>
       </c>
       <c r="E19" s="18">
-        <v>74.379035999999999</v>
+        <v>81.430530000000005</v>
       </c>
       <c r="F19" s="18">
-        <v>7.9901799999999996</v>
+        <v>8.0253300000000003</v>
       </c>
       <c r="K19" s="18">
-        <v>700.21690000000001</v>
+        <v>720.61707000000001</v>
       </c>
       <c r="M19" s="18">
         <v>100</v>
@@ -1475,19 +1503,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>125.77831999999999</v>
+        <v>131.86545000000001</v>
       </c>
       <c r="D20" s="18">
-        <v>46.644706999999997</v>
+        <v>50.605384999999998</v>
       </c>
       <c r="E20" s="18">
-        <v>76.522729999999996</v>
+        <v>77.303229999999999</v>
       </c>
       <c r="F20" s="18">
-        <v>7.9907779999999997</v>
+        <v>8.0241849999999992</v>
       </c>
       <c r="K20" s="18">
-        <v>706.7106</v>
+        <v>698.78925000000004</v>
       </c>
       <c r="M20" s="18">
         <v>100</v>
@@ -1501,19 +1529,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="18">
-        <v>108.4225</v>
+        <v>149.96384</v>
       </c>
       <c r="D21" s="18">
-        <v>43.487022000000003</v>
+        <v>47.184690000000003</v>
       </c>
       <c r="E21" s="18">
-        <v>79.099395999999999</v>
+        <v>78.508049999999997</v>
       </c>
       <c r="F21" s="18">
-        <v>7.9809950000000001</v>
+        <v>8.0028919999999992</v>
       </c>
       <c r="K21" s="18">
-        <v>713.02593999999999</v>
+        <v>705.63059999999996</v>
       </c>
       <c r="M21" s="18">
         <v>100</v>
@@ -1527,19 +1555,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>155.31258</v>
+        <v>103.432205</v>
       </c>
       <c r="D22" s="18">
-        <v>55.947997999999998</v>
+        <v>37.655445</v>
       </c>
       <c r="E22" s="18">
-        <v>79.408553999999995</v>
+        <v>77.115459999999999</v>
       </c>
       <c r="F22" s="18">
-        <v>7.9970645999999999</v>
+        <v>7.9839105999999997</v>
       </c>
       <c r="K22" s="18">
-        <v>688.10400000000004</v>
+        <v>724.68910000000005</v>
       </c>
       <c r="M22" s="18">
         <v>100</v>
@@ -1553,19 +1581,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="18">
-        <v>143.40255999999999</v>
+        <v>114.67726999999999</v>
       </c>
       <c r="D23" s="18">
-        <v>56.174137000000002</v>
+        <v>40.27411</v>
       </c>
       <c r="E23" s="18">
-        <v>79.721059999999994</v>
+        <v>76.859504999999999</v>
       </c>
       <c r="F23" s="18">
-        <v>8.0135120000000004</v>
+        <v>8.0043140000000008</v>
       </c>
       <c r="K23" s="18">
-        <v>687.65173000000004</v>
+        <v>719.45180000000005</v>
       </c>
       <c r="M23" s="18">
         <v>100</v>
@@ -1579,19 +1607,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="18">
-        <v>136.67787000000001</v>
+        <v>153.31145000000001</v>
       </c>
       <c r="D24" s="18">
-        <v>42.982329999999997</v>
+        <v>55.1464</v>
       </c>
       <c r="E24" s="18">
-        <v>73.070144999999997</v>
+        <v>87.312489999999997</v>
       </c>
       <c r="F24" s="18">
-        <v>8.0092350000000003</v>
+        <v>9.0027310000000007</v>
       </c>
       <c r="K24" s="18">
-        <v>714.03534000000002</v>
+        <v>713.34484999999995</v>
       </c>
       <c r="M24" s="18">
         <v>100</v>
@@ -1605,19 +1633,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="18">
-        <v>147.84630999999999</v>
+        <v>120.02113</v>
       </c>
       <c r="D25" s="18">
-        <v>57.164046999999997</v>
+        <v>35.742064999999997</v>
       </c>
       <c r="E25" s="18">
-        <v>80.648026000000002</v>
+        <v>82.194940000000003</v>
       </c>
       <c r="F25" s="18">
-        <v>7.9984859999999998</v>
+        <v>7.999409</v>
       </c>
       <c r="K25" s="18">
-        <v>685.67190000000005</v>
+        <v>728.51586999999995</v>
       </c>
       <c r="M25" s="18">
         <v>100</v>
@@ -1631,19 +1659,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="18">
-        <v>109.47969000000001</v>
+        <v>115.219635</v>
       </c>
       <c r="D26" s="18">
-        <v>39.941070000000003</v>
+        <v>44.292904</v>
       </c>
       <c r="E26" s="18">
-        <v>76.648240000000001</v>
+        <v>76.454980000000006</v>
       </c>
       <c r="F26" s="18">
-        <v>7.984337</v>
+        <v>8.0137339999999995</v>
       </c>
       <c r="K26" s="18">
-        <v>720.11785999999995</v>
+        <v>711.41420000000005</v>
       </c>
       <c r="M26" s="18">
         <v>100</v>
@@ -1657,19 +1685,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="18">
-        <v>122.98224999999999</v>
+        <v>149.74976000000001</v>
       </c>
       <c r="D27" s="18">
-        <v>44.509632000000003</v>
+        <v>45.805466000000003</v>
       </c>
       <c r="E27" s="18">
-        <v>79.569305</v>
+        <v>76.314660000000003</v>
       </c>
       <c r="F27" s="18">
-        <v>7.9676166000000004</v>
+        <v>7.9924106999999998</v>
       </c>
       <c r="K27" s="18">
-        <v>710.98069999999996</v>
+        <v>708.38904000000002</v>
       </c>
       <c r="M27" s="18">
         <v>100</v>
@@ -1683,19 +1711,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="18">
-        <v>124.68761000000001</v>
+        <v>146.94347999999999</v>
       </c>
       <c r="D28" s="18">
-        <v>45.835799999999999</v>
+        <v>48.648933</v>
       </c>
       <c r="E28" s="18">
-        <v>79.484260000000006</v>
+        <v>77.556520000000006</v>
       </c>
       <c r="F28" s="18">
-        <v>8.0022909999999996</v>
+        <v>8.0063700000000004</v>
       </c>
       <c r="K28" s="18">
-        <v>708.32836999999995</v>
+        <v>702.70214999999996</v>
       </c>
       <c r="M28" s="18">
         <v>100</v>
@@ -1709,19 +1737,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="18">
-        <v>116.70582</v>
+        <v>135.44162</v>
       </c>
       <c r="D29" s="18">
-        <v>45.305706000000001</v>
+        <v>54.158805999999998</v>
       </c>
       <c r="E29" s="18">
-        <v>81.934880000000007</v>
+        <v>77.791449999999998</v>
       </c>
       <c r="F29" s="18">
-        <v>7.9808669999999999</v>
+        <v>8.0058900000000008</v>
       </c>
       <c r="K29" s="18">
-        <v>709.3886</v>
+        <v>691.68240000000003</v>
       </c>
       <c r="M29" s="18">
         <v>100</v>
@@ -1735,19 +1763,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="18">
-        <v>132.69763</v>
+        <v>120.61190000000001</v>
       </c>
       <c r="D30" s="18">
-        <v>50.942737999999999</v>
+        <v>42.774099999999997</v>
       </c>
       <c r="E30" s="18">
-        <v>75.560519999999997</v>
+        <v>77.387110000000007</v>
       </c>
       <c r="F30" s="18">
-        <v>7.9869446999999996</v>
+        <v>8.0299650000000007</v>
       </c>
       <c r="K30" s="18">
-        <v>698.11450000000002</v>
+        <v>714.45180000000005</v>
       </c>
       <c r="M30" s="18">
         <v>100</v>
@@ -1761,19 +1789,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="18">
-        <v>159.81451000000001</v>
+        <v>107.29954499999999</v>
       </c>
       <c r="D31" s="18">
-        <v>41.521194000000001</v>
+        <v>50.022334999999998</v>
       </c>
       <c r="E31" s="18">
-        <v>88.157454999999999</v>
+        <v>75.432569999999998</v>
       </c>
       <c r="F31" s="18">
-        <v>8.9744960000000003</v>
+        <v>8.0311299999999992</v>
       </c>
       <c r="K31" s="18">
-        <v>733.44619999999998</v>
+        <v>699.95529999999997</v>
       </c>
       <c r="M31" s="18">
         <v>100</v>
@@ -1787,19 +1815,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="18">
-        <v>127.67415</v>
+        <v>124.728386</v>
       </c>
       <c r="D32" s="18">
-        <v>45.430145000000003</v>
+        <v>45.322384</v>
       </c>
       <c r="E32" s="18">
-        <v>93.36336</v>
+        <v>77.450620000000001</v>
       </c>
       <c r="F32" s="18">
-        <v>9.9984359999999999</v>
+        <v>7.9709453999999997</v>
       </c>
       <c r="K32" s="18">
-        <v>742.59216000000004</v>
+        <v>709.35519999999997</v>
       </c>
       <c r="M32" s="18">
         <v>100</v>
@@ -1813,19 +1841,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="18">
-        <v>149.29979</v>
+        <v>119.86429</v>
       </c>
       <c r="D33" s="18">
-        <v>42.171120000000002</v>
+        <v>39.036102</v>
       </c>
       <c r="E33" s="18">
-        <v>80.902069999999995</v>
+        <v>76.276960000000003</v>
       </c>
       <c r="F33" s="18">
-        <v>8.0263980000000004</v>
+        <v>7.9851245999999998</v>
       </c>
       <c r="K33" s="18">
-        <v>715.65779999999995</v>
+        <v>721.92780000000005</v>
       </c>
       <c r="M33" s="18">
         <v>100</v>
@@ -1839,19 +1867,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="18">
-        <v>141.28043</v>
+        <v>147.13583</v>
       </c>
       <c r="D34" s="18">
-        <v>54.769843999999999</v>
+        <v>49.701103000000003</v>
       </c>
       <c r="E34" s="18">
-        <v>77.787180000000006</v>
+        <v>77.08493</v>
       </c>
       <c r="F34" s="18">
-        <v>8.0169010000000007</v>
+        <v>8.0350359999999998</v>
       </c>
       <c r="K34" s="18">
-        <v>690.46029999999996</v>
+        <v>700.59780000000001</v>
       </c>
       <c r="M34" s="18">
         <v>100</v>
@@ -1865,19 +1893,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="18">
-        <v>155.97118</v>
+        <v>138.68260000000001</v>
       </c>
       <c r="D35" s="18">
-        <v>46.628197</v>
+        <v>50.819251999999999</v>
       </c>
       <c r="E35" s="18">
-        <v>78.932850000000002</v>
+        <v>90.902869999999993</v>
       </c>
       <c r="F35" s="18">
-        <v>8.0025689999999994</v>
+        <v>9.0167120000000001</v>
       </c>
       <c r="K35" s="18">
-        <v>706.74360000000001</v>
+        <v>715.89959999999996</v>
       </c>
       <c r="M35" s="18">
         <v>100</v>
@@ -1891,21 +1919,307 @@
         <v>34</v>
       </c>
       <c r="C36" s="18">
-        <v>128.39168000000001</v>
+        <v>129.7105</v>
       </c>
       <c r="D36" s="18">
-        <v>45.922187999999998</v>
+        <v>44.807873000000001</v>
       </c>
       <c r="E36" s="18">
-        <v>78.161709999999999</v>
+        <v>88.672160000000005</v>
       </c>
       <c r="F36" s="18">
-        <v>8.0039309999999997</v>
+        <v>9.0251400000000004</v>
       </c>
       <c r="K36" s="18">
-        <v>708.15563999999995</v>
+        <v>726.15610000000004</v>
       </c>
       <c r="M36" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="18">
+        <v>103.944824</v>
+      </c>
+      <c r="D37" s="18">
+        <v>39.934356999999999</v>
+      </c>
+      <c r="E37" s="18">
+        <v>85.906769999999995</v>
+      </c>
+      <c r="F37" s="18">
+        <v>8.9927309999999991</v>
+      </c>
+      <c r="K37" s="18">
+        <v>737.00850000000003</v>
+      </c>
+      <c r="M37" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="18">
+        <v>112.118286</v>
+      </c>
+      <c r="D38" s="18">
+        <v>49.293624999999999</v>
+      </c>
+      <c r="E38" s="18">
+        <v>76.806076000000004</v>
+      </c>
+      <c r="F38" s="18">
+        <v>8.0229389999999992</v>
+      </c>
+      <c r="K38" s="18">
+        <v>701.41269999999997</v>
+      </c>
+      <c r="M38" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="18">
+        <v>108.97391</v>
+      </c>
+      <c r="D39" s="18">
+        <v>42.799959999999999</v>
+      </c>
+      <c r="E39" s="18">
+        <v>86.254919999999998</v>
+      </c>
+      <c r="F39" s="18">
+        <v>9.0057910000000003</v>
+      </c>
+      <c r="K39" s="18">
+        <v>730.10130000000004</v>
+      </c>
+      <c r="M39" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="18">
+        <v>111.97714000000001</v>
+      </c>
+      <c r="D40" s="18">
+        <v>43.414630000000002</v>
+      </c>
+      <c r="E40" s="18">
+        <v>85.209854000000007</v>
+      </c>
+      <c r="F40" s="18">
+        <v>9.0044240000000002</v>
+      </c>
+      <c r="K40" s="18">
+        <v>732.12023999999997</v>
+      </c>
+      <c r="M40" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="18">
+        <v>120.44627</v>
+      </c>
+      <c r="D41" s="18">
+        <v>45.391483000000001</v>
+      </c>
+      <c r="E41" s="18">
+        <v>81.249960000000002</v>
+      </c>
+      <c r="F41" s="18">
+        <v>7.9762729999999999</v>
+      </c>
+      <c r="K41" s="18">
+        <v>709.21704</v>
+      </c>
+      <c r="M41" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18">
+        <v>115.72266399999999</v>
+      </c>
+      <c r="D42" s="18">
+        <v>40.362105999999997</v>
+      </c>
+      <c r="E42" s="18">
+        <v>78.098339999999993</v>
+      </c>
+      <c r="F42" s="18">
+        <v>8.0008029999999994</v>
+      </c>
+      <c r="K42" s="18">
+        <v>719.27575999999999</v>
+      </c>
+      <c r="M42" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="18">
+        <v>115.298096</v>
+      </c>
+      <c r="D43" s="18">
+        <v>40.311554000000001</v>
+      </c>
+      <c r="E43" s="18">
+        <v>81.847520000000003</v>
+      </c>
+      <c r="F43" s="18">
+        <v>8.0122590000000002</v>
+      </c>
+      <c r="K43" s="18">
+        <v>719.37689999999998</v>
+      </c>
+      <c r="M43" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="18">
+        <v>111.41949</v>
+      </c>
+      <c r="D44" s="18">
+        <v>34.551963999999998</v>
+      </c>
+      <c r="E44" s="18">
+        <v>81.937029999999993</v>
+      </c>
+      <c r="F44" s="18">
+        <v>8.014659</v>
+      </c>
+      <c r="K44" s="18">
+        <v>730.89606000000003</v>
+      </c>
+      <c r="M44" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="18">
+        <v>120.844475</v>
+      </c>
+      <c r="D45" s="18">
+        <v>45.659599999999998</v>
+      </c>
+      <c r="E45" s="18">
+        <v>69.813270000000003</v>
+      </c>
+      <c r="F45" s="18">
+        <v>7.9922047000000003</v>
+      </c>
+      <c r="K45" s="18">
+        <v>708.68079999999998</v>
+      </c>
+      <c r="M45" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="18">
+        <v>99.931510000000003</v>
+      </c>
+      <c r="D46" s="18">
+        <v>35.806762999999997</v>
+      </c>
+      <c r="E46" s="18">
+        <v>79.252380000000002</v>
+      </c>
+      <c r="F46" s="18">
+        <v>8.0162239999999994</v>
+      </c>
+      <c r="K46" s="18">
+        <v>728.38649999999996</v>
+      </c>
+      <c r="M46" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="18">
+        <v>148.66231999999999</v>
+      </c>
+      <c r="D47" s="18">
+        <v>56.874077</v>
+      </c>
+      <c r="E47" s="18">
+        <v>75.273769999999999</v>
+      </c>
+      <c r="F47" s="18">
+        <v>7.9895395999999996</v>
+      </c>
+      <c r="K47" s="18">
+        <v>686.25183000000004</v>
+      </c>
+      <c r="M47" s="18">
         <v>100</v>
       </c>
     </row>
@@ -2135,7 +2449,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
@@ -2182,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2" s="23">
-        <v>-50</v>
+        <v>-45</v>
       </c>
       <c r="E2" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="19">
-        <v>10.000826</v>
+        <v>9.9988165000000002</v>
       </c>
       <c r="G2" s="19">
-        <v>99.991720000000001</v>
+        <v>100.00394</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,19 +2519,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="24">
-        <v>-41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="24">
-        <v>38</v>
+        <v>-37</v>
       </c>
       <c r="E3" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
-        <v>9.99756</v>
+        <v>9.9938369999999992</v>
       </c>
       <c r="G3" s="18">
-        <v>100.00664</v>
+        <v>100.00284000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,19 +2542,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="24">
-        <v>-44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="24">
         <v>0</v>
       </c>
       <c r="F4" s="18">
-        <v>9.9999629999999993</v>
+        <v>9.9999959999999994</v>
       </c>
       <c r="G4" s="18">
-        <v>99.996049999999997</v>
+        <v>100.00789</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,19 +2565,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="24">
-        <v>17</v>
+        <v>-50</v>
       </c>
       <c r="D5" s="24">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E5" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="18">
-        <v>9.997719</v>
+        <v>9.9967360000000003</v>
       </c>
       <c r="G5" s="18">
-        <v>100.00021</v>
+        <v>100.00127999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2274,19 +2588,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="24">
-        <v>-38</v>
+        <v>49</v>
       </c>
       <c r="D6" s="24">
-        <v>-41</v>
+        <v>-26</v>
       </c>
       <c r="E6" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18">
-        <v>10.007052</v>
+        <v>9.9961289999999998</v>
       </c>
       <c r="G6" s="18">
-        <v>99.992400000000004</v>
+        <v>100.001274</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,19 +2611,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="24">
-        <v>36</v>
+        <v>-38</v>
       </c>
       <c r="D7" s="24">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="E7" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="18">
-        <v>9.9989969999999992</v>
+        <v>9.9983170000000001</v>
       </c>
       <c r="G7" s="18">
-        <v>99.992170000000002</v>
+        <v>99.999489999999994</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,19 +2634,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="24">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="24">
-        <v>55</v>
+        <v>-56</v>
       </c>
       <c r="E8" s="24">
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>10.006254</v>
+        <v>10.01121</v>
       </c>
       <c r="G8" s="18">
-        <v>100.00619</v>
+        <v>100.00627</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,19 +2657,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <v>-46</v>
+        <v>25</v>
       </c>
       <c r="D9" s="24">
-        <v>-31</v>
+        <v>49</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>10.001189999999999</v>
+        <v>10.015117</v>
       </c>
       <c r="G9" s="18">
-        <v>100.003494</v>
+        <v>99.999083999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2366,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <v>-56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="24">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="E10" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>9.9923280000000005</v>
+        <v>9.9988630000000001</v>
       </c>
       <c r="G10" s="18">
-        <v>100.001015</v>
+        <v>99.991150000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2389,19 +2703,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="24">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D11" s="24">
-        <v>45</v>
+        <v>-56</v>
       </c>
       <c r="E11" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>10.005782</v>
+        <v>10.002827</v>
       </c>
       <c r="G11" s="18">
-        <v>99.996049999999997</v>
+        <v>99.988590000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2412,19 +2726,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="24">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" s="24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>9.9947909999999993</v>
+        <v>10.006555000000001</v>
       </c>
       <c r="G12" s="18">
-        <v>100.00348</v>
+        <v>100.00297</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,19 +2749,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="24">
-        <v>51</v>
+        <v>-4</v>
       </c>
       <c r="D13" s="24">
-        <v>-21</v>
+        <v>56</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <v>10.000044000000001</v>
+        <v>10.002272</v>
       </c>
       <c r="G13" s="18">
-        <v>99.992069999999998</v>
+        <v>99.999269999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2458,19 +2772,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="24">
-        <v>-53</v>
+        <v>40</v>
       </c>
       <c r="D14" s="24">
-        <v>-16</v>
+        <v>-38</v>
       </c>
       <c r="E14" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>9.9933969999999999</v>
+        <v>9.9875969999999992</v>
       </c>
       <c r="G14" s="18">
-        <v>100.00741600000001</v>
+        <v>99.998509999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,19 +2795,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="24">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="D15" s="24">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <v>9.9986119999999996</v>
+        <v>10.002103999999999</v>
       </c>
       <c r="G15" s="18">
-        <v>100.010086</v>
+        <v>99.995345999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,19 +2818,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D16" s="24">
-        <v>-26</v>
+        <v>41</v>
       </c>
       <c r="E16" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18">
-        <v>9.9931900000000002</v>
+        <v>9.9869669999999999</v>
       </c>
       <c r="G16" s="18">
-        <v>99.992670000000004</v>
+        <v>99.993589999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,19 +2841,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="24">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D17" s="24">
-        <v>-50</v>
+        <v>18</v>
       </c>
       <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <v>9.9986709999999999</v>
+        <v>9.9868140000000007</v>
       </c>
       <c r="G17" s="18">
-        <v>100.000595</v>
+        <v>100.005005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,19 +2864,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="24">
-        <v>40</v>
+        <v>-51</v>
       </c>
       <c r="D18" s="24">
-        <v>-39</v>
+        <v>22</v>
       </c>
       <c r="E18" s="24">
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <v>9.9885120000000001</v>
+        <v>9.9864829999999998</v>
       </c>
       <c r="G18" s="18">
-        <v>100.014854</v>
+        <v>99.994780000000006</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2573,19 +2887,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D19" s="24">
-        <v>22</v>
+        <v>-56</v>
       </c>
       <c r="E19" s="24">
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <v>10.001606000000001</v>
+        <v>10.006667</v>
       </c>
       <c r="G19" s="18">
-        <v>100.01253</v>
+        <v>100.002045</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2596,19 +2910,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D20" s="24">
-        <v>31</v>
+        <v>-56</v>
       </c>
       <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <v>10.007361</v>
+        <v>9.9977440000000009</v>
       </c>
       <c r="G20" s="18">
-        <v>100.010155</v>
+        <v>99.994513999999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,19 +2933,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <v>-54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="24">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="18">
-        <v>9.9915299999999991</v>
+        <v>9.9876649999999998</v>
       </c>
       <c r="G21" s="18">
-        <v>100.00341</v>
+        <v>100.00493</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2642,19 +2956,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="24">
-        <v>5</v>
+        <v>-17</v>
       </c>
       <c r="D22" s="24">
-        <v>55</v>
+        <v>-53</v>
       </c>
       <c r="E22" s="24">
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <v>9.9979040000000001</v>
+        <v>10.002603000000001</v>
       </c>
       <c r="G22" s="18">
-        <v>99.998679999999993</v>
+        <v>99.999245000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,19 +2979,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="24">
-        <v>54</v>
+        <v>-50</v>
       </c>
       <c r="D23" s="24">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="E23" s="24">
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <v>10.004295000000001</v>
+        <v>9.9986879999999996</v>
       </c>
       <c r="G23" s="18">
-        <v>100.00133</v>
+        <v>99.996520000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,19 +3002,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="24">
-        <v>-43</v>
+        <v>-55</v>
       </c>
       <c r="D24" s="24">
-        <v>-35</v>
+        <v>-11</v>
       </c>
       <c r="E24" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="18">
-        <v>9.9913900000000009</v>
+        <v>10.003005999999999</v>
       </c>
       <c r="G24" s="18">
-        <v>100.00304</v>
+        <v>99.990499999999997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,19 +3025,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="24">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D25" s="24">
-        <v>-55</v>
+        <v>45</v>
       </c>
       <c r="E25" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="18">
-        <v>10.001478000000001</v>
+        <v>9.9891539999999992</v>
       </c>
       <c r="G25" s="18">
-        <v>100.00463000000001</v>
+        <v>100.00257000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,19 +3048,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="24">
-        <v>-41</v>
+        <v>-28</v>
       </c>
       <c r="D26" s="24">
-        <v>-37</v>
+        <v>48</v>
       </c>
       <c r="E26" s="24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="18">
-        <v>9.9976979999999998</v>
+        <v>9.9880019999999998</v>
       </c>
       <c r="G26" s="18">
-        <v>100.0059</v>
+        <v>100.00214</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,19 +3071,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="24">
-        <v>-33</v>
+        <v>48</v>
       </c>
       <c r="D27" s="24">
-        <v>-45</v>
+        <v>-29</v>
       </c>
       <c r="E27" s="24">
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <v>9.9973489999999998</v>
+        <v>10.009867</v>
       </c>
       <c r="G27" s="18">
-        <v>100.00042000000001</v>
+        <v>99.982864000000006</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,19 +3094,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="24">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D28" s="24">
-        <v>12</v>
+        <v>-39</v>
       </c>
       <c r="E28" s="24">
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <v>10.002363000000001</v>
+        <v>10.006211</v>
       </c>
       <c r="G28" s="18">
-        <v>100.00798</v>
+        <v>99.994460000000004</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,19 +3117,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <v>-50</v>
+        <v>-42</v>
       </c>
       <c r="D29" s="24">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="E29" s="24">
         <v>0</v>
       </c>
       <c r="F29" s="18">
-        <v>10.004018</v>
+        <v>9.9932770000000009</v>
       </c>
       <c r="G29" s="18">
-        <v>100.00042000000001</v>
+        <v>100.004395</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2826,19 +3140,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="D30" s="24">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="24">
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>9.9970619999999997</v>
+        <v>9.9950539999999997</v>
       </c>
       <c r="G30" s="18">
-        <v>99.999459999999999</v>
+        <v>99.998130000000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,19 +3163,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="24">
-        <v>-17</v>
+        <v>-36</v>
       </c>
       <c r="D31" s="24">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" s="24">
         <v>0</v>
       </c>
       <c r="F31" s="18">
-        <v>9.9961699999999993</v>
+        <v>9.9999300000000009</v>
       </c>
       <c r="G31" s="18">
-        <v>100.00042999999999</v>
+        <v>99.993859999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2872,19 +3186,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D32" s="24">
-        <v>39</v>
+        <v>-53</v>
       </c>
       <c r="E32" s="24">
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <v>9.9994119999999995</v>
+        <v>10.013489</v>
       </c>
       <c r="G32" s="18">
-        <v>100.00248999999999</v>
+        <v>99.988569999999996</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2895,19 +3209,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="24">
-        <v>-54</v>
+        <v>45</v>
       </c>
       <c r="D33" s="24">
-        <v>-12</v>
+        <v>-32</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>10.000441</v>
+        <v>10.011982</v>
       </c>
       <c r="G33" s="18">
-        <v>100.01040999999999</v>
+        <v>99.999549999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,19 +3232,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="24">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="D34" s="24">
-        <v>53</v>
+        <v>-47</v>
       </c>
       <c r="E34" s="24">
         <v>0</v>
       </c>
       <c r="F34" s="18">
-        <v>10.016652000000001</v>
+        <v>10.013127000000001</v>
       </c>
       <c r="G34" s="18">
-        <v>99.99118</v>
+        <v>100.000496</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,19 +3255,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="24">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D35" s="24">
-        <v>-56</v>
+        <v>4</v>
       </c>
       <c r="E35" s="24">
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <v>9.9933999999999994</v>
+        <v>10.00014</v>
       </c>
       <c r="G35" s="18">
-        <v>99.997349999999997</v>
+        <v>99.986080000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,19 +3278,272 @@
         <v>34</v>
       </c>
       <c r="C36" s="24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D36" s="24">
-        <v>-45</v>
+        <v>-52</v>
       </c>
       <c r="E36" s="24">
         <v>0</v>
       </c>
       <c r="F36" s="18">
-        <v>9.9976920000000007</v>
+        <v>10.014359000000001</v>
       </c>
       <c r="G36" s="18">
-        <v>99.993415999999996</v>
+        <v>100.00342000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24">
+        <v>-11</v>
+      </c>
+      <c r="D37" s="24">
+        <v>5</v>
+      </c>
+      <c r="E37" s="24">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18">
+        <v>10.001298999999999</v>
+      </c>
+      <c r="G37" s="18">
+        <v>99.997470000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
+        <v>5</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3</v>
+      </c>
+      <c r="E38" s="24">
+        <v>8</v>
+      </c>
+      <c r="F38" s="18">
+        <v>9.9978309999999997</v>
+      </c>
+      <c r="G38" s="18">
+        <v>99.999480000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24">
+        <v>-4</v>
+      </c>
+      <c r="D39" s="24">
+        <v>4</v>
+      </c>
+      <c r="E39" s="24">
+        <v>12</v>
+      </c>
+      <c r="F39" s="18">
+        <v>9.9978309999999997</v>
+      </c>
+      <c r="G39" s="18">
+        <v>99.999854999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24">
+        <v>-23</v>
+      </c>
+      <c r="D40" s="24">
+        <v>10</v>
+      </c>
+      <c r="E40" s="24">
+        <v>12</v>
+      </c>
+      <c r="F40" s="18">
+        <v>9.9978309999999997</v>
+      </c>
+      <c r="G40" s="18">
+        <v>99.997280000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24">
+        <v>14</v>
+      </c>
+      <c r="D41" s="24">
+        <v>-12</v>
+      </c>
+      <c r="E41" s="24">
+        <v>8</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9.9832249999999991</v>
+      </c>
+      <c r="G41" s="18">
+        <v>100.00172999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24">
+        <v>12</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>9.9838979999999999</v>
+      </c>
+      <c r="G42" s="18">
+        <v>99.999274999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>16</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24">
+        <v>12</v>
+      </c>
+      <c r="F43" s="18">
+        <v>9.9877699999999994</v>
+      </c>
+      <c r="G43" s="18">
+        <v>100.00185399999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>11</v>
+      </c>
+      <c r="D44" s="24">
+        <v>13</v>
+      </c>
+      <c r="E44" s="24">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18">
+        <v>9.9792400000000008</v>
+      </c>
+      <c r="G44" s="18">
+        <v>100.003204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>15</v>
+      </c>
+      <c r="D45" s="24">
+        <v>-22</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <v>9.9885839999999995</v>
+      </c>
+      <c r="G45" s="18">
+        <v>99.994190000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>15</v>
+      </c>
+      <c r="D46" s="24">
+        <v>12</v>
+      </c>
+      <c r="E46" s="24">
+        <v>14</v>
+      </c>
+      <c r="F46" s="18">
+        <v>9.9797180000000001</v>
+      </c>
+      <c r="G46" s="18">
+        <v>99.998000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>-3</v>
+      </c>
+      <c r="D47" s="24">
+        <v>-21</v>
+      </c>
+      <c r="E47" s="24">
+        <v>12</v>
+      </c>
+      <c r="F47" s="18">
+        <v>9.9962099999999996</v>
+      </c>
+      <c r="G47" s="18">
+        <v>100.00078999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +3554,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -3079,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,7 +3745,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,7 +3756,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3211,7 +3778,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,7 +3800,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,7 +3888,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,7 +3899,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3376,7 +3943,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +3954,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3399,6 +3966,127 @@
       </c>
       <c r="C36" s="24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +4096,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -3484,31 +4172,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="15">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="19">
-        <v>15223.286</v>
+        <v>20440.111000000001</v>
       </c>
       <c r="F2" s="19">
-        <v>3274.5970000000002</v>
+        <v>5634.3190000000004</v>
       </c>
       <c r="G2" s="19">
-        <v>32896.152000000002</v>
+        <v>33126.57</v>
       </c>
       <c r="H2" s="19">
-        <v>0</v>
+        <v>49.940820000000002</v>
       </c>
       <c r="I2" s="19">
-        <v>0</v>
+        <v>2489.1352999999999</v>
       </c>
       <c r="J2" s="19">
-        <v>25480.865000000002</v>
+        <v>7442.7905000000001</v>
       </c>
       <c r="K2" s="19">
         <v>0</v>
       </c>
       <c r="L2" s="15">
-        <v>3274.5970000000002</v>
+        <v>5684.26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,31 +4210,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
-        <v>7393.2740000000003</v>
+        <v>18240.120999999999</v>
       </c>
       <c r="F3" s="18">
-        <v>7457.0513000000001</v>
+        <v>5341.7939999999999</v>
       </c>
       <c r="G3" s="18">
-        <v>32879.523000000001</v>
+        <v>9201.5339999999997</v>
       </c>
       <c r="H3" s="18">
-        <v>59.853583999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" s="18">
-        <v>3018.3222999999998</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18">
-        <v>25647.223000000002</v>
+        <v>46247.097999999998</v>
       </c>
       <c r="K3" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L3" s="16">
-        <v>7616.9049999999997</v>
+        <v>5341.7939999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3563,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="18">
-        <v>29743.94</v>
+        <v>37724.519999999997</v>
       </c>
       <c r="F4" s="18">
-        <v>3026.2876000000001</v>
+        <v>4640.6513999999997</v>
       </c>
       <c r="G4" s="18">
-        <v>21583.822</v>
+        <v>23026.535</v>
       </c>
       <c r="H4" s="18">
         <v>0</v>
@@ -3578,13 +4266,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="18">
-        <v>23497.162</v>
+        <v>4462.0684000000001</v>
       </c>
       <c r="K4" s="18">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <v>3026.2876000000001</v>
+        <v>4640.6513999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,31 +4286,31 @@
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E5" s="18">
-        <v>25140.752</v>
+        <v>15804.761</v>
       </c>
       <c r="F5" s="18">
-        <v>6605.6869999999999</v>
+        <v>7382.4252999999999</v>
       </c>
       <c r="G5" s="18">
-        <v>25381.447</v>
+        <v>9716.3639999999996</v>
       </c>
       <c r="H5" s="18">
-        <v>0</v>
+        <v>79.738883999999999</v>
       </c>
       <c r="I5" s="18">
-        <v>0</v>
+        <v>3983.5527000000002</v>
       </c>
       <c r="J5" s="18">
-        <v>25479.101999999999</v>
+        <v>30617.633000000002</v>
       </c>
       <c r="K5" s="18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="16">
-        <v>6605.6869999999999</v>
+        <v>8462.1640000000007</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3636,31 +4324,31 @@
         <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="18">
-        <v>1883.5436999999999</v>
+        <v>6581.4565000000002</v>
       </c>
       <c r="F6" s="18">
-        <v>1883.5530000000001</v>
+        <v>6415.625</v>
       </c>
       <c r="G6" s="18">
-        <v>39581.67</v>
+        <v>1996.4535000000001</v>
       </c>
       <c r="H6" s="18">
-        <v>0</v>
+        <v>9.9612870000000004</v>
       </c>
       <c r="I6" s="18">
-        <v>0</v>
+        <v>496.27166999999997</v>
       </c>
       <c r="J6" s="18">
-        <v>19069.317999999999</v>
+        <v>58993.27</v>
       </c>
       <c r="K6" s="18">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L6" s="16">
-        <v>1883.5530000000001</v>
+        <v>7025.5864000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,31 +4362,31 @@
         <v>0</v>
       </c>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="18">
-        <v>10740.698</v>
+        <v>18372.594000000001</v>
       </c>
       <c r="F7" s="18">
-        <v>5564.98</v>
+        <v>6156.7470000000003</v>
       </c>
       <c r="G7" s="18">
-        <v>58849.394999999997</v>
+        <v>14582.391</v>
       </c>
       <c r="H7" s="18">
-        <v>0</v>
+        <v>9.9831704999999999</v>
       </c>
       <c r="I7" s="18">
-        <v>0</v>
+        <v>500.77730000000003</v>
       </c>
       <c r="J7" s="18">
-        <v>669.3365</v>
+        <v>53424.56</v>
       </c>
       <c r="K7" s="18">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L7" s="16">
-        <v>5564.98</v>
+        <v>6211.7304999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3715,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="18">
-        <v>4115.6225999999997</v>
+        <v>26885.728999999999</v>
       </c>
       <c r="F8" s="18">
-        <v>2710.806</v>
+        <v>4978.8100000000004</v>
       </c>
       <c r="G8" s="18">
-        <v>37157.599999999999</v>
+        <v>14009.089</v>
       </c>
       <c r="H8" s="18">
         <v>0</v>
@@ -3730,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="18">
-        <v>24890.113000000001</v>
+        <v>16015.779</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <v>2710.806</v>
+        <v>4978.8100000000004</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3753,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="18">
-        <v>39680.160000000003</v>
+        <v>31860.04</v>
       </c>
       <c r="F9" s="18">
-        <v>5649.1130000000003</v>
+        <v>4117.1710000000003</v>
       </c>
       <c r="G9" s="18">
-        <v>23891.200000000001</v>
+        <v>13418.216</v>
       </c>
       <c r="H9" s="18">
         <v>0</v>
@@ -3768,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="18">
-        <v>5190.0780000000004</v>
+        <v>25411.886999999999</v>
       </c>
       <c r="K9" s="18">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <v>5649.1130000000003</v>
+        <v>4117.1710000000003</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3788,31 +4476,31 @@
         <v>0</v>
       </c>
       <c r="D10" s="16">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="18">
-        <v>50666.375</v>
+        <v>8307.2289999999994</v>
       </c>
       <c r="F10" s="18">
-        <v>6997.1864999999998</v>
+        <v>5637.5043999999998</v>
       </c>
       <c r="G10" s="18">
-        <v>580.08309999999994</v>
+        <v>19359.86</v>
       </c>
       <c r="H10" s="18">
-        <v>9.9232750000000003</v>
+        <v>0</v>
       </c>
       <c r="I10" s="18">
-        <v>496.07040000000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
-        <v>11223.45</v>
+        <v>35218.61</v>
       </c>
       <c r="K10" s="18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L10" s="16">
-        <v>7087.11</v>
+        <v>5637.5043999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3826,31 +4514,31 @@
         <v>0</v>
       </c>
       <c r="D11" s="16">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
-        <v>4876.9184999999998</v>
+        <v>25289.322</v>
       </c>
       <c r="F11" s="18">
-        <v>6934.8563999999997</v>
+        <v>6735.7370000000001</v>
       </c>
       <c r="G11" s="18">
-        <v>53424.245999999999</v>
+        <v>23284.936000000002</v>
       </c>
       <c r="H11" s="18">
-        <v>20.115635000000001</v>
+        <v>0</v>
       </c>
       <c r="I11" s="18">
-        <v>1008.0674</v>
+        <v>0</v>
       </c>
       <c r="J11" s="18">
-        <v>2434.8375999999998</v>
+        <v>7320.9507000000003</v>
       </c>
       <c r="K11" s="18">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
-        <v>7754.9719999999998</v>
+        <v>6735.7370000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3867,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>16257.875</v>
+        <v>35420.733999999997</v>
       </c>
       <c r="F12" s="18">
-        <v>6005.1616000000004</v>
+        <v>6657.72</v>
       </c>
       <c r="G12" s="18">
-        <v>27075.453000000001</v>
+        <v>28978.937999999998</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
@@ -3882,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="18">
-        <v>10811.047</v>
+        <v>13024.455</v>
       </c>
       <c r="K12" s="18">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <v>6005.1616000000004</v>
+        <v>6657.72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3905,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <v>15865.38</v>
+        <v>8538.3919999999998</v>
       </c>
       <c r="F13" s="18">
-        <v>5633.5263999999997</v>
+        <v>6052.098</v>
       </c>
       <c r="G13" s="18">
-        <v>6638.6819999999998</v>
+        <v>9527.8449999999993</v>
       </c>
       <c r="H13" s="18">
         <v>0</v>
@@ -3920,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="18">
-        <v>39824.61</v>
+        <v>39517.550000000003</v>
       </c>
       <c r="K13" s="18">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <v>5633.5263999999997</v>
+        <v>6052.098</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3940,31 +4628,31 @@
         <v>0</v>
       </c>
       <c r="D14" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
-        <v>26112.355</v>
+        <v>652.43780000000004</v>
       </c>
       <c r="F14" s="18">
-        <v>7400.9594999999999</v>
+        <v>655.77250000000004</v>
       </c>
       <c r="G14" s="18">
-        <v>15698.295</v>
+        <v>31725.879000000001</v>
       </c>
       <c r="H14" s="18">
-        <v>19.867927999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" s="18">
-        <v>994.13840000000005</v>
+        <v>0</v>
       </c>
       <c r="J14" s="18">
-        <v>13323.954</v>
+        <v>39296.870000000003</v>
       </c>
       <c r="K14" s="18">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
-        <v>7820.8275999999996</v>
+        <v>655.77250000000004</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3981,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="18">
-        <v>5476.7255999999998</v>
+        <v>3509.5871999999999</v>
       </c>
       <c r="F15" s="18">
-        <v>5476.8069999999998</v>
+        <v>3511.5088000000001</v>
       </c>
       <c r="G15" s="18">
-        <v>50562.57</v>
+        <v>2981.2289999999998</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
@@ -3996,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="18">
-        <v>12560.842000000001</v>
+        <v>47521.311999999998</v>
       </c>
       <c r="K15" s="18">
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <v>5476.8069999999998</v>
+        <v>3511.5088000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4016,31 +4704,31 @@
         <v>0</v>
       </c>
       <c r="D16" s="16">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E16" s="18">
-        <v>32080.831999999999</v>
+        <v>23840.713</v>
       </c>
       <c r="F16" s="18">
-        <v>4268.0785999999998</v>
+        <v>5439.7943999999998</v>
       </c>
       <c r="G16" s="18">
-        <v>4123.3609999999999</v>
+        <v>20714.686000000002</v>
       </c>
       <c r="H16" s="18">
-        <v>0</v>
+        <v>9.869669</v>
       </c>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>504.70578</v>
       </c>
       <c r="J16" s="18">
-        <v>32595.675999999999</v>
+        <v>14776.862999999999</v>
       </c>
       <c r="K16" s="18">
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <v>4268.0785999999998</v>
+        <v>5449.6639999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4057,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <v>4739.3130000000001</v>
+        <v>8124.4076999999997</v>
       </c>
       <c r="F17" s="18">
-        <v>4741.6674999999996</v>
+        <v>5304.9369999999999</v>
       </c>
       <c r="G17" s="18">
-        <v>23251.993999999999</v>
+        <v>55682.862999999998</v>
       </c>
       <c r="H17" s="18">
         <v>0</v>
@@ -4072,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="18">
-        <v>37614.112999999998</v>
+        <v>12477.703</v>
       </c>
       <c r="K17" s="18">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <v>4741.6674999999996</v>
+        <v>5304.9369999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4095,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <v>33795.050000000003</v>
+        <v>42183.733999999997</v>
       </c>
       <c r="F18" s="18">
-        <v>4596.7349999999997</v>
+        <v>5652.6714000000002</v>
       </c>
       <c r="G18" s="18">
-        <v>1743.6519000000001</v>
+        <v>14124.950999999999</v>
       </c>
       <c r="H18" s="18">
         <v>0</v>
@@ -4110,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="18">
-        <v>27905.45</v>
+        <v>15573.512000000001</v>
       </c>
       <c r="K18" s="18">
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <v>4596.7349999999997</v>
+        <v>5652.6714000000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4133,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <v>34617.027000000002</v>
+        <v>37949.105000000003</v>
       </c>
       <c r="F19" s="18">
-        <v>3694.8335000000002</v>
+        <v>3792.8861999999999</v>
       </c>
       <c r="G19" s="18">
-        <v>32104.664000000001</v>
+        <v>12171.117</v>
       </c>
       <c r="H19" s="18">
         <v>0</v>
@@ -4148,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="18">
-        <v>2017.0844999999999</v>
+        <v>9720.3050000000003</v>
       </c>
       <c r="K19" s="18">
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <v>3694.8335000000002</v>
+        <v>3792.8861999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4171,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <v>17258.008000000002</v>
+        <v>20419.627</v>
       </c>
       <c r="F20" s="18">
-        <v>3017.3290000000002</v>
+        <v>5561.2449999999999</v>
       </c>
       <c r="G20" s="18">
-        <v>32370.026999999998</v>
+        <v>27659.206999999999</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
@@ -4186,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="18">
-        <v>13261.124</v>
+        <v>17853.888999999999</v>
       </c>
       <c r="K20" s="18">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <v>3017.3290000000002</v>
+        <v>5561.2449999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4206,31 +4894,31 @@
         <v>0</v>
       </c>
       <c r="D21" s="16">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18">
-        <v>31196.965</v>
+        <v>31948.65</v>
       </c>
       <c r="F21" s="18">
-        <v>5673.8676999999998</v>
+        <v>3303.8829999999998</v>
       </c>
       <c r="G21" s="18">
-        <v>10745.264999999999</v>
+        <v>33696.625</v>
       </c>
       <c r="H21" s="18">
-        <v>19.830608000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" s="18">
-        <v>994.38819999999998</v>
+        <v>0</v>
       </c>
       <c r="J21" s="18">
-        <v>12269.02</v>
+        <v>9336.6560000000009</v>
       </c>
       <c r="K21" s="18">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
-        <v>6093.6980000000003</v>
+        <v>3303.8829999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="18">
-        <v>19618.646000000001</v>
+        <v>13705.299000000001</v>
       </c>
       <c r="F22" s="18">
-        <v>4392.1279999999997</v>
+        <v>3594.0708</v>
       </c>
       <c r="G22" s="18">
-        <v>48769.66</v>
+        <v>22908.107</v>
       </c>
       <c r="H22" s="18">
         <v>0</v>
@@ -4262,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="18">
-        <v>9267.9840000000004</v>
+        <v>15102.691000000001</v>
       </c>
       <c r="K22" s="18">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>4392.1279999999997</v>
+        <v>3594.0708</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4285,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <v>27764.067999999999</v>
+        <v>7564.1054999999997</v>
       </c>
       <c r="F23" s="18">
-        <v>4793.2934999999998</v>
+        <v>7498.8509999999997</v>
       </c>
       <c r="G23" s="18">
-        <v>11796.838</v>
+        <v>38850.394999999997</v>
       </c>
       <c r="H23" s="18">
         <v>0</v>
@@ -4300,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="18">
-        <v>32140.377</v>
+        <v>10924.135</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <v>4793.2934999999998</v>
+        <v>7498.8509999999997</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4320,31 +5008,31 @@
         <v>0</v>
       </c>
       <c r="D24" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="18">
-        <v>20978.046999999999</v>
+        <v>15725.210999999999</v>
       </c>
       <c r="F24" s="18">
-        <v>6814.2602999999999</v>
+        <v>1636.7212999999999</v>
       </c>
       <c r="G24" s="18">
-        <v>38279.040000000001</v>
+        <v>9297.6200000000008</v>
       </c>
       <c r="H24" s="18">
-        <v>19.8278</v>
+        <v>0</v>
       </c>
       <c r="I24" s="18">
-        <v>994.28409999999997</v>
+        <v>0</v>
       </c>
       <c r="J24" s="18">
-        <v>9081.85</v>
+        <v>51632.89</v>
       </c>
       <c r="K24" s="18">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
-        <v>7309.0879999999997</v>
+        <v>1636.7212999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4358,31 +5046,31 @@
         <v>0</v>
       </c>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E25" s="18">
-        <v>41368.675999999999</v>
+        <v>19184.474999999999</v>
       </c>
       <c r="F25" s="18">
-        <v>5131.0150000000003</v>
+        <v>7495.1</v>
       </c>
       <c r="G25" s="18">
-        <v>18072.05</v>
+        <v>13713.957</v>
       </c>
       <c r="H25" s="18">
-        <v>0</v>
+        <v>59.349224</v>
       </c>
       <c r="I25" s="18">
-        <v>0</v>
+        <v>3001.6206000000002</v>
       </c>
       <c r="J25" s="18">
-        <v>14482.429</v>
+        <v>27112.136999999999</v>
       </c>
       <c r="K25" s="18">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L25" s="16">
-        <v>5131.0150000000003</v>
+        <v>8454.4490000000005</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4396,31 +5084,31 @@
         <v>0</v>
       </c>
       <c r="D26" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18">
-        <v>17820.240000000002</v>
+        <v>24539.502</v>
       </c>
       <c r="F26" s="18">
-        <v>5497.1130000000003</v>
+        <v>1862.4465</v>
       </c>
       <c r="G26" s="18">
-        <v>22097.807000000001</v>
+        <v>28723.546999999999</v>
       </c>
       <c r="H26" s="18">
-        <v>49.884887999999997</v>
+        <v>0</v>
       </c>
       <c r="I26" s="18">
-        <v>2502.6752999999999</v>
+        <v>0</v>
       </c>
       <c r="J26" s="18">
-        <v>14821.795</v>
+        <v>4346.7690000000002</v>
       </c>
       <c r="K26" s="18">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
-        <v>5746.9975999999997</v>
+        <v>1862.4465</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4437,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <v>16124.987999999999</v>
+        <v>17242.8</v>
       </c>
       <c r="F27" s="18">
-        <v>5477.22</v>
+        <v>5662.2749999999996</v>
       </c>
       <c r="G27" s="18">
-        <v>14594.249</v>
+        <v>18590.703000000001</v>
       </c>
       <c r="H27" s="18">
         <v>0</v>
@@ -4452,13 +5140,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="18">
-        <v>30771.888999999999</v>
+        <v>39041.366999999998</v>
       </c>
       <c r="K27" s="18">
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <v>5477.22</v>
+        <v>5662.2749999999996</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4475,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <v>1356.6287</v>
+        <v>20789.328000000001</v>
       </c>
       <c r="F28" s="18">
-        <v>1358.6824999999999</v>
+        <v>5643.7359999999999</v>
       </c>
       <c r="G28" s="18">
-        <v>53825.51</v>
+        <v>13438.434999999999</v>
       </c>
       <c r="H28" s="18">
         <v>0</v>
@@ -4490,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="18">
-        <v>7161.6670000000004</v>
+        <v>39243.980000000003</v>
       </c>
       <c r="K28" s="18">
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>1358.6824999999999</v>
+        <v>5643.7359999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4513,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="18">
-        <v>8282.1149999999998</v>
+        <v>9838.8340000000007</v>
       </c>
       <c r="F29" s="18">
-        <v>2981.8222999999998</v>
+        <v>5822.9066999999995</v>
       </c>
       <c r="G29" s="18">
-        <v>37726.438000000002</v>
+        <v>10886.252</v>
       </c>
       <c r="H29" s="18">
         <v>0</v>
@@ -4528,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="18">
-        <v>12344.359</v>
+        <v>46995.726999999999</v>
       </c>
       <c r="K29" s="18">
         <v>0</v>
       </c>
       <c r="L29" s="16">
-        <v>2981.8222999999998</v>
+        <v>5822.9066999999995</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4551,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <v>25470.6</v>
+        <v>14543.766</v>
       </c>
       <c r="F30" s="18">
-        <v>2532.8523</v>
+        <v>6022.1625999999997</v>
       </c>
       <c r="G30" s="18">
-        <v>21185.098000000002</v>
+        <v>9519.3289999999997</v>
       </c>
       <c r="H30" s="18">
         <v>0</v>
@@ -4566,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="18">
-        <v>19693.11</v>
+        <v>36242.855000000003</v>
       </c>
       <c r="K30" s="18">
         <v>0</v>
       </c>
       <c r="L30" s="16">
-        <v>2532.8523</v>
+        <v>6022.1625999999997</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4589,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="18">
-        <v>66340.375</v>
+        <v>11141.302</v>
       </c>
       <c r="F31" s="18">
-        <v>6732.107</v>
+        <v>1528.8844999999999</v>
       </c>
       <c r="G31" s="18">
-        <v>7523.3180000000002</v>
+        <v>29950.615000000002</v>
       </c>
       <c r="H31" s="18">
         <v>0</v>
@@ -4604,13 +5292,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="18">
-        <v>6043.5690000000004</v>
+        <v>12557.854499999999</v>
       </c>
       <c r="K31" s="18">
         <v>0</v>
       </c>
       <c r="L31" s="16">
-        <v>6732.107</v>
+        <v>1528.8844999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4627,13 +5315,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <v>30255.988000000001</v>
+        <v>34095.152000000002</v>
       </c>
       <c r="F32" s="18">
-        <v>3716.4978000000001</v>
+        <v>5659.8320000000003</v>
       </c>
       <c r="G32" s="18">
-        <v>11176.171</v>
+        <v>16010.275</v>
       </c>
       <c r="H32" s="18">
         <v>0</v>
@@ -4642,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="18">
-        <v>22404.914000000001</v>
+        <v>12258.767</v>
       </c>
       <c r="K32" s="18">
         <v>0</v>
       </c>
       <c r="L32" s="16">
-        <v>3716.4978000000001</v>
+        <v>5659.8320000000003</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4665,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="18">
-        <v>23255.33</v>
+        <v>24558.465</v>
       </c>
       <c r="F33" s="18">
-        <v>5683.6464999999998</v>
+        <v>4702.8285999999998</v>
       </c>
       <c r="G33" s="18">
-        <v>719.98990000000003</v>
+        <v>34331.39</v>
       </c>
       <c r="H33" s="18">
         <v>0</v>
@@ -4680,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="18">
-        <v>50674.58</v>
+        <v>1042.2909999999999</v>
       </c>
       <c r="K33" s="18">
         <v>0</v>
       </c>
       <c r="L33" s="16">
-        <v>5683.6464999999998</v>
+        <v>4702.8285999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4703,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="18">
-        <v>25925.914000000001</v>
+        <v>17574.168000000001</v>
       </c>
       <c r="F34" s="18">
-        <v>5321.049</v>
+        <v>5858.8370000000004</v>
       </c>
       <c r="G34" s="18">
-        <v>28916.333999999999</v>
+        <v>15327.355</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
@@ -4718,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="18">
-        <v>15797.962</v>
+        <v>40666.39</v>
       </c>
       <c r="K34" s="18">
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>5321.049</v>
+        <v>5858.8370000000004</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4741,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="18">
-        <v>14634.603999999999</v>
+        <v>27828.467000000001</v>
       </c>
       <c r="F35" s="18">
-        <v>2715.6559999999999</v>
+        <v>3399.6361999999999</v>
       </c>
       <c r="G35" s="18">
-        <v>30515.763999999999</v>
+        <v>33575.47</v>
       </c>
       <c r="H35" s="18">
         <v>0</v>
@@ -4756,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="18">
-        <v>32835.214999999997</v>
+        <v>7937.3680000000004</v>
       </c>
       <c r="K35" s="18">
         <v>0</v>
       </c>
       <c r="L35" s="16">
-        <v>2715.6559999999999</v>
+        <v>3399.6361999999999</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4779,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="18">
-        <v>29065.105</v>
+        <v>26938.796999999999</v>
       </c>
       <c r="F36" s="18">
-        <v>5655.6949999999997</v>
+        <v>5714.0902999999998</v>
       </c>
       <c r="G36" s="18">
-        <v>6339.4859999999999</v>
+        <v>21059.355</v>
       </c>
       <c r="H36" s="18">
         <v>0</v>
@@ -4794,13 +5482,431 @@
         <v>0</v>
       </c>
       <c r="J36" s="18">
-        <v>28791.245999999999</v>
+        <v>16857.092000000001</v>
       </c>
       <c r="K36" s="18">
         <v>0</v>
       </c>
       <c r="L36" s="16">
-        <v>5655.6949999999997</v>
+        <v>5714.0902999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>40000</v>
+      </c>
+      <c r="E37" s="18">
+        <v>7548.3670000000002</v>
+      </c>
+      <c r="F37" s="18">
+        <v>6887.0316999999995</v>
+      </c>
+      <c r="G37" s="18">
+        <v>15590.460999999999</v>
+      </c>
+      <c r="H37" s="18">
+        <v>140.18187</v>
+      </c>
+      <c r="I37" s="18">
+        <v>6979.5722999999998</v>
+      </c>
+      <c r="J37" s="18">
+        <v>28833.583999999999</v>
+      </c>
+      <c r="K37" s="18">
+        <v>300</v>
+      </c>
+      <c r="L37" s="16">
+        <v>7327.2133999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E38" s="18">
+        <v>6698.2039999999997</v>
+      </c>
+      <c r="F38" s="18">
+        <v>4539.1616000000004</v>
+      </c>
+      <c r="G38" s="18">
+        <v>15942.725</v>
+      </c>
+      <c r="H38" s="18">
+        <v>79.826539999999994</v>
+      </c>
+      <c r="I38" s="18">
+        <v>3985.0158999999999</v>
+      </c>
+      <c r="J38" s="18">
+        <v>33418.214999999997</v>
+      </c>
+      <c r="K38" s="18">
+        <v>415</v>
+      </c>
+      <c r="L38" s="16">
+        <v>5033.9883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E39" s="18">
+        <v>6753.8467000000001</v>
+      </c>
+      <c r="F39" s="18">
+        <v>6018.6180000000004</v>
+      </c>
+      <c r="G39" s="18">
+        <v>12307.677</v>
+      </c>
+      <c r="H39" s="18">
+        <v>119.73981000000001</v>
+      </c>
+      <c r="I39" s="18">
+        <v>5973.1763000000001</v>
+      </c>
+      <c r="J39" s="18">
+        <v>35425.43</v>
+      </c>
+      <c r="K39" s="18">
+        <v>700</v>
+      </c>
+      <c r="L39" s="16">
+        <v>6838.3580000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>80000</v>
+      </c>
+      <c r="E40" s="18">
+        <v>8970.6149999999998</v>
+      </c>
+      <c r="F40" s="18">
+        <v>6477.4907000000003</v>
+      </c>
+      <c r="G40" s="18">
+        <v>14259.993</v>
+      </c>
+      <c r="H40" s="18">
+        <v>119.73981000000001</v>
+      </c>
+      <c r="I40" s="18">
+        <v>5981.8926000000001</v>
+      </c>
+      <c r="J40" s="18">
+        <v>32757.963</v>
+      </c>
+      <c r="K40" s="18">
+        <v>200</v>
+      </c>
+      <c r="L40" s="16">
+        <v>6797.2304999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2235.0684000000001</v>
+      </c>
+      <c r="F41" s="18">
+        <v>3096.7788</v>
+      </c>
+      <c r="G41" s="18">
+        <v>45432.25</v>
+      </c>
+      <c r="H41" s="18">
+        <v>78.657970000000006</v>
+      </c>
+      <c r="I41" s="18">
+        <v>3961.5239999999999</v>
+      </c>
+      <c r="J41" s="18">
+        <v>12555.82</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1845</v>
+      </c>
+      <c r="L41" s="16">
+        <v>5020.4364999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>951.97310000000004</v>
+      </c>
+      <c r="F42" s="18">
+        <v>954.98450000000003</v>
+      </c>
+      <c r="G42" s="18">
+        <v>44782.925999999999</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>12126.433000000001</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
+        <v>954.98450000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>80000</v>
+      </c>
+      <c r="E43" s="18">
+        <v>5232.1166999999996</v>
+      </c>
+      <c r="F43" s="18">
+        <v>6186.3725999999997</v>
+      </c>
+      <c r="G43" s="18">
+        <v>35822.410000000003</v>
+      </c>
+      <c r="H43" s="18">
+        <v>118.53243999999999</v>
+      </c>
+      <c r="I43" s="18">
+        <v>5981.9375</v>
+      </c>
+      <c r="J43" s="18">
+        <v>16594.523000000001</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="16">
+        <v>7304.9049999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E44" s="18">
+        <v>25063.627</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2814.0952000000002</v>
+      </c>
+      <c r="G44" s="18">
+        <v>19705.728999999999</v>
+      </c>
+      <c r="H44" s="18">
+        <v>107.716446</v>
+      </c>
+      <c r="I44" s="18">
+        <v>5508.8657000000003</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10940.383</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="16">
+        <v>3921.8117999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>9416.2520000000004</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3270.0814999999998</v>
+      </c>
+      <c r="G45" s="18">
+        <v>35646.061999999998</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>15359.924999999999</v>
+      </c>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>3270.0814999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>34194.616999999998</v>
+      </c>
+      <c r="F46" s="18">
+        <v>5952.3310000000001</v>
+      </c>
+      <c r="G46" s="18">
+        <v>13870.407999999999</v>
+      </c>
+      <c r="H46" s="18">
+        <v>137.16051999999999</v>
+      </c>
+      <c r="I46" s="18">
+        <v>7052.5730000000003</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1900.7248999999999</v>
+      </c>
+      <c r="K46" s="18">
+        <v>900</v>
+      </c>
+      <c r="L46" s="16">
+        <v>6989.4916999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>60000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>10213.047</v>
+      </c>
+      <c r="F47" s="18">
+        <v>6910.5385999999999</v>
+      </c>
+      <c r="G47" s="18">
+        <v>50604.945</v>
+      </c>
+      <c r="H47" s="18">
+        <v>119.54525</v>
+      </c>
+      <c r="I47" s="18">
+        <v>5933.2772999999997</v>
+      </c>
+      <c r="J47" s="18">
+        <v>13513.175999999999</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1360</v>
+      </c>
+      <c r="L47" s="16">
+        <v>8390.0840000000007</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +5916,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -4861,7 +5967,7 @@
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="21">
-        <v>870</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="24">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="F5" s="22">
         <v>1500</v>
@@ -4926,10 +6032,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="24">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F6" s="22">
-        <v>558</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="22">
-        <v>676</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4980,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="22">
-        <v>1500</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5011,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="24">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="F11" s="22">
         <v>1500</v>
@@ -5028,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="F12" s="22">
         <v>1500</v>
@@ -5065,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="22">
-        <v>1500</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,10 +6185,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="24">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="F15" s="22">
-        <v>1370</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="22">
-        <v>1325</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5133,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="22">
-        <v>1262</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="22">
-        <v>1262</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="22">
-        <v>1144</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="22">
-        <v>1488</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="24">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="F24" s="22">
-        <v>1500</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5249,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="24">
-        <v>908</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
         <v>1500</v>
@@ -5266,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="24">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="F26" s="22">
-        <v>1500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5283,10 +6389,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="24">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F27" s="22">
-        <v>1450</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="22">
-        <v>704</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="22">
-        <v>834</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="22">
-        <v>676</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5354,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="22">
-        <v>1500</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="24">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F32" s="22">
-        <v>964</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>1500</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5419,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="24">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F35" s="22">
-        <v>616</v>
+        <v>907</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5440,6 +6546,193 @@
       </c>
       <c r="F36" s="22">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="22">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0</v>
+      </c>
+      <c r="F41" s="22">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -5449,7 +6742,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
@@ -5493,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5516,13 +6809,13 @@
         <v>75</v>
       </c>
       <c r="D3" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F3" s="18">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5556,13 +6849,13 @@
         <v>75</v>
       </c>
       <c r="D5" s="24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="18">
-        <v>-80</v>
+        <v>-200</v>
       </c>
       <c r="F5" s="18">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5573,16 +6866,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="18">
-        <v>-40</v>
+        <v>-120</v>
       </c>
       <c r="F6" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5596,13 +6889,13 @@
         <v>75</v>
       </c>
       <c r="D7" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="18">
-        <v>-20</v>
+        <v>-80</v>
       </c>
       <c r="F7" s="18">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5613,16 +6906,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>-60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5633,16 +6926,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="18">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F9" s="18">
-        <v>100</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5656,13 +6949,13 @@
         <v>75</v>
       </c>
       <c r="D10" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="18">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="F10" s="18">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5676,13 +6969,13 @@
         <v>75</v>
       </c>
       <c r="D11" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E11" s="18">
-        <v>-160</v>
+        <v>-20</v>
       </c>
       <c r="F11" s="18">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5696,13 +6989,13 @@
         <v>75</v>
       </c>
       <c r="D12" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="F12" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,13 +7009,13 @@
         <v>75</v>
       </c>
       <c r="D13" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F13" s="18">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5733,16 +7026,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5756,10 +7049,10 @@
         <v>76</v>
       </c>
       <c r="D15" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18">
         <v>0</v>
@@ -5793,16 +7086,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="18">
-        <v>-20</v>
+        <v>-80</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5813,16 +7106,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="18">
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,13 +7129,13 @@
         <v>76</v>
       </c>
       <c r="D19" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="18">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="F19" s="18">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5876,13 +7169,13 @@
         <v>75</v>
       </c>
       <c r="D21" s="24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="18">
-        <v>-80</v>
+        <v>-20</v>
       </c>
       <c r="F21" s="18">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5913,16 +7206,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="18">
-        <v>-120</v>
+        <v>-60</v>
       </c>
       <c r="F23" s="18">
-        <v>-20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,7 +7226,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="24">
         <v>6</v>
@@ -5942,7 +7235,7 @@
         <v>-120</v>
       </c>
       <c r="F24" s="18">
-        <v>75</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,10 +7249,10 @@
         <v>75</v>
       </c>
       <c r="D25" s="24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E25" s="18">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="F25" s="18">
         <v>100</v>
@@ -5973,16 +7266,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" s="18">
-        <v>-40</v>
+        <v>-120</v>
       </c>
       <c r="F26" s="18">
-        <v>100</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6013,16 +7306,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="18">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F28" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,16 +7346,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" s="18">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" s="18">
-        <v>-20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6073,16 +7366,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" s="18">
-        <v>-60</v>
+        <v>-120</v>
       </c>
       <c r="F31" s="18">
-        <v>40</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,16 +7386,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" s="18">
-        <v>-120</v>
+        <v>-60</v>
       </c>
       <c r="F32" s="18">
-        <v>-20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6113,16 +7406,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="18">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="F33" s="18">
-        <v>100</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6136,13 +7429,13 @@
         <v>75</v>
       </c>
       <c r="D34" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="18">
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="F34" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6156,13 +7449,13 @@
         <v>76</v>
       </c>
       <c r="D35" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="18">
-        <v>-100</v>
+        <v>-120</v>
       </c>
       <c r="F35" s="18">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6183,6 +7476,226 @@
       </c>
       <c r="F36" s="18">
         <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="24">
+        <v>3</v>
+      </c>
+      <c r="E37" s="18">
+        <v>-60</v>
+      </c>
+      <c r="F37" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="24">
+        <v>10</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-200</v>
+      </c>
+      <c r="F38" s="18">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="24">
+        <v>7</v>
+      </c>
+      <c r="E39" s="18">
+        <v>-140</v>
+      </c>
+      <c r="F39" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="24">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F40" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="24">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>-100</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="24">
+        <v>2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>-40</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="24">
+        <v>10</v>
+      </c>
+      <c r="E43" s="18">
+        <v>-200</v>
+      </c>
+      <c r="F43" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="24">
+        <v>10</v>
+      </c>
+      <c r="E44" s="18">
+        <v>-200</v>
+      </c>
+      <c r="F44" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="24">
+        <v>6</v>
+      </c>
+      <c r="E45" s="18">
+        <v>-120</v>
+      </c>
+      <c r="F45" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <v>44</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="24">
+        <v>9</v>
+      </c>
+      <c r="E46" s="18">
+        <v>-180</v>
+      </c>
+      <c r="F46" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="24">
+        <v>14</v>
+      </c>
+      <c r="E47" s="18">
+        <v>-280</v>
+      </c>
+      <c r="F47" s="18">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +7714,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -6312,16 +7825,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6329,7 +7832,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -6397,34 +7900,34 @@
         <v>50</v>
       </c>
       <c r="C2" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6">
         <v>50</v>
       </c>
       <c r="F2" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="19">
-        <v>0</v>
+      <c r="I2" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="J2" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
       </c>
-      <c r="L2" s="15">
-        <v>0</v>
+      <c r="L2" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6432,113 +7935,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>60</v>
       </c>
       <c r="F3" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
+      <c r="I3" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="J3" s="7">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>70</v>
-      </c>
-      <c r="F4" s="7">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>425</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <v>80</v>
-      </c>
-      <c r="F5" s="7">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" s="7">
-        <v>425</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
